--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D80CC3C-15C8-44AD-8C46-7533A1E1EFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B655D1-975F-4846-B85B-BB20C083BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="210">
   <si>
     <t>Capital Cost Baseline</t>
   </si>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>CO2 Emissions for Diesel</t>
-  </si>
-  <si>
-    <t>from PCL 1.15</t>
   </si>
   <si>
     <t>Rs/MWh</t>
@@ -9610,7 +9607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DE934-23F3-4414-B95B-145CF3421268}">
   <dimension ref="A3:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -11096,8 +11093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D27CD2-E810-4FE6-87F8-09242D0DB167}">
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11105,9 +11102,10 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>58</v>
       </c>
@@ -11118,7 +11116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>73</v>
       </c>
@@ -11132,7 +11130,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
@@ -11144,19 +11142,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="92">
-        <f>8000</f>
-        <v>8000</v>
+        <f>29.9*1000</f>
+        <v>29900</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>B5/B3</f>
+        <v>24.916666666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>76</v>
       </c>
@@ -11165,7 +11167,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>203</v>
       </c>
@@ -11176,12 +11178,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="72">
-        <v>3900</v>
+        <f>15.61*284</f>
+        <v>4433.24</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>43</v>
@@ -11190,7 +11193,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>67</v>
       </c>
@@ -11202,21 +11205,21 @@
       </c>
       <c r="D9" s="90"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="91">
-        <v>14657</v>
+        <f>B8*D5</f>
+        <v>110461.56333333334</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="83" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="83"/>
+      <c r="F10" s="90"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>49</v>
       </c>
@@ -11225,7 +11228,7 @@
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>204</v>
       </c>
@@ -11236,12 +11239,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="72">
-        <v>198826.33</v>
+        <v>240000</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>162</v>
@@ -11250,7 +11253,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>78</v>
       </c>
@@ -11261,18 +11264,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="91">
-        <v>26923</v>
+        <v>29900</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>80</v>
       </c>
@@ -11325,7 +11328,7 @@
       </c>
       <c r="B20" s="54">
         <f>B15</f>
-        <v>26923</v>
+        <v>29900</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>39</v>
@@ -11382,7 +11385,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="52">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>39</v>
@@ -11437,10 +11440,10 @@
         <v>71</v>
       </c>
       <c r="B30" s="52">
-        <v>70000</v>
+        <v>72000</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11760,15 +11763,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12027,27 +12027,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12072,9 +12066,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B655D1-975F-4846-B85B-BB20C083BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A39960-BB98-4839-8298-ED191B38A3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="2" r:id="rId1"/>
@@ -11093,8 +11093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D27CD2-E810-4FE6-87F8-09242D0DB167}">
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11269,7 +11269,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="91">
-        <v>29900</v>
+        <v>61479</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>39</v>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="B20" s="54">
         <f>B15</f>
-        <v>29900</v>
+        <v>61479</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>39</v>
@@ -11763,12 +11763,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12027,21 +12030,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12066,18 +12075,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{71A39960-BB98-4839-8298-ED191B38A3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5C9ABE0-35A7-4DB6-A306-BE4C286FA294}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B8125-C395-467E-981F-7C1BFCE05435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="thermal_sources" sheetId="5" r:id="rId5"/>
     <sheet name="site_load" sheetId="8" r:id="rId6"/>
     <sheet name="tariff" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="187">
   <si>
     <t>Capital Cost baseline</t>
   </si>
@@ -231,12 +230,6 @@
     <t>kg/MWh</t>
   </si>
   <si>
-    <t>https://www.irena.org/-/media/Files/IRENA/Agency/Statistics/Statistical_Profiles/Asia/Pakistan_Asia_RE_SP.pdf</t>
-  </si>
-  <si>
-    <t>https://kpac.sharepoint.com/:b:/s/EngineeringTeam/ETPDVrU8w6ZArTNMSrZAWOEBi5TlzW6CBpoc_OhZnRMlQg?e=9SsQqa</t>
-  </si>
-  <si>
     <t>Tariff Baseline Fixed</t>
   </si>
   <si>
@@ -345,9 +338,6 @@
     <t>Existing/ Year 0 Cost</t>
   </si>
   <si>
-    <t>https://kpac.sharepoint.com/:b:/s/EngineeringTeam/ESKDzKHwlX9ElWJSu5ADlzQBrFF-At2BOZKNgqoxRgazqg?e=flJ3dM</t>
-  </si>
-  <si>
     <t>Load Profile</t>
   </si>
   <si>
@@ -613,184 +603,13 @@
   </si>
   <si>
     <t>CO2 Emissions for Diesel</t>
-  </si>
-  <si>
-    <t>Row data and its references</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Capex and Opex for a grid-tied solar plant in the size range of 01 to 02MW. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CAPEX for a high quality solar PV installation ranges from</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.55 to 0.57 cents per watt</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Open you can assume at 7000 USD per MW per year. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Capex and Opex for BESS [2.0 PCS and 1.25 MWh storage]. BESS is primarily CAPEX not much OPEX. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CAPEX depends on chemistry of storage, inverter selection and capability and discharge rate. The most common chemistry is LiPO4 , which has a CAPEX (with Power Conversion and System and Battery Management System) of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$ 375 USD/Kwh</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. What useful life of BESS is normally considered in feasibility studies? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This significantly depends on usage (i.e. cycling) , more the Depth of Discharge, more the cycling lesser is the life. For LiPO4 with 2 to 3 cycles per day at 80% DoD and at 1 C (Discharge rate) you can get 6 to 7 years.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Capex and Opex for a 2.5MW wind turbine?  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You can assume a 1.2 million USD per MW for CAPEX and 30,000 USD per MW per year for OPEX.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cent</t>
-  </si>
-  <si>
-    <t>Cent to USD</t>
-  </si>
-  <si>
-    <t>1 USD to PKR</t>
-  </si>
-  <si>
-    <t>PKR/W</t>
-  </si>
-  <si>
-    <t>PKR/MW</t>
-  </si>
-  <si>
-    <t>USD/MW</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>CAPEX</t>
-  </si>
-  <si>
-    <t>OPEX</t>
-  </si>
-  <si>
-    <t>USD/kWh</t>
-  </si>
-  <si>
-    <t>PKR/kWh</t>
-  </si>
-  <si>
-    <t>PKR/MWh</t>
-  </si>
-  <si>
-    <t>BESS</t>
-  </si>
-  <si>
-    <t>7 ys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind </t>
-  </si>
-  <si>
-    <t>In comparison to HFO, LNG shipping fuel can reduce NOX emissions by 85–95%, CO2 by 20%, and SOX by 100%</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>NOX Emissions on RLNG</t>
-  </si>
-  <si>
-    <t>NOX Emissions on HFO</t>
-  </si>
-  <si>
-    <t>A global fleet of 7.0 GW generating capacity reliant on domestic NG could emit 12 Tg CO2, 2.2–8.6 Tg CH4, 4.3 Gg NOx, and 2.6 Gg PM. Additional NOx and SO2 emissions would result from imported LNG, as LNG tankers burn dirty fuel oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -799,9 +618,8 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,22 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF38761D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -900,6 +702,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -939,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -962,92 +788,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1058,9 +798,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1190,59 +930,26 @@
     <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="9" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1252,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
@@ -1260,6 +967,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
@@ -1551,10 +1265,10 @@
   <dimension ref="A1:U308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -1576,7 +1290,7 @@
     <col min="20" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1641,16 +1355,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
-        <f>Sheet1!E15</f>
         <v>360000000</v>
       </c>
       <c r="B2" s="38">
-        <f>Sheet1!J15</f>
         <v>9000000</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="63">
         <v>20</v>
       </c>
       <c r="D2" s="5">
@@ -1706,7 +1418,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1726,7 +1438,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>1</v>
       </c>
@@ -1749,7 +1461,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>2</v>
       </c>
@@ -1761,7 +1473,7 @@
         <v>7.6666666666666675E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>3</v>
       </c>
@@ -1773,7 +1485,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>4</v>
       </c>
@@ -1785,7 +1497,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>5</v>
       </c>
@@ -1797,7 +1509,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>6</v>
       </c>
@@ -1809,7 +1521,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>7</v>
       </c>
@@ -1821,7 +1533,7 @@
         <v>9.8333333333333328E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>8</v>
       </c>
@@ -1833,7 +1545,7 @@
         <v>8.9166666666666672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>9</v>
       </c>
@@ -1845,7 +1557,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>10</v>
       </c>
@@ -1857,7 +1569,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>11</v>
       </c>
@@ -1869,7 +1581,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>12</v>
       </c>
@@ -1881,7 +1593,7 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -1892,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>1</v>
       </c>
@@ -1903,7 +1615,7 @@
         <v>7.0064119192243659</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>1</v>
       </c>
@@ -1914,7 +1626,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>1</v>
       </c>
@@ -1925,7 +1637,7 @@
         <v>7.353263994433493</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>1</v>
       </c>
@@ -1936,7 +1648,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>1</v>
       </c>
@@ -1947,7 +1659,7 @@
         <v>6.4514485988897627</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>1</v>
       </c>
@@ -1958,7 +1670,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>1</v>
       </c>
@@ -1969,7 +1681,7 @@
         <v>5.2027811281369045</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>1</v>
       </c>
@@ -1980,7 +1692,7 @@
         <v>4.9946698830114284</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>1</v>
       </c>
@@ -1991,7 +1703,7 @@
         <v>4.7865586378859524</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>1</v>
       </c>
@@ -2002,7 +1714,7 @@
         <v>4.6478178078023022</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>1</v>
       </c>
@@ -2013,7 +1725,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>1</v>
       </c>
@@ -2024,7 +1736,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>1</v>
       </c>
@@ -2035,7 +1747,7 @@
         <v>4.7171882228441282</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>1</v>
       </c>
@@ -2046,7 +1758,7 @@
         <v>5.3415219582205555</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>1</v>
       </c>
@@ -2057,7 +1769,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>1</v>
       </c>
@@ -2068,7 +1780,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>1</v>
       </c>
@@ -2079,7 +1791,7 @@
         <v>5.4802627883042074</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>1</v>
       </c>
@@ -2090,7 +1802,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>1</v>
       </c>
@@ -2101,7 +1813,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>1</v>
       </c>
@@ -2112,7 +1824,7 @@
         <v>5.8271148635133336</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>1</v>
       </c>
@@ -2123,7 +1835,7 @@
         <v>6.1739669387224607</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>1</v>
       </c>
@@ -2134,7 +1846,7 @@
         <v>6.5208190139315869</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>1</v>
       </c>
@@ -2145,7 +1857,7 @@
         <v>6.7289302590570639</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>1</v>
       </c>
@@ -2156,7 +1868,7 @@
         <v>6.867671089140714</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>2</v>
       </c>
@@ -2167,7 +1879,7 @@
         <v>7.0163219785160527</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>2</v>
       </c>
@@ -2178,7 +1890,7 @@
         <v>7.1352426900163248</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>2</v>
       </c>
@@ -2189,7 +1901,7 @@
         <v>6.9568616227659161</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>2</v>
       </c>
@@ -2200,7 +1912,7 @@
         <v>6.5406391325149658</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>2</v>
       </c>
@@ -2211,7 +1923,7 @@
         <v>5.4703527290125162</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>2</v>
       </c>
@@ -2222,7 +1934,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>2</v>
       </c>
@@ -2233,7 +1945,7 @@
         <v>4.3406059697599311</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>2</v>
       </c>
@@ -2244,7 +1956,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>2</v>
       </c>
@@ -2255,7 +1967,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>2</v>
       </c>
@@ -2266,7 +1978,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>2</v>
       </c>
@@ -2277,7 +1989,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>2</v>
       </c>
@@ -2288,7 +2000,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>2</v>
       </c>
@@ -2299,7 +2011,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>2</v>
       </c>
@@ -2310,7 +2022,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>2</v>
       </c>
@@ -2321,7 +2033,7 @@
         <v>5.0541302387615632</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>2</v>
       </c>
@@ -2332,7 +2044,7 @@
         <v>5.1730509502618363</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>2</v>
       </c>
@@ -2343,7 +2055,7 @@
         <v>5.2325113060119719</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>2</v>
       </c>
@@ -2354,7 +2066,7 @@
         <v>5.5298130847626519</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>2</v>
       </c>
@@ -2365,7 +2077,7 @@
         <v>5.8271148635133327</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>2</v>
       </c>
@@ -2376,7 +2088,7 @@
         <v>6.0649562865138771</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>2</v>
       </c>
@@ -2387,7 +2099,7 @@
         <v>6.3622580652645571</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>2</v>
       </c>
@@ -2398,7 +2110,7 @@
         <v>6.6000994882651014</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>2</v>
       </c>
@@ -2409,7 +2121,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>2</v>
       </c>
@@ -2420,7 +2132,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>3</v>
       </c>
@@ -2431,7 +2143,7 @@
         <v>6.7912677287951082</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>3</v>
       </c>
@@ -2442,7 +2154,7 @@
         <v>6.671068299966878</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>3</v>
       </c>
@@ -2453,7 +2165,7 @@
         <v>6.4907691567245287</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>3</v>
       </c>
@@ -2464,7 +2176,7 @@
         <v>6.1301708702398336</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>3</v>
       </c>
@@ -2475,7 +2187,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>3</v>
       </c>
@@ -2486,7 +2198,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>3</v>
       </c>
@@ -2497,7 +2209,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>3</v>
       </c>
@@ -2508,7 +2220,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>3</v>
       </c>
@@ -2519,7 +2231,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>3</v>
       </c>
@@ -2530,7 +2242,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>3</v>
       </c>
@@ -2541,7 +2253,7 @@
         <v>3.8463817225034247</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>3</v>
       </c>
@@ -2552,7 +2264,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>3</v>
       </c>
@@ -2563,7 +2275,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="42">
         <v>3</v>
       </c>
@@ -2574,7 +2286,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>3</v>
       </c>
@@ -2585,7 +2297,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="42">
         <v>3</v>
       </c>
@@ -2596,7 +2308,7 @@
         <v>5.7695725837551368</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="42">
         <v>3</v>
       </c>
@@ -2607,7 +2319,7 @@
         <v>6.1902705846539483</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="42">
         <v>3</v>
       </c>
@@ -2618,7 +2330,7 @@
         <v>6.2503702990680647</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="42">
         <v>3</v>
       </c>
@@ -2629,7 +2341,7 @@
         <v>6.430669442310414</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="42">
         <v>3</v>
       </c>
@@ -2640,7 +2352,7 @@
         <v>6.6109685855527616</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="42">
         <v>3</v>
       </c>
@@ -2651,7 +2363,7 @@
         <v>6.8513674432092246</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="42">
         <v>3</v>
       </c>
@@ -2662,7 +2374,7 @@
         <v>7.151866015279805</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="42">
         <v>3</v>
       </c>
@@ -2673,7 +2385,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
         <v>3</v>
       </c>
@@ -2684,7 +2396,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="42">
         <v>4</v>
       </c>
@@ -2695,7 +2407,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="42">
         <v>4</v>
       </c>
@@ -2706,7 +2418,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
         <v>4</v>
       </c>
@@ -2717,7 +2429,7 @@
         <v>11.011176990765936</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
         <v>4</v>
       </c>
@@ -2728,7 +2440,7 @@
         <v>9.3374780881695134</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
         <v>4</v>
       </c>
@@ -2739,7 +2451,7 @@
         <v>7.5756897696469636</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
         <v>4</v>
       </c>
@@ -2750,7 +2462,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
         <v>4</v>
       </c>
@@ -2761,7 +2473,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
         <v>4</v>
       </c>
@@ -2772,7 +2484,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
         <v>4</v>
       </c>
@@ -2783,7 +2495,7 @@
         <v>6.4305273626073056</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
         <v>4</v>
       </c>
@@ -2794,7 +2506,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="42">
         <v>4</v>
       </c>
@@ -2805,7 +2517,7 @@
         <v>6.8709744422379435</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="42">
         <v>4</v>
       </c>
@@ -2816,7 +2528,7 @@
         <v>7.2233321059424531</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="42">
         <v>4</v>
       </c>
@@ -2827,7 +2539,7 @@
         <v>7.6637791855730901</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="42">
         <v>4</v>
       </c>
@@ -2838,7 +2550,7 @@
         <v>8.2804050970559828</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="42">
         <v>4</v>
       </c>
@@ -2849,7 +2561,7 @@
         <v>9.1612992563172586</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="42">
         <v>4</v>
       </c>
@@ -2860,7 +2572,7 @@
         <v>9.8660145837262778</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="42">
         <v>4</v>
       </c>
@@ -2871,7 +2583,7 @@
         <v>10.570729911135297</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="42">
         <v>4</v>
       </c>
@@ -2882,7 +2594,7 @@
         <v>11.363534654470445</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="42">
         <v>4</v>
       </c>
@@ -2893,7 +2605,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="42">
         <v>4</v>
       </c>
@@ -2904,7 +2616,7 @@
         <v>12.244428813731718</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="42">
         <v>4</v>
       </c>
@@ -2915,7 +2627,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="42">
         <v>4</v>
       </c>
@@ -2926,7 +2638,7 @@
         <v>12.508697061510102</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="42">
         <v>4</v>
       </c>
@@ -2937,7 +2649,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="42">
         <v>4</v>
       </c>
@@ -2948,7 +2660,7 @@
         <v>12.156339397805592</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="42">
         <v>5</v>
       </c>
@@ -2959,7 +2671,7 @@
         <v>11.873489788855293</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="42">
         <v>5</v>
       </c>
@@ -2970,7 +2682,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="42">
         <v>5</v>
       </c>
@@ -2981,7 +2693,7 @@
         <v>11.037328536119004</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="42">
         <v>5</v>
       </c>
@@ -2992,7 +2704,7 @@
         <v>9.9503189075618295</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="42">
         <v>5</v>
       </c>
@@ -3003,7 +2715,7 @@
         <v>9.2813899053727997</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="42">
         <v>5</v>
       </c>
@@ -3014,7 +2726,7 @@
         <v>8.946925404278284</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="42">
         <v>5</v>
       </c>
@@ -3025,7 +2737,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="42">
         <v>5</v>
       </c>
@@ -3036,7 +2748,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="42">
         <v>5</v>
       </c>
@@ -3047,7 +2759,7 @@
         <v>8.863309279004655</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="42">
         <v>5</v>
       </c>
@@ -3058,7 +2770,7 @@
         <v>9.1141576548255419</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="42">
         <v>5</v>
       </c>
@@ -3069,7 +2781,7 @@
         <v>9.4486221559200558</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="42">
         <v>5</v>
       </c>
@@ -3080,7 +2792,7 @@
         <v>9.6994705317409426</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="42">
         <v>5</v>
       </c>
@@ -3091,7 +2803,7 @@
         <v>9.7830866570145716</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="42">
         <v>5</v>
       </c>
@@ -3102,7 +2814,7 @@
         <v>10.033935032835458</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="42">
         <v>5</v>
       </c>
@@ -3113,7 +2825,7 @@
         <v>10.535631784477232</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="42">
         <v>5</v>
       </c>
@@ -3124,7 +2836,7 @@
         <v>11.120944661392633</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="42">
         <v>5</v>
       </c>
@@ -3135,7 +2847,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="42">
         <v>5</v>
       </c>
@@ -3146,7 +2858,7 @@
         <v>12.12433816467618</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="42">
         <v>5</v>
       </c>
@@ -3157,7 +2869,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>5</v>
       </c>
@@ -3168,7 +2880,7 @@
         <v>12.458802665770694</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="42">
         <v>5</v>
       </c>
@@ -3179,7 +2891,7 @@
         <v>12.542418791044323</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="42">
         <v>5</v>
       </c>
@@ -3190,7 +2902,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="42">
         <v>5</v>
       </c>
@@ -3201,7 +2913,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="42">
         <v>5</v>
       </c>
@@ -3212,7 +2924,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="42">
         <v>6</v>
       </c>
@@ -3223,7 +2935,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="42">
         <v>6</v>
       </c>
@@ -3234,7 +2946,7 @@
         <v>14.508326803033196</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="42">
         <v>6</v>
       </c>
@@ -3245,7 +2957,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>6</v>
       </c>
@@ -3256,7 +2968,7 @@
         <v>13.420202292805707</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>6</v>
       </c>
@@ -3267,7 +2979,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>6</v>
       </c>
@@ -3278,7 +2990,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>6</v>
       </c>
@@ -3289,7 +3001,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>6</v>
       </c>
@@ -3300,7 +3012,7 @@
         <v>12.573883229295438</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>6</v>
       </c>
@@ -3311,7 +3023,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>6</v>
       </c>
@@ -3322,7 +3034,7 @@
         <v>13.299299569447097</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>6</v>
       </c>
@@ -3333,7 +3045,7 @@
         <v>13.662007739522924</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="42">
         <v>6</v>
       </c>
@@ -3344,7 +3056,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="42">
         <v>6</v>
       </c>
@@ -3355,7 +3067,7 @@
         <v>14.145618632957365</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="42">
         <v>6</v>
       </c>
@@ -3366,7 +3078,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="42">
         <v>6</v>
       </c>
@@ -3377,7 +3089,7 @@
         <v>15.112840419826245</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="42">
         <v>6</v>
       </c>
@@ -3388,7 +3100,7 @@
         <v>15.233743143184856</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="42">
         <v>6</v>
       </c>
@@ -3399,7 +3111,7 @@
         <v>15.475548589902077</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="42">
         <v>6</v>
       </c>
@@ -3410,7 +3122,7 @@
         <v>15.717354036619296</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="42">
         <v>6</v>
       </c>
@@ -3421,7 +3133,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="42">
         <v>6</v>
       </c>
@@ -3432,7 +3144,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="42">
         <v>6</v>
       </c>
@@ -3443,7 +3155,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="42">
         <v>6</v>
       </c>
@@ -3454,7 +3166,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="42">
         <v>6</v>
       </c>
@@ -3465,7 +3177,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="42">
         <v>6</v>
       </c>
@@ -3476,7 +3188,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="42">
         <v>7</v>
       </c>
@@ -3487,7 +3199,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="42">
         <v>7</v>
       </c>
@@ -3498,7 +3210,7 @@
         <v>14.633294330372467</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="42">
         <v>7</v>
       </c>
@@ -3509,7 +3221,7 @@
         <v>14.391421696812589</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="42">
         <v>7</v>
       </c>
@@ -3520,7 +3232,7 @@
         <v>13.907676429692838</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="42">
         <v>7</v>
       </c>
@@ -3531,7 +3243,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="42">
         <v>7</v>
       </c>
@@ -3542,7 +3254,7 @@
         <v>12.819249578673402</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="42">
         <v>7</v>
       </c>
@@ -3553,7 +3265,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="42">
         <v>7</v>
       </c>
@@ -3564,7 +3276,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="42">
         <v>7</v>
       </c>
@@ -3575,7 +3287,7 @@
         <v>12.94018589545334</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="42">
         <v>7</v>
       </c>
@@ -3586,7 +3298,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="42">
         <v>7</v>
       </c>
@@ -3597,7 +3309,7 @@
         <v>13.7867401129129</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="42">
         <v>7</v>
       </c>
@@ -3608,7 +3320,7 @@
         <v>14.270485380032653</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="42">
         <v>7</v>
       </c>
@@ -3619,7 +3331,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="42">
         <v>7</v>
       </c>
@@ -3630,7 +3342,7 @@
         <v>15.117039597492216</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="42">
         <v>7</v>
       </c>
@@ -3641,7 +3353,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="42">
         <v>7</v>
       </c>
@@ -3652,7 +3364,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="42">
         <v>7</v>
       </c>
@@ -3663,7 +3375,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="42">
         <v>7</v>
       </c>
@@ -3674,7 +3386,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="42">
         <v>7</v>
       </c>
@@ -3685,7 +3397,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="42">
         <v>7</v>
       </c>
@@ -3696,7 +3408,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="42">
         <v>7</v>
       </c>
@@ -3707,7 +3419,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="42">
         <v>7</v>
       </c>
@@ -3718,7 +3430,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="42">
         <v>7</v>
       </c>
@@ -3729,7 +3441,7 @@
         <v>15.358912231052093</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="42">
         <v>7</v>
       </c>
@@ -3740,7 +3452,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="42">
         <v>8</v>
       </c>
@@ -3751,7 +3463,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="42">
         <v>8</v>
       </c>
@@ -3762,7 +3474,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="42">
         <v>8</v>
       </c>
@@ -3773,7 +3485,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="42">
         <v>8</v>
       </c>
@@ -3784,7 +3496,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="42">
         <v>8</v>
       </c>
@@ -3795,7 +3507,7 @@
         <v>13.670324779937822</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="42">
         <v>8</v>
       </c>
@@ -3806,7 +3518,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="42">
         <v>8</v>
       </c>
@@ -3817,7 +3529,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="42">
         <v>8</v>
       </c>
@@ -3828,7 +3540,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="42">
         <v>8</v>
       </c>
@@ -3839,7 +3551,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="42">
         <v>8</v>
       </c>
@@ -3850,7 +3562,7 @@
         <v>13.260215036539686</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="42">
         <v>8</v>
       </c>
@@ -3861,7 +3573,7 @@
         <v>13.533621532138444</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="42">
         <v>8</v>
       </c>
@@ -3872,7 +3584,7 @@
         <v>14.217137771135336</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="42">
         <v>8</v>
       </c>
@@ -3883,7 +3595,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="42">
         <v>8</v>
       </c>
@@ -3894,7 +3606,7 @@
         <v>15.037357257931603</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="42">
         <v>8</v>
       </c>
@@ -3905,7 +3617,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="42">
         <v>8</v>
       </c>
@@ -3916,7 +3628,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="42">
         <v>8</v>
       </c>
@@ -3927,7 +3639,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="42">
         <v>8</v>
       </c>
@@ -3938,7 +3650,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="42">
         <v>8</v>
       </c>
@@ -3949,7 +3661,7 @@
         <v>15.447467001329738</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="42">
         <v>8</v>
       </c>
@@ -3960,7 +3672,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="42">
         <v>8</v>
       </c>
@@ -3971,7 +3683,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="42">
         <v>8</v>
       </c>
@@ -3982,7 +3694,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="42">
         <v>8</v>
       </c>
@@ -3993,7 +3705,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="42">
         <v>8</v>
       </c>
@@ -4004,7 +3716,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="42">
         <v>9</v>
       </c>
@@ -4015,7 +3727,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="42">
         <v>9</v>
       </c>
@@ -4026,7 +3738,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="42">
         <v>9</v>
       </c>
@@ -4037,7 +3749,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="42">
         <v>9</v>
       </c>
@@ -4048,7 +3760,7 @@
         <v>9.0671213072315311</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="42">
         <v>9</v>
       </c>
@@ -4059,7 +3771,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="42">
         <v>9</v>
       </c>
@@ -4070,7 +3782,7 @@
         <v>7.6307456546007923</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="42">
         <v>9</v>
       </c>
@@ -4081,7 +3793,7 @@
         <v>7.3614252197325287</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="42">
         <v>9</v>
       </c>
@@ -4092,7 +3804,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="42">
         <v>9</v>
       </c>
@@ -4103,7 +3815,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="42">
         <v>9</v>
       </c>
@@ -4114,7 +3826,7 @@
         <v>7.5409721763113717</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="42">
         <v>9</v>
       </c>
@@ -4125,7 +3837,7 @@
         <v>7.8102926111796354</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="42">
         <v>9</v>
       </c>
@@ -4136,7 +3848,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="42">
         <v>9</v>
       </c>
@@ -4147,7 +3859,7 @@
         <v>8.6182539157844253</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="42">
         <v>9</v>
       </c>
@@ -4158,7 +3870,7 @@
         <v>8.9773478289421096</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="42">
         <v>9</v>
       </c>
@@ -4169,7 +3881,7 @@
         <v>9.2466682638103723</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="42">
         <v>9</v>
       </c>
@@ -4180,7 +3892,7 @@
         <v>9.3364417420997956</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="42">
         <v>9</v>
       </c>
@@ -4191,7 +3903,7 @@
         <v>9.6955356552574798</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="42">
         <v>9</v>
       </c>
@@ -4202,7 +3914,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="42">
         <v>9</v>
       </c>
@@ -4213,7 +3925,7 @@
         <v>10.054629568415162</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="42">
         <v>9</v>
       </c>
@@ -4224,7 +3936,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="42">
         <v>9</v>
       </c>
@@ -4235,7 +3947,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="42">
         <v>9</v>
       </c>
@@ -4246,7 +3958,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="42">
         <v>9</v>
       </c>
@@ -4257,7 +3969,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="42">
         <v>9</v>
       </c>
@@ -4268,7 +3980,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="42">
         <v>10</v>
       </c>
@@ -4279,7 +3991,7 @@
         <v>7.6863386701395395</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="42">
         <v>10</v>
       </c>
@@ -4290,7 +4002,7 @@
         <v>7.4688007832487973</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="42">
         <v>10</v>
       </c>
@@ -4301,7 +4013,7 @@
         <v>7.1062376384308941</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="42">
         <v>10</v>
       </c>
@@ -4312,7 +4024,7 @@
         <v>6.59864923568583</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="42">
         <v>10</v>
       </c>
@@ -4323,7 +4035,7 @@
         <v>5.5834724301957026</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="42">
         <v>10</v>
       </c>
@@ -4334,7 +4046,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="42">
         <v>10</v>
       </c>
@@ -4345,7 +4057,7 @@
         <v>4.0607072219605111</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="42">
         <v>10</v>
       </c>
@@ -4356,7 +4068,7 @@
         <v>3.9156819640333502</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="42">
         <v>10</v>
       </c>
@@ -4367,7 +4079,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="42">
         <v>10</v>
       </c>
@@ -4378,7 +4090,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="42">
         <v>10</v>
       </c>
@@ -4389,7 +4101,7 @@
         <v>4.1332198509240916</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="42">
         <v>10</v>
       </c>
@@ -4400,7 +4112,7 @@
         <v>4.2782451088512525</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="42">
         <v>10</v>
       </c>
@@ -4411,7 +4123,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="42">
         <v>10</v>
       </c>
@@ -4422,7 +4134,7 @@
         <v>5.3659345433049612</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="42">
         <v>10</v>
       </c>
@@ -4433,7 +4145,7 @@
         <v>5.8010103170864449</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="42">
         <v>10</v>
       </c>
@@ -4444,7 +4156,7 @@
         <v>6.0910608329407667</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="42">
         <v>10</v>
       </c>
@@ -4455,7 +4167,7 @@
         <v>6.1635734619043472</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="42">
         <v>10</v>
       </c>
@@ -4466,7 +4178,7 @@
         <v>6.4536239777586699</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="42">
         <v>10</v>
       </c>
@@ -4477,7 +4189,7 @@
         <v>6.8161871225765713</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="42">
         <v>10</v>
       </c>
@@ -4488,7 +4200,7 @@
         <v>7.251262896358055</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="42">
         <v>10</v>
       </c>
@@ -4499,7 +4211,7 @@
         <v>7.6138260411759591</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="42">
         <v>10</v>
       </c>
@@ -4510,7 +4222,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="42">
         <v>10</v>
       </c>
@@ -4521,7 +4233,7 @@
         <v>7.9038765570302809</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="42">
         <v>10</v>
       </c>
@@ -4532,7 +4244,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="42">
         <v>11</v>
       </c>
@@ -4543,7 +4255,7 @@
         <v>6.9330774804658635</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="42">
         <v>11</v>
       </c>
@@ -4554,7 +4266,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="42">
         <v>11</v>
       </c>
@@ -4565,7 +4277,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="42">
         <v>11</v>
       </c>
@@ -4576,7 +4288,7 @@
         <v>6.8022646978155654</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="42">
         <v>11</v>
       </c>
@@ -4587,7 +4299,7 @@
         <v>6.2136071758892166</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="42">
         <v>11</v>
       </c>
@@ -4598,7 +4310,7 @@
         <v>5.101698523361673</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="42">
         <v>11</v>
       </c>
@@ -4609,7 +4321,7 @@
         <v>4.4476346101101765</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="42">
         <v>11</v>
       </c>
@@ -4620,7 +4332,7 @@
         <v>4.0551962621592788</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="42">
         <v>11</v>
       </c>
@@ -4631,7 +4343,7 @@
         <v>3.8589770881838299</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="42">
         <v>11</v>
       </c>
@@ -4642,7 +4354,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="42">
         <v>11</v>
       </c>
@@ -4653,7 +4365,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="42">
         <v>11</v>
       </c>
@@ -4664,7 +4376,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="42">
         <v>11</v>
       </c>
@@ -4675,7 +4387,7 @@
         <v>3.9897898708341288</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="42">
         <v>11</v>
       </c>
@@ -4686,7 +4398,7 @@
         <v>4.5784473927604754</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="42">
         <v>11</v>
       </c>
@@ -4697,7 +4409,7 @@
         <v>4.7746665667359247</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="42">
         <v>11</v>
       </c>
@@ -4708,7 +4420,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="42">
         <v>11</v>
       </c>
@@ -4719,7 +4431,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="42">
         <v>11</v>
       </c>
@@ -4730,7 +4442,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="42">
         <v>11</v>
       </c>
@@ -4741,7 +4453,7 @@
         <v>4.9708857407113731</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="42">
         <v>11</v>
       </c>
@@ -4752,7 +4464,7 @@
         <v>5.2979176973371223</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="42">
         <v>11</v>
       </c>
@@ -4763,7 +4475,7 @@
         <v>5.69035604528802</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="42">
         <v>11</v>
       </c>
@@ -4774,7 +4486,7 @@
         <v>6.0827943932389186</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="42">
         <v>11</v>
       </c>
@@ -4785,7 +4497,7 @@
         <v>6.4752327411898163</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="42">
         <v>11</v>
       </c>
@@ -4796,7 +4508,7 @@
         <v>6.7368583064904151</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="42">
         <v>12</v>
       </c>
@@ -4807,7 +4519,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="42">
         <v>12</v>
       </c>
@@ -4818,7 +4530,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="42">
         <v>12</v>
       </c>
@@ -4829,7 +4541,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="42">
         <v>12</v>
       </c>
@@ -4840,7 +4552,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="42">
         <v>12</v>
       </c>
@@ -4851,7 +4563,7 @@
         <v>7.0356811641091213</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="42">
         <v>12</v>
       </c>
@@ -4862,7 +4574,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="42">
         <v>12</v>
       </c>
@@ -4873,7 +4585,7 @@
         <v>5.4233375640007813</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="42">
         <v>12</v>
       </c>
@@ -4884,7 +4596,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="42">
         <v>12</v>
       </c>
@@ -4895,7 +4607,7 @@
         <v>4.8370308003250218</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="42">
         <v>12</v>
       </c>
@@ -4906,7 +4618,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="42">
         <v>12</v>
       </c>
@@ -4917,7 +4629,7 @@
         <v>4.6904541094060814</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="42">
         <v>12</v>
       </c>
@@ -4928,7 +4640,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="42">
         <v>12</v>
       </c>
@@ -4939,7 +4651,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="42">
         <v>12</v>
       </c>
@@ -4950,7 +4662,7 @@
         <v>5.6432026003791913</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="42">
         <v>12</v>
       </c>
@@ -4961,7 +4673,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="42">
         <v>12</v>
       </c>
@@ -4972,7 +4684,7 @@
         <v>6.0096443276765408</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="42">
         <v>12</v>
       </c>
@@ -4983,7 +4695,7 @@
         <v>6.0829326731360105</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="42">
         <v>12</v>
       </c>
@@ -4994,7 +4706,7 @@
         <v>6.156221018595482</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="42">
         <v>12</v>
       </c>
@@ -5005,7 +4717,7 @@
         <v>6.3760860549738911</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="42">
         <v>12</v>
       </c>
@@ -5016,7 +4728,7 @@
         <v>6.6692394368117718</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="42">
         <v>12</v>
       </c>
@@ -5027,7 +4739,7 @@
         <v>6.9623928186496506</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="42">
         <v>12</v>
       </c>
@@ -5038,7 +4750,7 @@
         <v>7.2555462004875313</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="42">
         <v>12</v>
       </c>
@@ -5049,7 +4761,7 @@
         <v>7.4754112368659413</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="42">
         <v>12</v>
       </c>
@@ -5070,10 +4782,10 @@
   <dimension ref="A1:K309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -5087,7 +4799,7 @@
     <col min="10" max="21" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5122,13 +4834,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
-        <f>Sheet1!F7</f>
-        <v>170999999.99999997</v>
-      </c>
-      <c r="B2" s="71">
-        <f>Sheet1!J7/12</f>
+        <v>171000000</v>
+      </c>
+      <c r="B2" s="55">
         <v>175000</v>
       </c>
       <c r="C2" s="2">
@@ -5160,7 +4870,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -5180,7 +4890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5200,7 +4910,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5221,15 +4931,14 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="72">
-        <f>Sheet1!F12</f>
-        <v>112500000</v>
+      <c r="I7" s="56">
+        <v>110000000</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5261,7 +4970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5286,7 +4995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5314,7 +5023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5339,7 +5048,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5359,7 +5068,7 @@
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5379,7 +5088,7 @@
       </c>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -5398,7 +5107,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5417,7 +5126,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -5436,7 +5145,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5455,7 +5164,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>21</v>
       </c>
@@ -5467,7 +5176,7 @@
       </c>
       <c r="D21" s="41"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>1</v>
       </c>
@@ -5479,7 +5188,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>1</v>
       </c>
@@ -5491,7 +5200,7 @@
       </c>
       <c r="D23" s="44"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>1</v>
       </c>
@@ -5503,7 +5212,7 @@
       </c>
       <c r="D24" s="44"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>1</v>
       </c>
@@ -5515,7 +5224,7 @@
       </c>
       <c r="D25" s="44"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>1</v>
       </c>
@@ -5527,7 +5236,7 @@
       </c>
       <c r="D26" s="44"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>1</v>
       </c>
@@ -5539,7 +5248,7 @@
       </c>
       <c r="D27" s="44"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>1</v>
       </c>
@@ -5551,7 +5260,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>1</v>
       </c>
@@ -5563,7 +5272,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>1</v>
       </c>
@@ -5575,7 +5284,7 @@
       </c>
       <c r="D30" s="44"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>1</v>
       </c>
@@ -5587,7 +5296,7 @@
       </c>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>1</v>
       </c>
@@ -5599,7 +5308,7 @@
       </c>
       <c r="D32" s="44"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>1</v>
       </c>
@@ -5611,7 +5320,7 @@
       </c>
       <c r="D33" s="44"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>1</v>
       </c>
@@ -5623,7 +5332,7 @@
       </c>
       <c r="D34" s="44"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>1</v>
       </c>
@@ -5635,7 +5344,7 @@
       </c>
       <c r="D35" s="44"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>1</v>
       </c>
@@ -5647,7 +5356,7 @@
       </c>
       <c r="D36" s="44"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>1</v>
       </c>
@@ -5659,7 +5368,7 @@
       </c>
       <c r="D37" s="44"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>1</v>
       </c>
@@ -5671,7 +5380,7 @@
       </c>
       <c r="D38" s="44"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>1</v>
       </c>
@@ -5683,7 +5392,7 @@
       </c>
       <c r="D39" s="44"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>1</v>
       </c>
@@ -5695,7 +5404,7 @@
       </c>
       <c r="D40" s="44"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>1</v>
       </c>
@@ -5707,7 +5416,7 @@
       </c>
       <c r="D41" s="44"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>1</v>
       </c>
@@ -5719,7 +5428,7 @@
       </c>
       <c r="D42" s="44"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>1</v>
       </c>
@@ -5731,7 +5440,7 @@
       </c>
       <c r="D43" s="44"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>1</v>
       </c>
@@ -5743,7 +5452,7 @@
       </c>
       <c r="D44" s="44"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>1</v>
       </c>
@@ -5755,7 +5464,7 @@
       </c>
       <c r="D45" s="44"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>2</v>
       </c>
@@ -5767,7 +5476,7 @@
       </c>
       <c r="D46" s="44"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>2</v>
       </c>
@@ -5779,7 +5488,7 @@
       </c>
       <c r="D47" s="44"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>2</v>
       </c>
@@ -5791,7 +5500,7 @@
       </c>
       <c r="D48" s="44"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>2</v>
       </c>
@@ -5803,7 +5512,7 @@
       </c>
       <c r="D49" s="44"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>2</v>
       </c>
@@ -5815,7 +5524,7 @@
       </c>
       <c r="D50" s="44"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>2</v>
       </c>
@@ -5827,7 +5536,7 @@
       </c>
       <c r="D51" s="44"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>2</v>
       </c>
@@ -5839,7 +5548,7 @@
       </c>
       <c r="D52" s="44"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>2</v>
       </c>
@@ -5851,7 +5560,7 @@
       </c>
       <c r="D53" s="44"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>2</v>
       </c>
@@ -5863,7 +5572,7 @@
       </c>
       <c r="D54" s="44"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>2</v>
       </c>
@@ -5875,7 +5584,7 @@
       </c>
       <c r="D55" s="44"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>2</v>
       </c>
@@ -5887,7 +5596,7 @@
       </c>
       <c r="D56" s="44"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>2</v>
       </c>
@@ -5899,7 +5608,7 @@
       </c>
       <c r="D57" s="44"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>2</v>
       </c>
@@ -5911,7 +5620,7 @@
       </c>
       <c r="D58" s="44"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>2</v>
       </c>
@@ -5923,7 +5632,7 @@
       </c>
       <c r="D59" s="44"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>2</v>
       </c>
@@ -5935,7 +5644,7 @@
       </c>
       <c r="D60" s="44"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>2</v>
       </c>
@@ -5947,7 +5656,7 @@
       </c>
       <c r="D61" s="44"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>2</v>
       </c>
@@ -5959,7 +5668,7 @@
       </c>
       <c r="D62" s="44"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>2</v>
       </c>
@@ -5971,7 +5680,7 @@
       </c>
       <c r="D63" s="44"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>2</v>
       </c>
@@ -5983,7 +5692,7 @@
       </c>
       <c r="D64" s="44"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>2</v>
       </c>
@@ -5995,7 +5704,7 @@
       </c>
       <c r="D65" s="44"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>2</v>
       </c>
@@ -6007,7 +5716,7 @@
       </c>
       <c r="D66" s="44"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>2</v>
       </c>
@@ -6019,7 +5728,7 @@
       </c>
       <c r="D67" s="44"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>2</v>
       </c>
@@ -6031,7 +5740,7 @@
       </c>
       <c r="D68" s="44"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>2</v>
       </c>
@@ -6043,7 +5752,7 @@
       </c>
       <c r="D69" s="44"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>3</v>
       </c>
@@ -6055,7 +5764,7 @@
       </c>
       <c r="D70" s="44"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>3</v>
       </c>
@@ -6067,7 +5776,7 @@
       </c>
       <c r="D71" s="44"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>3</v>
       </c>
@@ -6079,7 +5788,7 @@
       </c>
       <c r="D72" s="44"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>3</v>
       </c>
@@ -6091,7 +5800,7 @@
       </c>
       <c r="D73" s="44"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>3</v>
       </c>
@@ -6103,7 +5812,7 @@
       </c>
       <c r="D74" s="44"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>3</v>
       </c>
@@ -6115,7 +5824,7 @@
       </c>
       <c r="D75" s="44"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>3</v>
       </c>
@@ -6127,7 +5836,7 @@
       </c>
       <c r="D76" s="44"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>3</v>
       </c>
@@ -6139,7 +5848,7 @@
       </c>
       <c r="D77" s="44"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>3</v>
       </c>
@@ -6151,7 +5860,7 @@
       </c>
       <c r="D78" s="44"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>3</v>
       </c>
@@ -6163,7 +5872,7 @@
       </c>
       <c r="D79" s="44"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>3</v>
       </c>
@@ -6175,7 +5884,7 @@
       </c>
       <c r="D80" s="44"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>3</v>
       </c>
@@ -6187,7 +5896,7 @@
       </c>
       <c r="D81" s="44"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="42">
         <v>3</v>
       </c>
@@ -6199,7 +5908,7 @@
       </c>
       <c r="D82" s="44"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>3</v>
       </c>
@@ -6211,7 +5920,7 @@
       </c>
       <c r="D83" s="44"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="42">
         <v>3</v>
       </c>
@@ -6223,7 +5932,7 @@
       </c>
       <c r="D84" s="44"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="42">
         <v>3</v>
       </c>
@@ -6235,7 +5944,7 @@
       </c>
       <c r="D85" s="44"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="42">
         <v>3</v>
       </c>
@@ -6247,7 +5956,7 @@
       </c>
       <c r="D86" s="44"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="42">
         <v>3</v>
       </c>
@@ -6259,7 +5968,7 @@
       </c>
       <c r="D87" s="44"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="42">
         <v>3</v>
       </c>
@@ -6271,7 +5980,7 @@
       </c>
       <c r="D88" s="44"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="42">
         <v>3</v>
       </c>
@@ -6283,7 +5992,7 @@
       </c>
       <c r="D89" s="44"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="42">
         <v>3</v>
       </c>
@@ -6295,7 +6004,7 @@
       </c>
       <c r="D90" s="44"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="42">
         <v>3</v>
       </c>
@@ -6307,7 +6016,7 @@
       </c>
       <c r="D91" s="44"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
         <v>3</v>
       </c>
@@ -6319,7 +6028,7 @@
       </c>
       <c r="D92" s="44"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="42">
         <v>3</v>
       </c>
@@ -6331,7 +6040,7 @@
       </c>
       <c r="D93" s="44"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="42">
         <v>4</v>
       </c>
@@ -6343,7 +6052,7 @@
       </c>
       <c r="D94" s="44"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
         <v>4</v>
       </c>
@@ -6355,7 +6064,7 @@
       </c>
       <c r="D95" s="44"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
         <v>4</v>
       </c>
@@ -6367,7 +6076,7 @@
       </c>
       <c r="D96" s="44"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
         <v>4</v>
       </c>
@@ -6379,7 +6088,7 @@
       </c>
       <c r="D97" s="44"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
         <v>4</v>
       </c>
@@ -6391,7 +6100,7 @@
       </c>
       <c r="D98" s="44"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
         <v>4</v>
       </c>
@@ -6403,7 +6112,7 @@
       </c>
       <c r="D99" s="44"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
         <v>4</v>
       </c>
@@ -6415,7 +6124,7 @@
       </c>
       <c r="D100" s="44"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
         <v>4</v>
       </c>
@@ -6427,7 +6136,7 @@
       </c>
       <c r="D101" s="44"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
         <v>4</v>
       </c>
@@ -6439,7 +6148,7 @@
       </c>
       <c r="D102" s="44"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="42">
         <v>4</v>
       </c>
@@ -6451,7 +6160,7 @@
       </c>
       <c r="D103" s="44"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="42">
         <v>4</v>
       </c>
@@ -6463,7 +6172,7 @@
       </c>
       <c r="D104" s="44"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="42">
         <v>4</v>
       </c>
@@ -6475,7 +6184,7 @@
       </c>
       <c r="D105" s="44"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="42">
         <v>4</v>
       </c>
@@ -6487,7 +6196,7 @@
       </c>
       <c r="D106" s="44"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="42">
         <v>4</v>
       </c>
@@ -6499,7 +6208,7 @@
       </c>
       <c r="D107" s="44"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="42">
         <v>4</v>
       </c>
@@ -6511,7 +6220,7 @@
       </c>
       <c r="D108" s="44"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="42">
         <v>4</v>
       </c>
@@ -6523,7 +6232,7 @@
       </c>
       <c r="D109" s="44"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="42">
         <v>4</v>
       </c>
@@ -6535,7 +6244,7 @@
       </c>
       <c r="D110" s="44"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="42">
         <v>4</v>
       </c>
@@ -6547,7 +6256,7 @@
       </c>
       <c r="D111" s="44"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="42">
         <v>4</v>
       </c>
@@ -6559,7 +6268,7 @@
       </c>
       <c r="D112" s="44"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="42">
         <v>4</v>
       </c>
@@ -6571,7 +6280,7 @@
       </c>
       <c r="D113" s="44"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="42">
         <v>4</v>
       </c>
@@ -6583,7 +6292,7 @@
       </c>
       <c r="D114" s="44"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="42">
         <v>4</v>
       </c>
@@ -6595,7 +6304,7 @@
       </c>
       <c r="D115" s="44"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="42">
         <v>4</v>
       </c>
@@ -6607,7 +6316,7 @@
       </c>
       <c r="D116" s="44"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="42">
         <v>4</v>
       </c>
@@ -6619,7 +6328,7 @@
       </c>
       <c r="D117" s="44"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="42">
         <v>5</v>
       </c>
@@ -6631,7 +6340,7 @@
       </c>
       <c r="D118" s="44"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="42">
         <v>5</v>
       </c>
@@ -6643,7 +6352,7 @@
       </c>
       <c r="D119" s="44"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="42">
         <v>5</v>
       </c>
@@ -6655,7 +6364,7 @@
       </c>
       <c r="D120" s="44"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="42">
         <v>5</v>
       </c>
@@ -6667,7 +6376,7 @@
       </c>
       <c r="D121" s="44"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="42">
         <v>5</v>
       </c>
@@ -6679,7 +6388,7 @@
       </c>
       <c r="D122" s="44"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="42">
         <v>5</v>
       </c>
@@ -6691,7 +6400,7 @@
       </c>
       <c r="D123" s="44"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="42">
         <v>5</v>
       </c>
@@ -6703,7 +6412,7 @@
       </c>
       <c r="D124" s="44"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="42">
         <v>5</v>
       </c>
@@ -6715,7 +6424,7 @@
       </c>
       <c r="D125" s="44"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="42">
         <v>5</v>
       </c>
@@ -6727,7 +6436,7 @@
       </c>
       <c r="D126" s="44"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="42">
         <v>5</v>
       </c>
@@ -6739,7 +6448,7 @@
       </c>
       <c r="D127" s="44"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="42">
         <v>5</v>
       </c>
@@ -6751,7 +6460,7 @@
       </c>
       <c r="D128" s="44"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="42">
         <v>5</v>
       </c>
@@ -6763,7 +6472,7 @@
       </c>
       <c r="D129" s="44"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="42">
         <v>5</v>
       </c>
@@ -6775,7 +6484,7 @@
       </c>
       <c r="D130" s="44"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="42">
         <v>5</v>
       </c>
@@ -6787,7 +6496,7 @@
       </c>
       <c r="D131" s="44"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="42">
         <v>5</v>
       </c>
@@ -6799,7 +6508,7 @@
       </c>
       <c r="D132" s="44"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="42">
         <v>5</v>
       </c>
@@ -6811,7 +6520,7 @@
       </c>
       <c r="D133" s="44"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="42">
         <v>5</v>
       </c>
@@ -6823,7 +6532,7 @@
       </c>
       <c r="D134" s="44"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="42">
         <v>5</v>
       </c>
@@ -6835,7 +6544,7 @@
       </c>
       <c r="D135" s="44"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>5</v>
       </c>
@@ -6847,7 +6556,7 @@
       </c>
       <c r="D136" s="44"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="42">
         <v>5</v>
       </c>
@@ -6859,7 +6568,7 @@
       </c>
       <c r="D137" s="44"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="42">
         <v>5</v>
       </c>
@@ -6871,7 +6580,7 @@
       </c>
       <c r="D138" s="44"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="42">
         <v>5</v>
       </c>
@@ -6883,7 +6592,7 @@
       </c>
       <c r="D139" s="44"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="42">
         <v>5</v>
       </c>
@@ -6895,7 +6604,7 @@
       </c>
       <c r="D140" s="44"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="42">
         <v>5</v>
       </c>
@@ -6907,7 +6616,7 @@
       </c>
       <c r="D141" s="44"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="42">
         <v>6</v>
       </c>
@@ -6919,7 +6628,7 @@
       </c>
       <c r="D142" s="44"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="42">
         <v>6</v>
       </c>
@@ -6931,7 +6640,7 @@
       </c>
       <c r="D143" s="44"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>6</v>
       </c>
@@ -6943,7 +6652,7 @@
       </c>
       <c r="D144" s="44"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>6</v>
       </c>
@@ -6955,7 +6664,7 @@
       </c>
       <c r="D145" s="44"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>6</v>
       </c>
@@ -6967,7 +6676,7 @@
       </c>
       <c r="D146" s="44"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>6</v>
       </c>
@@ -6979,7 +6688,7 @@
       </c>
       <c r="D147" s="44"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>6</v>
       </c>
@@ -6991,7 +6700,7 @@
       </c>
       <c r="D148" s="44"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>6</v>
       </c>
@@ -7003,7 +6712,7 @@
       </c>
       <c r="D149" s="44"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>6</v>
       </c>
@@ -7015,7 +6724,7 @@
       </c>
       <c r="D150" s="44"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>6</v>
       </c>
@@ -7027,7 +6736,7 @@
       </c>
       <c r="D151" s="44"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="42">
         <v>6</v>
       </c>
@@ -7039,7 +6748,7 @@
       </c>
       <c r="D152" s="44"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="42">
         <v>6</v>
       </c>
@@ -7051,7 +6760,7 @@
       </c>
       <c r="D153" s="44"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="42">
         <v>6</v>
       </c>
@@ -7063,7 +6772,7 @@
       </c>
       <c r="D154" s="44"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="42">
         <v>6</v>
       </c>
@@ -7075,7 +6784,7 @@
       </c>
       <c r="D155" s="44"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="42">
         <v>6</v>
       </c>
@@ -7087,7 +6796,7 @@
       </c>
       <c r="D156" s="44"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="42">
         <v>6</v>
       </c>
@@ -7099,7 +6808,7 @@
       </c>
       <c r="D157" s="44"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="42">
         <v>6</v>
       </c>
@@ -7111,7 +6820,7 @@
       </c>
       <c r="D158" s="44"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="42">
         <v>6</v>
       </c>
@@ -7123,7 +6832,7 @@
       </c>
       <c r="D159" s="44"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="42">
         <v>6</v>
       </c>
@@ -7135,7 +6844,7 @@
       </c>
       <c r="D160" s="44"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="42">
         <v>6</v>
       </c>
@@ -7147,7 +6856,7 @@
       </c>
       <c r="D161" s="44"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="42">
         <v>6</v>
       </c>
@@ -7159,7 +6868,7 @@
       </c>
       <c r="D162" s="44"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="42">
         <v>6</v>
       </c>
@@ -7171,7 +6880,7 @@
       </c>
       <c r="D163" s="44"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="42">
         <v>6</v>
       </c>
@@ -7183,7 +6892,7 @@
       </c>
       <c r="D164" s="44"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="42">
         <v>6</v>
       </c>
@@ -7195,7 +6904,7 @@
       </c>
       <c r="D165" s="44"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="42">
         <v>7</v>
       </c>
@@ -7207,7 +6916,7 @@
       </c>
       <c r="D166" s="44"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="42">
         <v>7</v>
       </c>
@@ -7219,7 +6928,7 @@
       </c>
       <c r="D167" s="44"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="42">
         <v>7</v>
       </c>
@@ -7231,7 +6940,7 @@
       </c>
       <c r="D168" s="44"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="42">
         <v>7</v>
       </c>
@@ -7243,7 +6952,7 @@
       </c>
       <c r="D169" s="44"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="42">
         <v>7</v>
       </c>
@@ -7255,7 +6964,7 @@
       </c>
       <c r="D170" s="44"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="42">
         <v>7</v>
       </c>
@@ -7267,7 +6976,7 @@
       </c>
       <c r="D171" s="44"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="42">
         <v>7</v>
       </c>
@@ -7279,7 +6988,7 @@
       </c>
       <c r="D172" s="44"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="42">
         <v>7</v>
       </c>
@@ -7291,7 +7000,7 @@
       </c>
       <c r="D173" s="44"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="42">
         <v>7</v>
       </c>
@@ -7303,7 +7012,7 @@
       </c>
       <c r="D174" s="44"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="42">
         <v>7</v>
       </c>
@@ -7315,7 +7024,7 @@
       </c>
       <c r="D175" s="44"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="42">
         <v>7</v>
       </c>
@@ -7327,7 +7036,7 @@
       </c>
       <c r="D176" s="44"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="42">
         <v>7</v>
       </c>
@@ -7339,7 +7048,7 @@
       </c>
       <c r="D177" s="44"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="42">
         <v>7</v>
       </c>
@@ -7351,7 +7060,7 @@
       </c>
       <c r="D178" s="44"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="42">
         <v>7</v>
       </c>
@@ -7363,7 +7072,7 @@
       </c>
       <c r="D179" s="44"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="42">
         <v>7</v>
       </c>
@@ -7375,7 +7084,7 @@
       </c>
       <c r="D180" s="44"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="42">
         <v>7</v>
       </c>
@@ -7387,7 +7096,7 @@
       </c>
       <c r="D181" s="44"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="42">
         <v>7</v>
       </c>
@@ -7399,7 +7108,7 @@
       </c>
       <c r="D182" s="44"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="42">
         <v>7</v>
       </c>
@@ -7411,7 +7120,7 @@
       </c>
       <c r="D183" s="44"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="42">
         <v>7</v>
       </c>
@@ -7423,7 +7132,7 @@
       </c>
       <c r="D184" s="44"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="42">
         <v>7</v>
       </c>
@@ -7435,7 +7144,7 @@
       </c>
       <c r="D185" s="44"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="42">
         <v>7</v>
       </c>
@@ -7447,7 +7156,7 @@
       </c>
       <c r="D186" s="44"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="42">
         <v>7</v>
       </c>
@@ -7459,7 +7168,7 @@
       </c>
       <c r="D187" s="44"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="42">
         <v>7</v>
       </c>
@@ -7471,7 +7180,7 @@
       </c>
       <c r="D188" s="44"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="42">
         <v>7</v>
       </c>
@@ -7483,7 +7192,7 @@
       </c>
       <c r="D189" s="44"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="42">
         <v>8</v>
       </c>
@@ -7495,7 +7204,7 @@
       </c>
       <c r="D190" s="44"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="42">
         <v>8</v>
       </c>
@@ -7507,7 +7216,7 @@
       </c>
       <c r="D191" s="44"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="42">
         <v>8</v>
       </c>
@@ -7519,7 +7228,7 @@
       </c>
       <c r="D192" s="44"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="42">
         <v>8</v>
       </c>
@@ -7531,7 +7240,7 @@
       </c>
       <c r="D193" s="44"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="42">
         <v>8</v>
       </c>
@@ -7543,7 +7252,7 @@
       </c>
       <c r="D194" s="44"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="42">
         <v>8</v>
       </c>
@@ -7555,7 +7264,7 @@
       </c>
       <c r="D195" s="44"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="42">
         <v>8</v>
       </c>
@@ -7567,7 +7276,7 @@
       </c>
       <c r="D196" s="44"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="42">
         <v>8</v>
       </c>
@@ -7579,7 +7288,7 @@
       </c>
       <c r="D197" s="44"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="42">
         <v>8</v>
       </c>
@@ -7591,7 +7300,7 @@
       </c>
       <c r="D198" s="44"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="42">
         <v>8</v>
       </c>
@@ -7603,7 +7312,7 @@
       </c>
       <c r="D199" s="44"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="42">
         <v>8</v>
       </c>
@@ -7615,7 +7324,7 @@
       </c>
       <c r="D200" s="44"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="42">
         <v>8</v>
       </c>
@@ -7627,7 +7336,7 @@
       </c>
       <c r="D201" s="44"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="42">
         <v>8</v>
       </c>
@@ -7639,7 +7348,7 @@
       </c>
       <c r="D202" s="44"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="42">
         <v>8</v>
       </c>
@@ -7651,7 +7360,7 @@
       </c>
       <c r="D203" s="44"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="42">
         <v>8</v>
       </c>
@@ -7663,7 +7372,7 @@
       </c>
       <c r="D204" s="44"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="42">
         <v>8</v>
       </c>
@@ -7675,7 +7384,7 @@
       </c>
       <c r="D205" s="44"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="42">
         <v>8</v>
       </c>
@@ -7687,7 +7396,7 @@
       </c>
       <c r="D206" s="44"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="42">
         <v>8</v>
       </c>
@@ -7699,7 +7408,7 @@
       </c>
       <c r="D207" s="44"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="42">
         <v>8</v>
       </c>
@@ -7711,7 +7420,7 @@
       </c>
       <c r="D208" s="44"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="42">
         <v>8</v>
       </c>
@@ -7723,7 +7432,7 @@
       </c>
       <c r="D209" s="44"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="42">
         <v>8</v>
       </c>
@@ -7735,7 +7444,7 @@
       </c>
       <c r="D210" s="44"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="42">
         <v>8</v>
       </c>
@@ -7747,7 +7456,7 @@
       </c>
       <c r="D211" s="44"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="42">
         <v>8</v>
       </c>
@@ -7759,7 +7468,7 @@
       </c>
       <c r="D212" s="44"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="42">
         <v>8</v>
       </c>
@@ -7771,7 +7480,7 @@
       </c>
       <c r="D213" s="44"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="42">
         <v>9</v>
       </c>
@@ -7783,7 +7492,7 @@
       </c>
       <c r="D214" s="44"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="42">
         <v>9</v>
       </c>
@@ -7795,7 +7504,7 @@
       </c>
       <c r="D215" s="44"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="42">
         <v>9</v>
       </c>
@@ -7807,7 +7516,7 @@
       </c>
       <c r="D216" s="44"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="42">
         <v>9</v>
       </c>
@@ -7819,7 +7528,7 @@
       </c>
       <c r="D217" s="44"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="42">
         <v>9</v>
       </c>
@@ -7831,7 +7540,7 @@
       </c>
       <c r="D218" s="44"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="42">
         <v>9</v>
       </c>
@@ -7843,7 +7552,7 @@
       </c>
       <c r="D219" s="44"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="42">
         <v>9</v>
       </c>
@@ -7855,7 +7564,7 @@
       </c>
       <c r="D220" s="44"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="42">
         <v>9</v>
       </c>
@@ -7867,7 +7576,7 @@
       </c>
       <c r="D221" s="44"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="42">
         <v>9</v>
       </c>
@@ -7879,7 +7588,7 @@
       </c>
       <c r="D222" s="44"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="42">
         <v>9</v>
       </c>
@@ -7891,7 +7600,7 @@
       </c>
       <c r="D223" s="44"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="42">
         <v>9</v>
       </c>
@@ -7903,7 +7612,7 @@
       </c>
       <c r="D224" s="44"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="42">
         <v>9</v>
       </c>
@@ -7915,7 +7624,7 @@
       </c>
       <c r="D225" s="44"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="42">
         <v>9</v>
       </c>
@@ -7927,7 +7636,7 @@
       </c>
       <c r="D226" s="44"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="42">
         <v>9</v>
       </c>
@@ -7939,7 +7648,7 @@
       </c>
       <c r="D227" s="44"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="42">
         <v>9</v>
       </c>
@@ -7951,7 +7660,7 @@
       </c>
       <c r="D228" s="44"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="42">
         <v>9</v>
       </c>
@@ -7963,7 +7672,7 @@
       </c>
       <c r="D229" s="44"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="42">
         <v>9</v>
       </c>
@@ -7975,7 +7684,7 @@
       </c>
       <c r="D230" s="44"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="42">
         <v>9</v>
       </c>
@@ -7987,7 +7696,7 @@
       </c>
       <c r="D231" s="44"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="42">
         <v>9</v>
       </c>
@@ -7999,7 +7708,7 @@
       </c>
       <c r="D232" s="44"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="42">
         <v>9</v>
       </c>
@@ -8011,7 +7720,7 @@
       </c>
       <c r="D233" s="44"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="42">
         <v>9</v>
       </c>
@@ -8023,7 +7732,7 @@
       </c>
       <c r="D234" s="44"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="42">
         <v>9</v>
       </c>
@@ -8035,7 +7744,7 @@
       </c>
       <c r="D235" s="44"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="42">
         <v>9</v>
       </c>
@@ -8047,7 +7756,7 @@
       </c>
       <c r="D236" s="44"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="42">
         <v>9</v>
       </c>
@@ -8059,7 +7768,7 @@
       </c>
       <c r="D237" s="44"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="42">
         <v>10</v>
       </c>
@@ -8071,7 +7780,7 @@
       </c>
       <c r="D238" s="44"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="42">
         <v>10</v>
       </c>
@@ -8083,7 +7792,7 @@
       </c>
       <c r="D239" s="44"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="42">
         <v>10</v>
       </c>
@@ -8095,7 +7804,7 @@
       </c>
       <c r="D240" s="44"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="42">
         <v>10</v>
       </c>
@@ -8107,7 +7816,7 @@
       </c>
       <c r="D241" s="44"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="42">
         <v>10</v>
       </c>
@@ -8119,7 +7828,7 @@
       </c>
       <c r="D242" s="44"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="42">
         <v>10</v>
       </c>
@@ -8131,7 +7840,7 @@
       </c>
       <c r="D243" s="44"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="42">
         <v>10</v>
       </c>
@@ -8143,7 +7852,7 @@
       </c>
       <c r="D244" s="44"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="42">
         <v>10</v>
       </c>
@@ -8155,7 +7864,7 @@
       </c>
       <c r="D245" s="44"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="42">
         <v>10</v>
       </c>
@@ -8167,7 +7876,7 @@
       </c>
       <c r="D246" s="44"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="42">
         <v>10</v>
       </c>
@@ -8179,7 +7888,7 @@
       </c>
       <c r="D247" s="44"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="42">
         <v>10</v>
       </c>
@@ -8191,7 +7900,7 @@
       </c>
       <c r="D248" s="44"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="42">
         <v>10</v>
       </c>
@@ -8203,7 +7912,7 @@
       </c>
       <c r="D249" s="44"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="42">
         <v>10</v>
       </c>
@@ -8215,7 +7924,7 @@
       </c>
       <c r="D250" s="44"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="42">
         <v>10</v>
       </c>
@@ -8227,7 +7936,7 @@
       </c>
       <c r="D251" s="44"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="42">
         <v>10</v>
       </c>
@@ -8239,7 +7948,7 @@
       </c>
       <c r="D252" s="44"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="42">
         <v>10</v>
       </c>
@@ -8251,7 +7960,7 @@
       </c>
       <c r="D253" s="44"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="42">
         <v>10</v>
       </c>
@@ -8263,7 +7972,7 @@
       </c>
       <c r="D254" s="44"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="42">
         <v>10</v>
       </c>
@@ -8275,7 +7984,7 @@
       </c>
       <c r="D255" s="44"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="42">
         <v>10</v>
       </c>
@@ -8287,7 +7996,7 @@
       </c>
       <c r="D256" s="44"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="42">
         <v>10</v>
       </c>
@@ -8299,7 +8008,7 @@
       </c>
       <c r="D257" s="44"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="42">
         <v>10</v>
       </c>
@@ -8311,7 +8020,7 @@
       </c>
       <c r="D258" s="44"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="42">
         <v>10</v>
       </c>
@@ -8323,7 +8032,7 @@
       </c>
       <c r="D259" s="44"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="42">
         <v>10</v>
       </c>
@@ -8335,7 +8044,7 @@
       </c>
       <c r="D260" s="44"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="42">
         <v>10</v>
       </c>
@@ -8347,7 +8056,7 @@
       </c>
       <c r="D261" s="44"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="42">
         <v>11</v>
       </c>
@@ -8359,7 +8068,7 @@
       </c>
       <c r="D262" s="44"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="42">
         <v>11</v>
       </c>
@@ -8371,7 +8080,7 @@
       </c>
       <c r="D263" s="44"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="42">
         <v>11</v>
       </c>
@@ -8383,7 +8092,7 @@
       </c>
       <c r="D264" s="44"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="42">
         <v>11</v>
       </c>
@@ -8395,7 +8104,7 @@
       </c>
       <c r="D265" s="44"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="42">
         <v>11</v>
       </c>
@@ -8407,7 +8116,7 @@
       </c>
       <c r="D266" s="44"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="42">
         <v>11</v>
       </c>
@@ -8419,7 +8128,7 @@
       </c>
       <c r="D267" s="44"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="42">
         <v>11</v>
       </c>
@@ -8431,7 +8140,7 @@
       </c>
       <c r="D268" s="44"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="42">
         <v>11</v>
       </c>
@@ -8443,7 +8152,7 @@
       </c>
       <c r="D269" s="44"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="42">
         <v>11</v>
       </c>
@@ -8455,7 +8164,7 @@
       </c>
       <c r="D270" s="44"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="42">
         <v>11</v>
       </c>
@@ -8467,7 +8176,7 @@
       </c>
       <c r="D271" s="44"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="42">
         <v>11</v>
       </c>
@@ -8479,7 +8188,7 @@
       </c>
       <c r="D272" s="44"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="42">
         <v>11</v>
       </c>
@@ -8491,7 +8200,7 @@
       </c>
       <c r="D273" s="44"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="42">
         <v>11</v>
       </c>
@@ -8503,7 +8212,7 @@
       </c>
       <c r="D274" s="44"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="42">
         <v>11</v>
       </c>
@@ -8515,7 +8224,7 @@
       </c>
       <c r="D275" s="44"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="42">
         <v>11</v>
       </c>
@@ -8527,7 +8236,7 @@
       </c>
       <c r="D276" s="44"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="42">
         <v>11</v>
       </c>
@@ -8539,7 +8248,7 @@
       </c>
       <c r="D277" s="44"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="42">
         <v>11</v>
       </c>
@@ -8551,7 +8260,7 @@
       </c>
       <c r="D278" s="44"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="42">
         <v>11</v>
       </c>
@@ -8563,7 +8272,7 @@
       </c>
       <c r="D279" s="44"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="42">
         <v>11</v>
       </c>
@@ -8575,7 +8284,7 @@
       </c>
       <c r="D280" s="44"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="42">
         <v>11</v>
       </c>
@@ -8587,7 +8296,7 @@
       </c>
       <c r="D281" s="44"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="42">
         <v>11</v>
       </c>
@@ -8599,7 +8308,7 @@
       </c>
       <c r="D282" s="44"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="42">
         <v>11</v>
       </c>
@@ -8611,7 +8320,7 @@
       </c>
       <c r="D283" s="44"/>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="42">
         <v>11</v>
       </c>
@@ -8623,7 +8332,7 @@
       </c>
       <c r="D284" s="44"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="42">
         <v>11</v>
       </c>
@@ -8635,7 +8344,7 @@
       </c>
       <c r="D285" s="44"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="42">
         <v>12</v>
       </c>
@@ -8647,7 +8356,7 @@
       </c>
       <c r="D286" s="44"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="42">
         <v>12</v>
       </c>
@@ -8659,7 +8368,7 @@
       </c>
       <c r="D287" s="44"/>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="42">
         <v>12</v>
       </c>
@@ -8671,7 +8380,7 @@
       </c>
       <c r="D288" s="44"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="42">
         <v>12</v>
       </c>
@@ -8683,7 +8392,7 @@
       </c>
       <c r="D289" s="44"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="42">
         <v>12</v>
       </c>
@@ -8695,7 +8404,7 @@
       </c>
       <c r="D290" s="44"/>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="42">
         <v>12</v>
       </c>
@@ -8707,7 +8416,7 @@
       </c>
       <c r="D291" s="44"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="42">
         <v>12</v>
       </c>
@@ -8719,7 +8428,7 @@
       </c>
       <c r="D292" s="44"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="42">
         <v>12</v>
       </c>
@@ -8731,7 +8440,7 @@
       </c>
       <c r="D293" s="44"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="42">
         <v>12</v>
       </c>
@@ -8743,7 +8452,7 @@
       </c>
       <c r="D294" s="44"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="42">
         <v>12</v>
       </c>
@@ -8755,7 +8464,7 @@
       </c>
       <c r="D295" s="44"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="42">
         <v>12</v>
       </c>
@@ -8767,7 +8476,7 @@
       </c>
       <c r="D296" s="44"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="42">
         <v>12</v>
       </c>
@@ -8779,7 +8488,7 @@
       </c>
       <c r="D297" s="44"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="42">
         <v>12</v>
       </c>
@@ -8791,7 +8500,7 @@
       </c>
       <c r="D298" s="44"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="42">
         <v>12</v>
       </c>
@@ -8803,7 +8512,7 @@
       </c>
       <c r="D299" s="44"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="42">
         <v>12</v>
       </c>
@@ -8815,7 +8524,7 @@
       </c>
       <c r="D300" s="44"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="42">
         <v>12</v>
       </c>
@@ -8827,7 +8536,7 @@
       </c>
       <c r="D301" s="44"/>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="42">
         <v>12</v>
       </c>
@@ -8839,7 +8548,7 @@
       </c>
       <c r="D302" s="44"/>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="42">
         <v>12</v>
       </c>
@@ -8851,7 +8560,7 @@
       </c>
       <c r="D303" s="44"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="42">
         <v>12</v>
       </c>
@@ -8863,7 +8572,7 @@
       </c>
       <c r="D304" s="44"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="42">
         <v>12</v>
       </c>
@@ -8875,7 +8584,7 @@
       </c>
       <c r="D305" s="44"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="42">
         <v>12</v>
       </c>
@@ -8887,7 +8596,7 @@
       </c>
       <c r="D306" s="44"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="42">
         <v>12</v>
       </c>
@@ -8899,7 +8608,7 @@
       </c>
       <c r="D307" s="44"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="42">
         <v>12</v>
       </c>
@@ -8911,7 +8620,7 @@
       </c>
       <c r="D308" s="44"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="42">
         <v>12</v>
       </c>
@@ -8934,17 +8643,17 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="12.85546875" style="10" customWidth="1"/>
     <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60" customHeight="1">
+    <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -8960,7 +8669,7 @@
       <c r="E1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="66" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -8979,21 +8688,21 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <v>2000000</v>
       </c>
       <c r="B2" s="38">
         <v>5762000</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="58">
         <v>460000</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="58">
         <f>45.79*1000</f>
         <v>45790</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="58">
         <f>51.59*1000</f>
         <v>51590</v>
       </c>
@@ -9010,10 +8719,10 @@
         <v>0.25</v>
       </c>
       <c r="J2" s="10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="45" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -9044,22 +8753,18 @@
       <c r="J3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="89" t="s">
-        <v>62</v>
-      </c>
+      <c r="K3" s="68"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="73" t="s">
-        <v>63</v>
-      </c>
+      <c r="G4" s="57"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="11"/>
@@ -9067,7 +8772,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -9081,7 +8786,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -9096,7 +8801,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -9110,7 +8815,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -9125,7 +8830,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -9140,7 +8845,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -9154,7 +8859,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1">
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
@@ -9184,7 +8889,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="15"/>
       <c r="C13" s="17"/>
@@ -9202,7 +8907,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
@@ -9220,7 +8925,7 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="17"/>
@@ -9238,7 +8943,7 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="15"/>
       <c r="C16" s="17"/>
@@ -9256,7 +8961,7 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="15"/>
       <c r="C17" s="17"/>
@@ -9274,7 +8979,7 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="17"/>
@@ -9292,7 +8997,7 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
@@ -9310,7 +9015,7 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
@@ -9328,7 +9033,7 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="15"/>
       <c r="C21" s="17"/>
@@ -9346,7 +9051,7 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
@@ -9364,7 +9069,7 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
@@ -9382,7 +9087,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="15"/>
       <c r="C24" s="17"/>
@@ -9400,7 +9105,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="15"/>
       <c r="C25" s="17"/>
@@ -9418,7 +9123,7 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="15"/>
       <c r="C26" s="17"/>
@@ -9436,7 +9141,7 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
@@ -9454,7 +9159,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="15"/>
       <c r="C28" s="17"/>
@@ -9472,7 +9177,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="15"/>
       <c r="C29" s="17"/>
@@ -9490,7 +9195,7 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="15"/>
       <c r="C30" s="17"/>
@@ -9508,7 +9213,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="15"/>
       <c r="C31" s="17"/>
@@ -9526,7 +9231,7 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="15"/>
       <c r="C32" s="17"/>
@@ -9544,7 +9249,7 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -9562,7 +9267,7 @@
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -9580,7 +9285,7 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -9598,7 +9303,7 @@
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -9617,10 +9322,6 @@
       <c r="AB36" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{9B23D263-ADF0-4A90-BAB3-2CF3FF7AB9B5}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{823B7F0D-4BFE-4F8B-A86E-D186E0475C64}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -9630,95 +9331,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="72">
         <v>3000000</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="72">
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="72">
+        <v>200000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="93">
-        <v>200000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="93">
+      <c r="C6" s="72">
         <v>47500</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="87" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="73">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="73">
         <v>3.67</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="73">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="73">
         <v>0.25</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -9728,12 +9429,12 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="10">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>61</v>
@@ -9749,13 +9450,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DE934-23F3-4414-B95B-145CF3421268}">
-  <dimension ref="A3:O24"/>
+  <dimension ref="A3:O23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="86" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -9774,59 +9475,59 @@
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="B4" s="20">
         <v>42700</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="20">
         <v>42700</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="20">
         <v>41100</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N4" s="27">
         <v>4.7140000000000004</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -9835,7 +9536,7 @@
         <v>153000000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>0</v>
@@ -9845,7 +9546,7 @@
         <v>72000000</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>0</v>
@@ -9855,7 +9556,7 @@
         <v>136000000</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>0</v>
@@ -9864,10 +9565,10 @@
         <v>45000000</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>42</v>
       </c>
@@ -9875,7 +9576,7 @@
         <v>300000</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>42</v>
@@ -9884,7 +9585,7 @@
         <v>300000</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>42</v>
@@ -9893,7 +9594,7 @@
         <v>300000</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>42</v>
@@ -9902,39 +9603,39 @@
         <v>150000</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="21">
         <v>4500</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="21">
         <v>3500</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" s="21">
         <v>4000</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N7" s="25">
         <v>1500</v>
@@ -9943,7 +9644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -9951,7 +9652,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>2</v>
@@ -9960,7 +9661,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>2</v>
@@ -9969,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>2</v>
@@ -9978,50 +9679,50 @@
         <v>10</v>
       </c>
       <c r="O8" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="19" t="s">
+      <c r="E9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="O9" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="B10" s="50">
         <v>0.1</v>
@@ -10045,7 +9746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>45</v>
       </c>
@@ -10083,48 +9784,48 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12">
         <v>220</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <f>231/2</f>
         <v>115.5</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -10133,7 +9834,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -10142,7 +9843,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>30</v>
@@ -10151,7 +9852,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>30</v>
@@ -10160,9 +9861,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>98.5</v>
@@ -10171,7 +9872,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1">
         <v>98.5</v>
@@ -10180,7 +9881,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J14" s="1">
         <v>98.5</v>
@@ -10189,7 +9890,7 @@
         <v>46</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N14" s="1">
         <v>98.5</v>
@@ -10198,59 +9899,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="30">
         <v>3</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="30">
         <v>8</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15" s="30">
         <v>5</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N15" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="30">
         <v>45</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="30">
         <v>45</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="30">
         <v>45</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N16" s="30">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -10259,7 +9960,7 @@
         <v>0.5</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>52</v>
@@ -10269,7 +9970,7 @@
         <v>0.25</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>52</v>
@@ -10279,7 +9980,7 @@
         <v>0.5</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M17" s="26" t="s">
         <v>52</v>
@@ -10289,100 +9990,100 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <f>15/60</f>
         <v>0.25</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <f>7.5/60</f>
         <v>0.125</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18">
         <f>15/60</f>
         <v>0.25</v>
       </c>
       <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="N18" s="78">
+        <v>800</v>
+      </c>
+      <c r="O18" s="77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="76">
+        <v>180</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="76">
+        <v>180</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="25">
-        <v>800</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="J19" s="76">
+        <v>270</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="26" t="s">
+      <c r="M19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="75">
-        <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="75">
-        <v>180</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="75">
-        <v>270</v>
-      </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="88">
+      <c r="N19" s="67">
         <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="75">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="76">
         <v>270</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="77" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>1.5</v>
@@ -10391,7 +10092,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J20">
         <v>1.5</v>
@@ -10400,11 +10101,11 @@
         <v>46</v>
       </c>
       <c r="M20" s="26"/>
-      <c r="N20" s="88"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20" s="67"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -10413,7 +10114,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="38">
         <v>25000000</v>
@@ -10423,11 +10124,11 @@
       </c>
       <c r="I21" s="26"/>
       <c r="M21" s="26"/>
-      <c r="N21" s="88"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="67"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>1.5</v>
@@ -10436,13 +10137,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10454,11 +10150,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918434CD-84E2-4CA1-983C-7CAA622D9B73}">
   <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
@@ -10467,42 +10163,42 @@
     <col min="9" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H2" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="33"/>
       <c r="I3" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="M3" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="13" t="s">
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1">
-      <c r="B4" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="33"/>
       <c r="H4" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I4" s="39">
         <v>5</v>
@@ -10527,16 +10223,16 @@
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
     </row>
-    <row r="5" spans="2:19" ht="15" customHeight="1">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" s="33">
         <v>4.5</v>
       </c>
       <c r="D5" s="33"/>
       <c r="H5" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -10558,18 +10254,18 @@
       </c>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="33">
         <v>16</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I6" s="39">
         <v>5</v>
@@ -10591,9 +10287,9 @@
       </c>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="2:19" ht="15" customHeight="1">
+    <row r="7" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="35">
         <v>20</v>
@@ -10602,7 +10298,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I7" s="39">
         <v>5</v>
@@ -10624,9 +10320,9 @@
       </c>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="2:19" ht="15" customHeight="1">
+    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="36">
         <v>100</v>
@@ -10635,7 +10331,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I8" s="39">
         <v>7</v>
@@ -10657,9 +10353,9 @@
       </c>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1">
+    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" s="36">
         <v>85</v>
@@ -10668,7 +10364,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I9" s="39">
         <v>7</v>
@@ -10690,9 +10386,9 @@
       </c>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="2:19" ht="15" customHeight="1">
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" s="36">
         <v>85</v>
@@ -10701,7 +10397,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I10" s="39">
         <v>7</v>
@@ -10723,9 +10419,9 @@
       </c>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="2:19" ht="15" customHeight="1">
+    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="36">
         <v>0</v>
@@ -10734,7 +10430,7 @@
         <v>46</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I11" s="39">
         <v>7</v>
@@ -10755,18 +10451,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1">
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="38">
         <v>24281</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I12" s="39">
         <v>7</v>
@@ -10787,18 +10483,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1">
+    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="38">
         <v>24000</v>
       </c>
       <c r="D13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>128</v>
       </c>
       <c r="I13" s="39">
         <v>7</v>
@@ -10819,9 +10515,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" customHeight="1">
+    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" s="36">
         <v>0.1</v>
@@ -10830,27 +10526,27 @@
         <v>46</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15" customHeight="1">
+    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="38">
         <v>4640000</v>
@@ -10859,53 +10555,53 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="38">
         <v>250000</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="15" customHeight="1"/>
-    <row r="18" spans="2:15" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="H18" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="60">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="H19" s="39" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="M19" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="O19" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="85" t="s">
-        <v>142</v>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="64" t="s">
+        <v>139</v>
       </c>
       <c r="H20" s="39">
         <v>1</v>
@@ -10913,7 +10609,7 @@
       <c r="I20" s="39">
         <v>0.25700000000000001</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="65">
         <v>278.33333333333331</v>
       </c>
       <c r="K20" s="39">
@@ -10923,7 +10619,7 @@
         <v>13</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N20" s="39">
         <v>31</v>
@@ -10932,15 +10628,15 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C21">
         <v>4.2</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" s="39">
         <v>2</v>
@@ -10948,7 +10644,7 @@
       <c r="I21" s="39">
         <v>0.23100000000000001</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="65">
         <v>282.14285714285711</v>
       </c>
       <c r="K21" s="39">
@@ -10958,7 +10654,7 @@
         <v>12</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N21" s="39">
         <v>28</v>
@@ -10967,14 +10663,14 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H22" s="39">
         <v>3</v>
       </c>
       <c r="I22" s="39">
         <v>0.21099999999999999</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="65">
         <v>251.9047619047619</v>
       </c>
       <c r="K22" s="39">
@@ -10984,7 +10680,7 @@
         <v>11</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N22" s="39">
         <v>31</v>
@@ -10993,14 +10689,14 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H23" s="39">
         <v>4</v>
       </c>
       <c r="I23" s="39">
         <v>0.20799999999999999</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="65">
         <v>278.8095238095238</v>
       </c>
       <c r="K23" s="39">
@@ -11010,7 +10706,7 @@
         <v>11</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N23" s="39">
         <v>30</v>
@@ -11019,14 +10715,14 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H24" s="39">
         <v>5</v>
       </c>
       <c r="I24" s="39">
         <v>0.20100000000000001</v>
       </c>
-      <c r="J24" s="86">
+      <c r="J24" s="65">
         <v>252.14285714285714</v>
       </c>
       <c r="K24" s="39">
@@ -11036,7 +10732,7 @@
         <v>11</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N24" s="39">
         <v>31</v>
@@ -11045,14 +10741,14 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H25" s="39">
         <v>6</v>
       </c>
       <c r="I25" s="39">
         <v>0.22600000000000001</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J25" s="65">
         <v>256.42857142857144</v>
       </c>
       <c r="K25" s="39">
@@ -11062,7 +10758,7 @@
         <v>11</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N25" s="39">
         <v>30</v>
@@ -11071,14 +10767,14 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H26" s="39">
         <v>7</v>
       </c>
       <c r="I26" s="39">
         <v>0.22</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="65">
         <v>261.90476190476187</v>
       </c>
       <c r="K26" s="39">
@@ -11088,7 +10784,7 @@
         <v>11</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N26" s="39">
         <v>31</v>
@@ -11097,14 +10793,14 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H27" s="39">
         <v>8</v>
       </c>
       <c r="I27" s="39">
         <v>0.222</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="65">
         <v>251.66666666666666</v>
       </c>
       <c r="K27" s="39">
@@ -11114,7 +10810,7 @@
         <v>11</v>
       </c>
       <c r="M27" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N27" s="39">
         <v>31</v>
@@ -11123,14 +10819,14 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H28" s="39">
         <v>9</v>
       </c>
       <c r="I28" s="39">
         <v>0.23699999999999999</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J28" s="65">
         <v>270.47619047619048</v>
       </c>
       <c r="K28" s="39">
@@ -11140,7 +10836,7 @@
         <v>12</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N28" s="39">
         <v>30</v>
@@ -11149,14 +10845,14 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H29" s="39">
         <v>10</v>
       </c>
       <c r="I29" s="39">
         <v>0.22800000000000001</v>
       </c>
-      <c r="J29" s="86">
+      <c r="J29" s="65">
         <v>273.33333333333331</v>
       </c>
       <c r="K29" s="39">
@@ -11166,7 +10862,7 @@
         <v>13</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N29" s="39">
         <v>31</v>
@@ -11175,14 +10871,14 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H30" s="39">
         <v>11</v>
       </c>
       <c r="I30" s="39">
         <v>0.247</v>
       </c>
-      <c r="J30" s="86">
+      <c r="J30" s="65">
         <v>255.95238095238093</v>
       </c>
       <c r="K30" s="39">
@@ -11192,7 +10888,7 @@
         <v>14</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N30" s="39">
         <v>30</v>
@@ -11201,14 +10897,14 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H31" s="39">
         <v>12</v>
       </c>
       <c r="I31" s="39">
         <v>0.245</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J31" s="65">
         <v>285.71428571428572</v>
       </c>
       <c r="K31" s="39">
@@ -11218,7 +10914,7 @@
         <v>14</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N31" s="39">
         <v>31</v>
@@ -11237,259 +10933,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D27CD2-E810-4FE6-87F8-09242D0DB167}">
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D3" s="60" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="72">
-        <v>1200</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="72">
-        <f>B3*0.123</f>
-        <v>147.6</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="92">
+      <c r="B5" s="71">
         <f>29.9*1000</f>
         <v>29900</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <f>B5/B3</f>
-        <v>24.916666666666668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="51">
         <v>0.05</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B7" s="51">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="72">
-        <f>15.61*284</f>
-        <v>4433.24</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="77" t="s">
+      <c r="B10" s="38">
+        <v>110461.56333333334</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="F10" s="69"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="72">
-        <v>438.16487362281271</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="90"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="91">
-        <f>B8*D5</f>
-        <v>110461.56333333334</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="F10" s="90"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="B11" s="51">
         <v>0.05</v>
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12" s="51">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="72">
-        <v>240000</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="B15" s="70">
+        <v>61479</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="72">
-        <v>8000</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="91">
-        <v>61479</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="B16" s="51">
         <v>0.05</v>
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" s="51">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="52">
-        <v>1543</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B18" s="52"/>
       <c r="C18" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="52">
-        <v>190</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B19" s="52"/>
       <c r="C19" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B20" s="54">
         <f>B15</f>
         <v>61479</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B21" s="51">
         <v>0.05</v>
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B22" s="51">
         <v>0</v>
@@ -11498,109 +11172,100 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="78">
-        <v>194000</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="77" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="79">
-        <f>B23*0.033</f>
-        <v>6402</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="B25" s="52">
         <v>40000</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B26" s="51">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" s="51">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="76">
-        <v>312.39999999999998</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="76">
-        <v>7</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="26" t="s">
-        <v>186</v>
       </c>
       <c r="B30" s="52">
         <v>72000</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B31" s="51">
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B32">
         <v>500</v>
@@ -11621,292 +11286,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED905D-8FFA-43A9-B53B-1CE53CE3B8BA}">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="I6" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="63">
-        <v>57</v>
-      </c>
-      <c r="C7" s="60">
-        <f>B7/100</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D7" s="60">
-        <v>300</v>
-      </c>
-      <c r="E7" s="60">
-        <f>C7*D7</f>
-        <v>170.99999999999997</v>
-      </c>
-      <c r="F7" s="38">
-        <f>E7*(10)^6</f>
-        <v>170999999.99999997</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="63">
-        <v>7000</v>
-      </c>
-      <c r="J7" s="60">
-        <f>I7*D7</f>
-        <v>2100000</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="66"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="C11" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="63">
-        <v>375</v>
-      </c>
-      <c r="D12" s="60">
-        <v>300</v>
-      </c>
-      <c r="E12" s="60">
-        <f>C12*D12</f>
-        <v>112500</v>
-      </c>
-      <c r="F12" s="70">
-        <f>E12*1000</f>
-        <v>112500000</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="67"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="67"/>
-      <c r="C14" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="I14" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A15" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="59">
-        <v>1200000</v>
-      </c>
-      <c r="D15" s="60">
-        <v>300</v>
-      </c>
-      <c r="E15" s="61">
-        <f>C15*D15</f>
-        <v>360000000</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="59">
-        <v>30000</v>
-      </c>
-      <c r="J15" s="61">
-        <f>I15*D15</f>
-        <v>9000000</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="L19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="D20" s="80"/>
-      <c r="L20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="75">
-        <v>180</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21">
-        <f>F23*0.8</f>
-        <v>216</v>
-      </c>
-      <c r="G21">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="75">
-        <v>270</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23">
-        <v>270</v>
-      </c>
-      <c r="G23">
-        <f>G21*1.2</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11915,7 +11307,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7049AB24443724EAB1CFD3B2AF1ADB5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c30c205005472c154e057e99ca4cd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xmlns:ns3="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7233ea2167b9792fbdd1e6ef7896b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
@@ -12170,26 +11562,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696CC092-934A-4D81-8B55-D9C69F126E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E6C4D-8953-40F1-B09B-4B565247F910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="2" r:id="rId1"/>
@@ -637,7 +637,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -979,29 +979,19 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1037,7 +1027,7 @@
     <cellStyle name="Comma 4" xfId="6" xr:uid="{D5A4242B-509E-4D2E-81AD-417CF0F2EB3A}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{0F634CA9-310C-492D-92C5-B0307AB554B9}"/>
   </cellStyles>
   <dxfs count="1">
@@ -1355,7 +1345,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -1377,7 +1367,7 @@
     <col min="20" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>360000000</v>
       </c>
@@ -1505,14 +1495,14 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1529,7 +1519,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -1552,7 +1542,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -1564,7 +1554,7 @@
         <v>7.6666666666666675E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -1576,7 +1566,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -1588,7 +1578,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>5</v>
       </c>
@@ -1600,7 +1590,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>6</v>
       </c>
@@ -1612,7 +1602,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>7</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>9.8333333333333328E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>8</v>
       </c>
@@ -1636,7 +1626,7 @@
         <v>8.9166666666666672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>9</v>
       </c>
@@ -1648,7 +1638,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>10</v>
       </c>
@@ -1660,7 +1650,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>11</v>
       </c>
@@ -1672,7 +1662,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>12</v>
       </c>
@@ -1684,7 +1674,7 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>23</v>
       </c>
@@ -1695,7 +1685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>1</v>
       </c>
@@ -1706,7 +1696,7 @@
         <v>7.0064119192243659</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>1</v>
       </c>
@@ -1717,7 +1707,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>1</v>
       </c>
@@ -1728,7 +1718,7 @@
         <v>7.353263994433493</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>1</v>
       </c>
@@ -1739,7 +1729,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -1750,7 +1740,7 @@
         <v>6.4514485988897627</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>1</v>
       </c>
@@ -1761,7 +1751,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>1</v>
       </c>
@@ -1772,7 +1762,7 @@
         <v>5.2027811281369045</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>1</v>
       </c>
@@ -1783,7 +1773,7 @@
         <v>4.9946698830114284</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>1</v>
       </c>
@@ -1794,7 +1784,7 @@
         <v>4.7865586378859524</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>1</v>
       </c>
@@ -1805,7 +1795,7 @@
         <v>4.6478178078023022</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>1</v>
       </c>
@@ -1816,7 +1806,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>1</v>
       </c>
@@ -1827,7 +1817,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>1</v>
       </c>
@@ -1838,7 +1828,7 @@
         <v>4.7171882228441282</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>1</v>
       </c>
@@ -1849,7 +1839,7 @@
         <v>5.3415219582205555</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>1</v>
       </c>
@@ -1860,7 +1850,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>1</v>
       </c>
@@ -1871,7 +1861,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>1</v>
       </c>
@@ -1882,7 +1872,7 @@
         <v>5.4802627883042074</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>1</v>
       </c>
@@ -1893,7 +1883,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>1</v>
       </c>
@@ -1904,7 +1894,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>1</v>
       </c>
@@ -1915,7 +1905,7 @@
         <v>5.8271148635133336</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>1</v>
       </c>
@@ -1926,7 +1916,7 @@
         <v>6.1739669387224607</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>1</v>
       </c>
@@ -1937,7 +1927,7 @@
         <v>6.5208190139315869</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>1</v>
       </c>
@@ -1948,7 +1938,7 @@
         <v>6.7289302590570639</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>1</v>
       </c>
@@ -1959,7 +1949,7 @@
         <v>6.867671089140714</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>2</v>
       </c>
@@ -1970,7 +1960,7 @@
         <v>7.0163219785160527</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>2</v>
       </c>
@@ -1981,7 +1971,7 @@
         <v>7.1352426900163248</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>2</v>
       </c>
@@ -1992,7 +1982,7 @@
         <v>6.9568616227659161</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>2</v>
       </c>
@@ -2003,7 +1993,7 @@
         <v>6.5406391325149658</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>2</v>
       </c>
@@ -2014,7 +2004,7 @@
         <v>5.4703527290125162</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>2</v>
       </c>
@@ -2025,7 +2015,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>2</v>
       </c>
@@ -2036,7 +2026,7 @@
         <v>4.3406059697599311</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>2</v>
       </c>
@@ -2047,7 +2037,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>2</v>
       </c>
@@ -2058,7 +2048,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>2</v>
       </c>
@@ -2069,7 +2059,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>2</v>
       </c>
@@ -2080,7 +2070,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>2</v>
       </c>
@@ -2091,7 +2081,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>2</v>
       </c>
@@ -2102,7 +2092,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>2</v>
       </c>
@@ -2113,7 +2103,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>2</v>
       </c>
@@ -2124,7 +2114,7 @@
         <v>5.0541302387615632</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>2</v>
       </c>
@@ -2135,7 +2125,7 @@
         <v>5.1730509502618363</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>2</v>
       </c>
@@ -2146,7 +2136,7 @@
         <v>5.2325113060119719</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>2</v>
       </c>
@@ -2157,7 +2147,7 @@
         <v>5.5298130847626519</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>2</v>
       </c>
@@ -2168,7 +2158,7 @@
         <v>5.8271148635133327</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>2</v>
       </c>
@@ -2179,7 +2169,7 @@
         <v>6.0649562865138771</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>2</v>
       </c>
@@ -2190,7 +2180,7 @@
         <v>6.3622580652645571</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>2</v>
       </c>
@@ -2201,7 +2191,7 @@
         <v>6.6000994882651014</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>2</v>
       </c>
@@ -2212,7 +2202,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>2</v>
       </c>
@@ -2223,7 +2213,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>3</v>
       </c>
@@ -2234,7 +2224,7 @@
         <v>6.7912677287951082</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>3</v>
       </c>
@@ -2245,7 +2235,7 @@
         <v>6.671068299966878</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>3</v>
       </c>
@@ -2256,7 +2246,7 @@
         <v>6.4907691567245287</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>3</v>
       </c>
@@ -2267,7 +2257,7 @@
         <v>6.1301708702398336</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>3</v>
       </c>
@@ -2278,7 +2268,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>3</v>
       </c>
@@ -2289,7 +2279,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>3</v>
       </c>
@@ -2300,7 +2290,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>3</v>
       </c>
@@ -2311,7 +2301,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>3</v>
       </c>
@@ -2322,7 +2312,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>3</v>
       </c>
@@ -2333,7 +2323,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>3</v>
       </c>
@@ -2344,7 +2334,7 @@
         <v>3.8463817225034247</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>3</v>
       </c>
@@ -2355,7 +2345,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>3</v>
       </c>
@@ -2366,7 +2356,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>3</v>
       </c>
@@ -2377,7 +2367,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>3</v>
       </c>
@@ -2388,7 +2378,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>3</v>
       </c>
@@ -2399,7 +2389,7 @@
         <v>5.7695725837551368</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>3</v>
       </c>
@@ -2410,7 +2400,7 @@
         <v>6.1902705846539483</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>3</v>
       </c>
@@ -2421,7 +2411,7 @@
         <v>6.2503702990680647</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>3</v>
       </c>
@@ -2432,7 +2422,7 @@
         <v>6.430669442310414</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>3</v>
       </c>
@@ -2443,7 +2433,7 @@
         <v>6.6109685855527616</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>3</v>
       </c>
@@ -2454,7 +2444,7 @@
         <v>6.8513674432092246</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>3</v>
       </c>
@@ -2465,7 +2455,7 @@
         <v>7.151866015279805</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>3</v>
       </c>
@@ -2476,7 +2466,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>3</v>
       </c>
@@ -2487,7 +2477,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>4</v>
       </c>
@@ -2498,7 +2488,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>4</v>
       </c>
@@ -2509,7 +2499,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>4</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>11.011176990765936</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>4</v>
       </c>
@@ -2531,7 +2521,7 @@
         <v>9.3374780881695134</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>4</v>
       </c>
@@ -2542,7 +2532,7 @@
         <v>7.5756897696469636</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>4</v>
       </c>
@@ -2553,7 +2543,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>4</v>
       </c>
@@ -2564,7 +2554,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>4</v>
       </c>
@@ -2575,7 +2565,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>4</v>
       </c>
@@ -2586,7 +2576,7 @@
         <v>6.4305273626073056</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>4</v>
       </c>
@@ -2597,7 +2587,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>4</v>
       </c>
@@ -2608,7 +2598,7 @@
         <v>6.8709744422379435</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>4</v>
       </c>
@@ -2619,7 +2609,7 @@
         <v>7.2233321059424531</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>4</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>7.6637791855730901</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
         <v>4</v>
       </c>
@@ -2641,7 +2631,7 @@
         <v>8.2804050970559828</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>4</v>
       </c>
@@ -2652,7 +2642,7 @@
         <v>9.1612992563172586</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>4</v>
       </c>
@@ -2663,7 +2653,7 @@
         <v>9.8660145837262778</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>4</v>
       </c>
@@ -2674,7 +2664,7 @@
         <v>10.570729911135297</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
         <v>4</v>
       </c>
@@ -2685,7 +2675,7 @@
         <v>11.363534654470445</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>4</v>
       </c>
@@ -2696,7 +2686,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
         <v>4</v>
       </c>
@@ -2707,7 +2697,7 @@
         <v>12.244428813731718</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
         <v>4</v>
       </c>
@@ -2718,7 +2708,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>4</v>
       </c>
@@ -2729,7 +2719,7 @@
         <v>12.508697061510102</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>4</v>
       </c>
@@ -2740,7 +2730,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
         <v>4</v>
       </c>
@@ -2751,7 +2741,7 @@
         <v>12.156339397805592</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
         <v>5</v>
       </c>
@@ -2762,7 +2752,7 @@
         <v>11.873489788855293</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
         <v>5</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
         <v>5</v>
       </c>
@@ -2784,7 +2774,7 @@
         <v>11.037328536119004</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
         <v>5</v>
       </c>
@@ -2795,7 +2785,7 @@
         <v>9.9503189075618295</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>5</v>
       </c>
@@ -2806,7 +2796,7 @@
         <v>9.2813899053727997</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
         <v>5</v>
       </c>
@@ -2817,7 +2807,7 @@
         <v>8.946925404278284</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
         <v>5</v>
       </c>
@@ -2828,7 +2818,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>5</v>
       </c>
@@ -2839,7 +2829,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
         <v>5</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>8.863309279004655</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>5</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>9.1141576548255419</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
         <v>5</v>
       </c>
@@ -2872,7 +2862,7 @@
         <v>9.4486221559200558</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>5</v>
       </c>
@@ -2883,7 +2873,7 @@
         <v>9.6994705317409426</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
         <v>5</v>
       </c>
@@ -2894,7 +2884,7 @@
         <v>9.7830866570145716</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>5</v>
       </c>
@@ -2905,7 +2895,7 @@
         <v>10.033935032835458</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>5</v>
       </c>
@@ -2916,7 +2906,7 @@
         <v>10.535631784477232</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
         <v>5</v>
       </c>
@@ -2927,7 +2917,7 @@
         <v>11.120944661392633</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
         <v>5</v>
       </c>
@@ -2938,7 +2928,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
         <v>5</v>
       </c>
@@ -2949,7 +2939,7 @@
         <v>12.12433816467618</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
         <v>5</v>
       </c>
@@ -2960,7 +2950,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
         <v>5</v>
       </c>
@@ -2971,7 +2961,7 @@
         <v>12.458802665770694</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>5</v>
       </c>
@@ -2982,7 +2972,7 @@
         <v>12.542418791044323</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
         <v>5</v>
       </c>
@@ -2993,7 +2983,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>5</v>
       </c>
@@ -3004,7 +2994,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
         <v>5</v>
       </c>
@@ -3015,7 +3005,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
         <v>6</v>
       </c>
@@ -3026,7 +3016,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
         <v>6</v>
       </c>
@@ -3037,7 +3027,7 @@
         <v>14.508326803033196</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
         <v>6</v>
       </c>
@@ -3048,7 +3038,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
         <v>6</v>
       </c>
@@ -3059,7 +3049,7 @@
         <v>13.420202292805707</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
         <v>6</v>
       </c>
@@ -3070,7 +3060,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
         <v>6</v>
       </c>
@@ -3081,7 +3071,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
         <v>6</v>
       </c>
@@ -3092,7 +3082,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
         <v>6</v>
       </c>
@@ -3103,7 +3093,7 @@
         <v>12.573883229295438</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
         <v>6</v>
       </c>
@@ -3114,7 +3104,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="41">
         <v>6</v>
       </c>
@@ -3125,7 +3115,7 @@
         <v>13.299299569447097</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="41">
         <v>6</v>
       </c>
@@ -3136,7 +3126,7 @@
         <v>13.662007739522924</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>6</v>
       </c>
@@ -3147,7 +3137,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="41">
         <v>6</v>
       </c>
@@ -3158,7 +3148,7 @@
         <v>14.145618632957365</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>6</v>
       </c>
@@ -3169,7 +3159,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="41">
         <v>6</v>
       </c>
@@ -3180,7 +3170,7 @@
         <v>15.112840419826245</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <v>6</v>
       </c>
@@ -3191,7 +3181,7 @@
         <v>15.233743143184856</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <v>6</v>
       </c>
@@ -3202,7 +3192,7 @@
         <v>15.475548589902077</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>6</v>
       </c>
@@ -3213,7 +3203,7 @@
         <v>15.717354036619296</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="41">
         <v>6</v>
       </c>
@@ -3224,7 +3214,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
         <v>6</v>
       </c>
@@ -3235,7 +3225,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <v>6</v>
       </c>
@@ -3246,7 +3236,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
         <v>6</v>
       </c>
@@ -3257,7 +3247,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <v>6</v>
       </c>
@@ -3268,7 +3258,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="41">
         <v>6</v>
       </c>
@@ -3279,7 +3269,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
         <v>7</v>
       </c>
@@ -3290,7 +3280,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <v>7</v>
       </c>
@@ -3301,7 +3291,7 @@
         <v>14.633294330372467</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>7</v>
       </c>
@@ -3312,7 +3302,7 @@
         <v>14.391421696812589</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="41">
         <v>7</v>
       </c>
@@ -3323,7 +3313,7 @@
         <v>13.907676429692838</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>7</v>
       </c>
@@ -3334,7 +3324,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <v>7</v>
       </c>
@@ -3345,7 +3335,7 @@
         <v>12.819249578673402</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="41">
         <v>7</v>
       </c>
@@ -3356,7 +3346,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <v>7</v>
       </c>
@@ -3367,7 +3357,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
         <v>7</v>
       </c>
@@ -3378,7 +3368,7 @@
         <v>12.94018589545334</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <v>7</v>
       </c>
@@ -3389,7 +3379,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <v>7</v>
       </c>
@@ -3400,7 +3390,7 @@
         <v>13.7867401129129</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
         <v>7</v>
       </c>
@@ -3411,7 +3401,7 @@
         <v>14.270485380032653</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
         <v>7</v>
       </c>
@@ -3422,7 +3412,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
         <v>7</v>
       </c>
@@ -3433,7 +3423,7 @@
         <v>15.117039597492216</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
         <v>7</v>
       </c>
@@ -3444,7 +3434,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="41">
         <v>7</v>
       </c>
@@ -3455,7 +3445,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="41">
         <v>7</v>
       </c>
@@ -3466,7 +3456,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="41">
         <v>7</v>
       </c>
@@ -3477,7 +3467,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <v>7</v>
       </c>
@@ -3488,7 +3478,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
         <v>7</v>
       </c>
@@ -3499,7 +3489,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
         <v>7</v>
       </c>
@@ -3510,7 +3500,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="41">
         <v>7</v>
       </c>
@@ -3521,7 +3511,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <v>7</v>
       </c>
@@ -3532,7 +3522,7 @@
         <v>15.358912231052093</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>7</v>
       </c>
@@ -3543,7 +3533,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>8</v>
       </c>
@@ -3554,7 +3544,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="41">
         <v>8</v>
       </c>
@@ -3565,7 +3555,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="41">
         <v>8</v>
       </c>
@@ -3576,7 +3566,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="41">
         <v>8</v>
       </c>
@@ -3587,7 +3577,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="41">
         <v>8</v>
       </c>
@@ -3598,7 +3588,7 @@
         <v>13.670324779937822</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="41">
         <v>8</v>
       </c>
@@ -3609,7 +3599,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="41">
         <v>8</v>
       </c>
@@ -3620,7 +3610,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="41">
         <v>8</v>
       </c>
@@ -3631,7 +3621,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="41">
         <v>8</v>
       </c>
@@ -3642,7 +3632,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
         <v>8</v>
       </c>
@@ -3653,7 +3643,7 @@
         <v>13.260215036539686</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>8</v>
       </c>
@@ -3664,7 +3654,7 @@
         <v>13.533621532138444</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <v>8</v>
       </c>
@@ -3675,7 +3665,7 @@
         <v>14.217137771135336</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
         <v>8</v>
       </c>
@@ -3686,7 +3676,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="41">
         <v>8</v>
       </c>
@@ -3697,7 +3687,7 @@
         <v>15.037357257931603</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <v>8</v>
       </c>
@@ -3708,7 +3698,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="41">
         <v>8</v>
       </c>
@@ -3719,7 +3709,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="41">
         <v>8</v>
       </c>
@@ -3730,7 +3720,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
         <v>8</v>
       </c>
@@ -3741,7 +3731,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <v>8</v>
       </c>
@@ -3752,7 +3742,7 @@
         <v>15.447467001329738</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="41">
         <v>8</v>
       </c>
@@ -3763,7 +3753,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="41">
         <v>8</v>
       </c>
@@ -3774,7 +3764,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="41">
         <v>8</v>
       </c>
@@ -3785,7 +3775,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <v>8</v>
       </c>
@@ -3796,7 +3786,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="41">
         <v>8</v>
       </c>
@@ -3807,7 +3797,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="41">
         <v>9</v>
       </c>
@@ -3818,7 +3808,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="41">
         <v>9</v>
       </c>
@@ -3829,7 +3819,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="41">
         <v>9</v>
       </c>
@@ -3840,7 +3830,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
         <v>9</v>
       </c>
@@ -3851,7 +3841,7 @@
         <v>9.0671213072315311</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="41">
         <v>9</v>
       </c>
@@ -3862,7 +3852,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="41">
         <v>9</v>
       </c>
@@ -3873,7 +3863,7 @@
         <v>7.6307456546007923</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="41">
         <v>9</v>
       </c>
@@ -3884,7 +3874,7 @@
         <v>7.3614252197325287</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="41">
         <v>9</v>
       </c>
@@ -3895,7 +3885,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="41">
         <v>9</v>
       </c>
@@ -3906,7 +3896,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="41">
         <v>9</v>
       </c>
@@ -3917,7 +3907,7 @@
         <v>7.5409721763113717</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="41">
         <v>9</v>
       </c>
@@ -3928,7 +3918,7 @@
         <v>7.8102926111796354</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="41">
         <v>9</v>
       </c>
@@ -3939,7 +3929,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="41">
         <v>9</v>
       </c>
@@ -3950,7 +3940,7 @@
         <v>8.6182539157844253</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="41">
         <v>9</v>
       </c>
@@ -3961,7 +3951,7 @@
         <v>8.9773478289421096</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="41">
         <v>9</v>
       </c>
@@ -3972,7 +3962,7 @@
         <v>9.2466682638103723</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="41">
         <v>9</v>
       </c>
@@ -3983,7 +3973,7 @@
         <v>9.3364417420997956</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="41">
         <v>9</v>
       </c>
@@ -3994,7 +3984,7 @@
         <v>9.6955356552574798</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="41">
         <v>9</v>
       </c>
@@ -4005,7 +3995,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="41">
         <v>9</v>
       </c>
@@ -4016,7 +4006,7 @@
         <v>10.054629568415162</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="41">
         <v>9</v>
       </c>
@@ -4027,7 +4017,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="41">
         <v>9</v>
       </c>
@@ -4038,7 +4028,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="41">
         <v>9</v>
       </c>
@@ -4049,7 +4039,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="41">
         <v>9</v>
       </c>
@@ -4060,7 +4050,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="41">
         <v>9</v>
       </c>
@@ -4071,7 +4061,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <v>10</v>
       </c>
@@ -4082,7 +4072,7 @@
         <v>7.6863386701395395</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="41">
         <v>10</v>
       </c>
@@ -4093,7 +4083,7 @@
         <v>7.4688007832487973</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="41">
         <v>10</v>
       </c>
@@ -4104,7 +4094,7 @@
         <v>7.1062376384308941</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="41">
         <v>10</v>
       </c>
@@ -4115,7 +4105,7 @@
         <v>6.59864923568583</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="41">
         <v>10</v>
       </c>
@@ -4126,7 +4116,7 @@
         <v>5.5834724301957026</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <v>10</v>
       </c>
@@ -4137,7 +4127,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="41">
         <v>10</v>
       </c>
@@ -4148,7 +4138,7 @@
         <v>4.0607072219605111</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>10</v>
       </c>
@@ -4159,7 +4149,7 @@
         <v>3.9156819640333502</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="41">
         <v>10</v>
       </c>
@@ -4170,7 +4160,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="41">
         <v>10</v>
       </c>
@@ -4181,7 +4171,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="41">
         <v>10</v>
       </c>
@@ -4192,7 +4182,7 @@
         <v>4.1332198509240916</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="41">
         <v>10</v>
       </c>
@@ -4203,7 +4193,7 @@
         <v>4.2782451088512525</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="41">
         <v>10</v>
       </c>
@@ -4214,7 +4204,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <v>10</v>
       </c>
@@ -4225,7 +4215,7 @@
         <v>5.3659345433049612</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="41">
         <v>10</v>
       </c>
@@ -4236,7 +4226,7 @@
         <v>5.8010103170864449</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <v>10</v>
       </c>
@@ -4247,7 +4237,7 @@
         <v>6.0910608329407667</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="41">
         <v>10</v>
       </c>
@@ -4258,7 +4248,7 @@
         <v>6.1635734619043472</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="41">
         <v>10</v>
       </c>
@@ -4269,7 +4259,7 @@
         <v>6.4536239777586699</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="41">
         <v>10</v>
       </c>
@@ -4280,7 +4270,7 @@
         <v>6.8161871225765713</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="41">
         <v>10</v>
       </c>
@@ -4291,7 +4281,7 @@
         <v>7.251262896358055</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="41">
         <v>10</v>
       </c>
@@ -4302,7 +4292,7 @@
         <v>7.6138260411759591</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="41">
         <v>10</v>
       </c>
@@ -4313,7 +4303,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="41">
         <v>10</v>
       </c>
@@ -4324,7 +4314,7 @@
         <v>7.9038765570302809</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="41">
         <v>10</v>
       </c>
@@ -4335,7 +4325,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="41">
         <v>11</v>
       </c>
@@ -4346,7 +4336,7 @@
         <v>6.9330774804658635</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="41">
         <v>11</v>
       </c>
@@ -4357,7 +4347,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="41">
         <v>11</v>
       </c>
@@ -4368,7 +4358,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="41">
         <v>11</v>
       </c>
@@ -4379,7 +4369,7 @@
         <v>6.8022646978155654</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="41">
         <v>11</v>
       </c>
@@ -4390,7 +4380,7 @@
         <v>6.2136071758892166</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="41">
         <v>11</v>
       </c>
@@ -4401,7 +4391,7 @@
         <v>5.101698523361673</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="41">
         <v>11</v>
       </c>
@@ -4412,7 +4402,7 @@
         <v>4.4476346101101765</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="41">
         <v>11</v>
       </c>
@@ -4423,7 +4413,7 @@
         <v>4.0551962621592788</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="41">
         <v>11</v>
       </c>
@@ -4434,7 +4424,7 @@
         <v>3.8589770881838299</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="41">
         <v>11</v>
       </c>
@@ -4445,7 +4435,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>11</v>
       </c>
@@ -4456,7 +4446,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="41">
         <v>11</v>
       </c>
@@ -4467,7 +4457,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="41">
         <v>11</v>
       </c>
@@ -4478,7 +4468,7 @@
         <v>3.9897898708341288</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="41">
         <v>11</v>
       </c>
@@ -4489,7 +4479,7 @@
         <v>4.5784473927604754</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="41">
         <v>11</v>
       </c>
@@ -4500,7 +4490,7 @@
         <v>4.7746665667359247</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="41">
         <v>11</v>
       </c>
@@ -4511,7 +4501,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="41">
         <v>11</v>
       </c>
@@ -4522,7 +4512,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="41">
         <v>11</v>
       </c>
@@ -4533,7 +4523,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="41">
         <v>11</v>
       </c>
@@ -4544,7 +4534,7 @@
         <v>4.9708857407113731</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="41">
         <v>11</v>
       </c>
@@ -4555,7 +4545,7 @@
         <v>5.2979176973371223</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="41">
         <v>11</v>
       </c>
@@ -4566,7 +4556,7 @@
         <v>5.69035604528802</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="41">
         <v>11</v>
       </c>
@@ -4577,7 +4567,7 @@
         <v>6.0827943932389186</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="41">
         <v>11</v>
       </c>
@@ -4588,7 +4578,7 @@
         <v>6.4752327411898163</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="41">
         <v>11</v>
       </c>
@@ -4599,7 +4589,7 @@
         <v>6.7368583064904151</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="41">
         <v>12</v>
       </c>
@@ -4610,7 +4600,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="41">
         <v>12</v>
       </c>
@@ -4621,7 +4611,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="41">
         <v>12</v>
       </c>
@@ -4632,7 +4622,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="41">
         <v>12</v>
       </c>
@@ -4643,7 +4633,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="41">
         <v>12</v>
       </c>
@@ -4654,7 +4644,7 @@
         <v>7.0356811641091213</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="41">
         <v>12</v>
       </c>
@@ -4665,7 +4655,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="41">
         <v>12</v>
       </c>
@@ -4676,7 +4666,7 @@
         <v>5.4233375640007813</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="41">
         <v>12</v>
       </c>
@@ -4687,7 +4677,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="41">
         <v>12</v>
       </c>
@@ -4698,7 +4688,7 @@
         <v>4.8370308003250218</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="41">
         <v>12</v>
       </c>
@@ -4709,7 +4699,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="41">
         <v>12</v>
       </c>
@@ -4720,7 +4710,7 @@
         <v>4.6904541094060814</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <v>12</v>
       </c>
@@ -4731,7 +4721,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="41">
         <v>12</v>
       </c>
@@ -4742,7 +4732,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="41">
         <v>12</v>
       </c>
@@ -4753,7 +4743,7 @@
         <v>5.6432026003791913</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <v>12</v>
       </c>
@@ -4764,7 +4754,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="41">
         <v>12</v>
       </c>
@@ -4775,7 +4765,7 @@
         <v>6.0096443276765408</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="41">
         <v>12</v>
       </c>
@@ -4786,7 +4776,7 @@
         <v>6.0829326731360105</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <v>12</v>
       </c>
@@ -4797,7 +4787,7 @@
         <v>6.156221018595482</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <v>12</v>
       </c>
@@ -4808,7 +4798,7 @@
         <v>6.3760860549738911</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="41">
         <v>12</v>
       </c>
@@ -4819,7 +4809,7 @@
         <v>6.6692394368117718</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <v>12</v>
       </c>
@@ -4830,7 +4820,7 @@
         <v>6.9623928186496506</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="41">
         <v>12</v>
       </c>
@@ -4841,7 +4831,7 @@
         <v>7.2555462004875313</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="41">
         <v>12</v>
       </c>
@@ -4852,7 +4842,7 @@
         <v>7.4754112368659413</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="41">
         <v>12</v>
       </c>
@@ -4876,7 +4866,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -4890,7 +4880,7 @@
     <col min="10" max="21" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4925,11 +4915,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>150000000</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="81">
         <v>175000</v>
       </c>
       <c r="C2" s="2">
@@ -4961,7 +4951,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4981,7 +4971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5001,7 +4991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5021,7 +5011,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5042,14 +5032,14 @@
       <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="78">
         <v>110000000</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5070,7 +5060,7 @@
       <c r="H8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="78">
         <f>400000</f>
         <v>400000</v>
       </c>
@@ -5079,7 +5069,7 @@
       </c>
       <c r="K8" s="55"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5100,11 +5090,11 @@
       <c r="H9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="82">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5125,14 +5115,14 @@
       <c r="H10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10">
         <v>5</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5153,11 +5143,11 @@
       <c r="H11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5177,7 +5167,7 @@
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5197,7 +5187,7 @@
       </c>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -5216,7 +5206,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5235,7 +5225,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -5254,7 +5244,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5273,7 +5263,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>23</v>
       </c>
@@ -5285,7 +5275,7 @@
       </c>
       <c r="D21" s="40"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>1</v>
       </c>
@@ -5297,7 +5287,7 @@
       </c>
       <c r="D22" s="43"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>1</v>
       </c>
@@ -5309,7 +5299,7 @@
       </c>
       <c r="D23" s="43"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>1</v>
       </c>
@@ -5321,7 +5311,7 @@
       </c>
       <c r="D24" s="43"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -5333,7 +5323,7 @@
       </c>
       <c r="D25" s="43"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>1</v>
       </c>
@@ -5345,7 +5335,7 @@
       </c>
       <c r="D26" s="43"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>1</v>
       </c>
@@ -5357,7 +5347,7 @@
       </c>
       <c r="D27" s="43"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>1</v>
       </c>
@@ -5369,7 +5359,7 @@
       </c>
       <c r="D28" s="43"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>1</v>
       </c>
@@ -5381,7 +5371,7 @@
       </c>
       <c r="D29" s="43"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>1</v>
       </c>
@@ -5393,7 +5383,7 @@
       </c>
       <c r="D30" s="43"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>1</v>
       </c>
@@ -5405,7 +5395,7 @@
       </c>
       <c r="D31" s="43"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>1</v>
       </c>
@@ -5417,7 +5407,7 @@
       </c>
       <c r="D32" s="43"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>1</v>
       </c>
@@ -5429,7 +5419,7 @@
       </c>
       <c r="D33" s="43"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>1</v>
       </c>
@@ -5441,7 +5431,7 @@
       </c>
       <c r="D34" s="43"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>1</v>
       </c>
@@ -5453,7 +5443,7 @@
       </c>
       <c r="D35" s="43"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>1</v>
       </c>
@@ -5465,7 +5455,7 @@
       </c>
       <c r="D36" s="43"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>1</v>
       </c>
@@ -5477,7 +5467,7 @@
       </c>
       <c r="D37" s="43"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>1</v>
       </c>
@@ -5489,7 +5479,7 @@
       </c>
       <c r="D38" s="43"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>1</v>
       </c>
@@ -5501,7 +5491,7 @@
       </c>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>1</v>
       </c>
@@ -5513,7 +5503,7 @@
       </c>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>1</v>
       </c>
@@ -5525,7 +5515,7 @@
       </c>
       <c r="D41" s="43"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>1</v>
       </c>
@@ -5537,7 +5527,7 @@
       </c>
       <c r="D42" s="43"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>1</v>
       </c>
@@ -5549,7 +5539,7 @@
       </c>
       <c r="D43" s="43"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>1</v>
       </c>
@@ -5561,7 +5551,7 @@
       </c>
       <c r="D44" s="43"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>1</v>
       </c>
@@ -5573,7 +5563,7 @@
       </c>
       <c r="D45" s="43"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>2</v>
       </c>
@@ -5585,7 +5575,7 @@
       </c>
       <c r="D46" s="43"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>2</v>
       </c>
@@ -5597,7 +5587,7 @@
       </c>
       <c r="D47" s="43"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>2</v>
       </c>
@@ -5609,7 +5599,7 @@
       </c>
       <c r="D48" s="43"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>2</v>
       </c>
@@ -5621,7 +5611,7 @@
       </c>
       <c r="D49" s="43"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>2</v>
       </c>
@@ -5633,7 +5623,7 @@
       </c>
       <c r="D50" s="43"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>2</v>
       </c>
@@ -5645,7 +5635,7 @@
       </c>
       <c r="D51" s="43"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>2</v>
       </c>
@@ -5657,7 +5647,7 @@
       </c>
       <c r="D52" s="43"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>2</v>
       </c>
@@ -5669,7 +5659,7 @@
       </c>
       <c r="D53" s="43"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>2</v>
       </c>
@@ -5681,7 +5671,7 @@
       </c>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>2</v>
       </c>
@@ -5693,7 +5683,7 @@
       </c>
       <c r="D55" s="43"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>2</v>
       </c>
@@ -5705,7 +5695,7 @@
       </c>
       <c r="D56" s="43"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>2</v>
       </c>
@@ -5717,7 +5707,7 @@
       </c>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>2</v>
       </c>
@@ -5729,7 +5719,7 @@
       </c>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>2</v>
       </c>
@@ -5741,7 +5731,7 @@
       </c>
       <c r="D59" s="43"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>2</v>
       </c>
@@ -5753,7 +5743,7 @@
       </c>
       <c r="D60" s="43"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>2</v>
       </c>
@@ -5765,7 +5755,7 @@
       </c>
       <c r="D61" s="43"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>2</v>
       </c>
@@ -5777,7 +5767,7 @@
       </c>
       <c r="D62" s="43"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>2</v>
       </c>
@@ -5789,7 +5779,7 @@
       </c>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>2</v>
       </c>
@@ -5801,7 +5791,7 @@
       </c>
       <c r="D64" s="43"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>2</v>
       </c>
@@ -5813,7 +5803,7 @@
       </c>
       <c r="D65" s="43"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>2</v>
       </c>
@@ -5825,7 +5815,7 @@
       </c>
       <c r="D66" s="43"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>2</v>
       </c>
@@ -5837,7 +5827,7 @@
       </c>
       <c r="D67" s="43"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>2</v>
       </c>
@@ -5849,7 +5839,7 @@
       </c>
       <c r="D68" s="43"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>2</v>
       </c>
@@ -5861,7 +5851,7 @@
       </c>
       <c r="D69" s="43"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>3</v>
       </c>
@@ -5873,7 +5863,7 @@
       </c>
       <c r="D70" s="43"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>3</v>
       </c>
@@ -5885,7 +5875,7 @@
       </c>
       <c r="D71" s="43"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>3</v>
       </c>
@@ -5897,7 +5887,7 @@
       </c>
       <c r="D72" s="43"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>3</v>
       </c>
@@ -5909,7 +5899,7 @@
       </c>
       <c r="D73" s="43"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>3</v>
       </c>
@@ -5921,7 +5911,7 @@
       </c>
       <c r="D74" s="43"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>3</v>
       </c>
@@ -5933,7 +5923,7 @@
       </c>
       <c r="D75" s="43"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>3</v>
       </c>
@@ -5945,7 +5935,7 @@
       </c>
       <c r="D76" s="43"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>3</v>
       </c>
@@ -5957,7 +5947,7 @@
       </c>
       <c r="D77" s="43"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>3</v>
       </c>
@@ -5969,7 +5959,7 @@
       </c>
       <c r="D78" s="43"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>3</v>
       </c>
@@ -5981,7 +5971,7 @@
       </c>
       <c r="D79" s="43"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>3</v>
       </c>
@@ -5993,7 +5983,7 @@
       </c>
       <c r="D80" s="43"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>3</v>
       </c>
@@ -6005,7 +5995,7 @@
       </c>
       <c r="D81" s="43"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>3</v>
       </c>
@@ -6017,7 +6007,7 @@
       </c>
       <c r="D82" s="43"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>3</v>
       </c>
@@ -6029,7 +6019,7 @@
       </c>
       <c r="D83" s="43"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>3</v>
       </c>
@@ -6041,7 +6031,7 @@
       </c>
       <c r="D84" s="43"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>3</v>
       </c>
@@ -6053,7 +6043,7 @@
       </c>
       <c r="D85" s="43"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>3</v>
       </c>
@@ -6065,7 +6055,7 @@
       </c>
       <c r="D86" s="43"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>3</v>
       </c>
@@ -6077,7 +6067,7 @@
       </c>
       <c r="D87" s="43"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>3</v>
       </c>
@@ -6089,7 +6079,7 @@
       </c>
       <c r="D88" s="43"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>3</v>
       </c>
@@ -6101,7 +6091,7 @@
       </c>
       <c r="D89" s="43"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>3</v>
       </c>
@@ -6113,7 +6103,7 @@
       </c>
       <c r="D90" s="43"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>3</v>
       </c>
@@ -6125,7 +6115,7 @@
       </c>
       <c r="D91" s="43"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>3</v>
       </c>
@@ -6137,7 +6127,7 @@
       </c>
       <c r="D92" s="43"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
         <v>3</v>
       </c>
@@ -6149,7 +6139,7 @@
       </c>
       <c r="D93" s="43"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>4</v>
       </c>
@@ -6161,7 +6151,7 @@
       </c>
       <c r="D94" s="43"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>4</v>
       </c>
@@ -6173,7 +6163,7 @@
       </c>
       <c r="D95" s="43"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>4</v>
       </c>
@@ -6185,7 +6175,7 @@
       </c>
       <c r="D96" s="43"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>4</v>
       </c>
@@ -6197,7 +6187,7 @@
       </c>
       <c r="D97" s="43"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>4</v>
       </c>
@@ -6209,7 +6199,7 @@
       </c>
       <c r="D98" s="43"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>4</v>
       </c>
@@ -6221,7 +6211,7 @@
       </c>
       <c r="D99" s="43"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>4</v>
       </c>
@@ -6233,7 +6223,7 @@
       </c>
       <c r="D100" s="43"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>4</v>
       </c>
@@ -6245,7 +6235,7 @@
       </c>
       <c r="D101" s="43"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>4</v>
       </c>
@@ -6257,7 +6247,7 @@
       </c>
       <c r="D102" s="43"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>4</v>
       </c>
@@ -6269,7 +6259,7 @@
       </c>
       <c r="D103" s="43"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>4</v>
       </c>
@@ -6281,7 +6271,7 @@
       </c>
       <c r="D104" s="43"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>4</v>
       </c>
@@ -6293,7 +6283,7 @@
       </c>
       <c r="D105" s="43"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
         <v>4</v>
       </c>
@@ -6305,7 +6295,7 @@
       </c>
       <c r="D106" s="43"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>4</v>
       </c>
@@ -6317,7 +6307,7 @@
       </c>
       <c r="D107" s="43"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>4</v>
       </c>
@@ -6329,7 +6319,7 @@
       </c>
       <c r="D108" s="43"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>4</v>
       </c>
@@ -6341,7 +6331,7 @@
       </c>
       <c r="D109" s="43"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
         <v>4</v>
       </c>
@@ -6353,7 +6343,7 @@
       </c>
       <c r="D110" s="43"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>4</v>
       </c>
@@ -6365,7 +6355,7 @@
       </c>
       <c r="D111" s="43"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
         <v>4</v>
       </c>
@@ -6377,7 +6367,7 @@
       </c>
       <c r="D112" s="43"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
         <v>4</v>
       </c>
@@ -6389,7 +6379,7 @@
       </c>
       <c r="D113" s="43"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>4</v>
       </c>
@@ -6401,7 +6391,7 @@
       </c>
       <c r="D114" s="43"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>4</v>
       </c>
@@ -6413,7 +6403,7 @@
       </c>
       <c r="D115" s="43"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
         <v>4</v>
       </c>
@@ -6425,7 +6415,7 @@
       </c>
       <c r="D116" s="43"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
         <v>4</v>
       </c>
@@ -6437,7 +6427,7 @@
       </c>
       <c r="D117" s="43"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
         <v>5</v>
       </c>
@@ -6449,7 +6439,7 @@
       </c>
       <c r="D118" s="43"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
         <v>5</v>
       </c>
@@ -6461,7 +6451,7 @@
       </c>
       <c r="D119" s="43"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
         <v>5</v>
       </c>
@@ -6473,7 +6463,7 @@
       </c>
       <c r="D120" s="43"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>5</v>
       </c>
@@ -6485,7 +6475,7 @@
       </c>
       <c r="D121" s="43"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
         <v>5</v>
       </c>
@@ -6497,7 +6487,7 @@
       </c>
       <c r="D122" s="43"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
         <v>5</v>
       </c>
@@ -6509,7 +6499,7 @@
       </c>
       <c r="D123" s="43"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>5</v>
       </c>
@@ -6521,7 +6511,7 @@
       </c>
       <c r="D124" s="43"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
         <v>5</v>
       </c>
@@ -6533,7 +6523,7 @@
       </c>
       <c r="D125" s="43"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>5</v>
       </c>
@@ -6545,7 +6535,7 @@
       </c>
       <c r="D126" s="43"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
         <v>5</v>
       </c>
@@ -6557,7 +6547,7 @@
       </c>
       <c r="D127" s="43"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>5</v>
       </c>
@@ -6569,7 +6559,7 @@
       </c>
       <c r="D128" s="43"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
         <v>5</v>
       </c>
@@ -6581,7 +6571,7 @@
       </c>
       <c r="D129" s="43"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>5</v>
       </c>
@@ -6593,7 +6583,7 @@
       </c>
       <c r="D130" s="43"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>5</v>
       </c>
@@ -6605,7 +6595,7 @@
       </c>
       <c r="D131" s="43"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
         <v>5</v>
       </c>
@@ -6617,7 +6607,7 @@
       </c>
       <c r="D132" s="43"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
         <v>5</v>
       </c>
@@ -6629,7 +6619,7 @@
       </c>
       <c r="D133" s="43"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
         <v>5</v>
       </c>
@@ -6641,7 +6631,7 @@
       </c>
       <c r="D134" s="43"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
         <v>5</v>
       </c>
@@ -6653,7 +6643,7 @@
       </c>
       <c r="D135" s="43"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
         <v>5</v>
       </c>
@@ -6665,7 +6655,7 @@
       </c>
       <c r="D136" s="43"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>5</v>
       </c>
@@ -6677,7 +6667,7 @@
       </c>
       <c r="D137" s="43"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
         <v>5</v>
       </c>
@@ -6689,7 +6679,7 @@
       </c>
       <c r="D138" s="43"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>5</v>
       </c>
@@ -6701,7 +6691,7 @@
       </c>
       <c r="D139" s="43"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
         <v>5</v>
       </c>
@@ -6713,7 +6703,7 @@
       </c>
       <c r="D140" s="43"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
         <v>5</v>
       </c>
@@ -6725,7 +6715,7 @@
       </c>
       <c r="D141" s="43"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
         <v>6</v>
       </c>
@@ -6737,7 +6727,7 @@
       </c>
       <c r="D142" s="43"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
         <v>6</v>
       </c>
@@ -6749,7 +6739,7 @@
       </c>
       <c r="D143" s="43"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
         <v>6</v>
       </c>
@@ -6761,7 +6751,7 @@
       </c>
       <c r="D144" s="43"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
         <v>6</v>
       </c>
@@ -6773,7 +6763,7 @@
       </c>
       <c r="D145" s="43"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
         <v>6</v>
       </c>
@@ -6785,7 +6775,7 @@
       </c>
       <c r="D146" s="43"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
         <v>6</v>
       </c>
@@ -6797,7 +6787,7 @@
       </c>
       <c r="D147" s="43"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
         <v>6</v>
       </c>
@@ -6809,7 +6799,7 @@
       </c>
       <c r="D148" s="43"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
         <v>6</v>
       </c>
@@ -6821,7 +6811,7 @@
       </c>
       <c r="D149" s="43"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="41">
         <v>6</v>
       </c>
@@ -6833,7 +6823,7 @@
       </c>
       <c r="D150" s="43"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="41">
         <v>6</v>
       </c>
@@ -6845,7 +6835,7 @@
       </c>
       <c r="D151" s="43"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>6</v>
       </c>
@@ -6857,7 +6847,7 @@
       </c>
       <c r="D152" s="43"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="41">
         <v>6</v>
       </c>
@@ -6869,7 +6859,7 @@
       </c>
       <c r="D153" s="43"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>6</v>
       </c>
@@ -6881,7 +6871,7 @@
       </c>
       <c r="D154" s="43"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="41">
         <v>6</v>
       </c>
@@ -6893,7 +6883,7 @@
       </c>
       <c r="D155" s="43"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <v>6</v>
       </c>
@@ -6905,7 +6895,7 @@
       </c>
       <c r="D156" s="43"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <v>6</v>
       </c>
@@ -6917,7 +6907,7 @@
       </c>
       <c r="D157" s="43"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>6</v>
       </c>
@@ -6929,7 +6919,7 @@
       </c>
       <c r="D158" s="43"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="41">
         <v>6</v>
       </c>
@@ -6941,7 +6931,7 @@
       </c>
       <c r="D159" s="43"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
         <v>6</v>
       </c>
@@ -6953,7 +6943,7 @@
       </c>
       <c r="D160" s="43"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <v>6</v>
       </c>
@@ -6965,7 +6955,7 @@
       </c>
       <c r="D161" s="43"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
         <v>6</v>
       </c>
@@ -6977,7 +6967,7 @@
       </c>
       <c r="D162" s="43"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <v>6</v>
       </c>
@@ -6989,7 +6979,7 @@
       </c>
       <c r="D163" s="43"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="41">
         <v>6</v>
       </c>
@@ -7001,7 +6991,7 @@
       </c>
       <c r="D164" s="43"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
         <v>6</v>
       </c>
@@ -7013,7 +7003,7 @@
       </c>
       <c r="D165" s="43"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <v>7</v>
       </c>
@@ -7025,7 +7015,7 @@
       </c>
       <c r="D166" s="43"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>7</v>
       </c>
@@ -7037,7 +7027,7 @@
       </c>
       <c r="D167" s="43"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="41">
         <v>7</v>
       </c>
@@ -7049,7 +7039,7 @@
       </c>
       <c r="D168" s="43"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>7</v>
       </c>
@@ -7061,7 +7051,7 @@
       </c>
       <c r="D169" s="43"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <v>7</v>
       </c>
@@ -7073,7 +7063,7 @@
       </c>
       <c r="D170" s="43"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="41">
         <v>7</v>
       </c>
@@ -7085,7 +7075,7 @@
       </c>
       <c r="D171" s="43"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <v>7</v>
       </c>
@@ -7097,7 +7087,7 @@
       </c>
       <c r="D172" s="43"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
         <v>7</v>
       </c>
@@ -7109,7 +7099,7 @@
       </c>
       <c r="D173" s="43"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <v>7</v>
       </c>
@@ -7121,7 +7111,7 @@
       </c>
       <c r="D174" s="43"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <v>7</v>
       </c>
@@ -7133,7 +7123,7 @@
       </c>
       <c r="D175" s="43"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
         <v>7</v>
       </c>
@@ -7145,7 +7135,7 @@
       </c>
       <c r="D176" s="43"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
         <v>7</v>
       </c>
@@ -7157,7 +7147,7 @@
       </c>
       <c r="D177" s="43"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
         <v>7</v>
       </c>
@@ -7169,7 +7159,7 @@
       </c>
       <c r="D178" s="43"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
         <v>7</v>
       </c>
@@ -7181,7 +7171,7 @@
       </c>
       <c r="D179" s="43"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="41">
         <v>7</v>
       </c>
@@ -7193,7 +7183,7 @@
       </c>
       <c r="D180" s="43"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="41">
         <v>7</v>
       </c>
@@ -7205,7 +7195,7 @@
       </c>
       <c r="D181" s="43"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="41">
         <v>7</v>
       </c>
@@ -7217,7 +7207,7 @@
       </c>
       <c r="D182" s="43"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <v>7</v>
       </c>
@@ -7229,7 +7219,7 @@
       </c>
       <c r="D183" s="43"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
         <v>7</v>
       </c>
@@ -7241,7 +7231,7 @@
       </c>
       <c r="D184" s="43"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
         <v>7</v>
       </c>
@@ -7253,7 +7243,7 @@
       </c>
       <c r="D185" s="43"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="41">
         <v>7</v>
       </c>
@@ -7265,7 +7255,7 @@
       </c>
       <c r="D186" s="43"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <v>7</v>
       </c>
@@ -7277,7 +7267,7 @@
       </c>
       <c r="D187" s="43"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>7</v>
       </c>
@@ -7289,7 +7279,7 @@
       </c>
       <c r="D188" s="43"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>7</v>
       </c>
@@ -7301,7 +7291,7 @@
       </c>
       <c r="D189" s="43"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="41">
         <v>8</v>
       </c>
@@ -7313,7 +7303,7 @@
       </c>
       <c r="D190" s="43"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="41">
         <v>8</v>
       </c>
@@ -7325,7 +7315,7 @@
       </c>
       <c r="D191" s="43"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="41">
         <v>8</v>
       </c>
@@ -7337,7 +7327,7 @@
       </c>
       <c r="D192" s="43"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="41">
         <v>8</v>
       </c>
@@ -7349,7 +7339,7 @@
       </c>
       <c r="D193" s="43"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="41">
         <v>8</v>
       </c>
@@ -7361,7 +7351,7 @@
       </c>
       <c r="D194" s="43"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="41">
         <v>8</v>
       </c>
@@ -7373,7 +7363,7 @@
       </c>
       <c r="D195" s="43"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="41">
         <v>8</v>
       </c>
@@ -7385,7 +7375,7 @@
       </c>
       <c r="D196" s="43"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="41">
         <v>8</v>
       </c>
@@ -7397,7 +7387,7 @@
       </c>
       <c r="D197" s="43"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
         <v>8</v>
       </c>
@@ -7409,7 +7399,7 @@
       </c>
       <c r="D198" s="43"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>8</v>
       </c>
@@ -7421,7 +7411,7 @@
       </c>
       <c r="D199" s="43"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <v>8</v>
       </c>
@@ -7433,7 +7423,7 @@
       </c>
       <c r="D200" s="43"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
         <v>8</v>
       </c>
@@ -7445,7 +7435,7 @@
       </c>
       <c r="D201" s="43"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="41">
         <v>8</v>
       </c>
@@ -7457,7 +7447,7 @@
       </c>
       <c r="D202" s="43"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <v>8</v>
       </c>
@@ -7469,7 +7459,7 @@
       </c>
       <c r="D203" s="43"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="41">
         <v>8</v>
       </c>
@@ -7481,7 +7471,7 @@
       </c>
       <c r="D204" s="43"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="41">
         <v>8</v>
       </c>
@@ -7493,7 +7483,7 @@
       </c>
       <c r="D205" s="43"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
         <v>8</v>
       </c>
@@ -7505,7 +7495,7 @@
       </c>
       <c r="D206" s="43"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <v>8</v>
       </c>
@@ -7517,7 +7507,7 @@
       </c>
       <c r="D207" s="43"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="41">
         <v>8</v>
       </c>
@@ -7529,7 +7519,7 @@
       </c>
       <c r="D208" s="43"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="41">
         <v>8</v>
       </c>
@@ -7541,7 +7531,7 @@
       </c>
       <c r="D209" s="43"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="41">
         <v>8</v>
       </c>
@@ -7553,7 +7543,7 @@
       </c>
       <c r="D210" s="43"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <v>8</v>
       </c>
@@ -7565,7 +7555,7 @@
       </c>
       <c r="D211" s="43"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="41">
         <v>8</v>
       </c>
@@ -7577,7 +7567,7 @@
       </c>
       <c r="D212" s="43"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="41">
         <v>8</v>
       </c>
@@ -7589,7 +7579,7 @@
       </c>
       <c r="D213" s="43"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="41">
         <v>9</v>
       </c>
@@ -7601,7 +7591,7 @@
       </c>
       <c r="D214" s="43"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="41">
         <v>9</v>
       </c>
@@ -7613,7 +7603,7 @@
       </c>
       <c r="D215" s="43"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
         <v>9</v>
       </c>
@@ -7625,7 +7615,7 @@
       </c>
       <c r="D216" s="43"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="41">
         <v>9</v>
       </c>
@@ -7637,7 +7627,7 @@
       </c>
       <c r="D217" s="43"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="41">
         <v>9</v>
       </c>
@@ -7649,7 +7639,7 @@
       </c>
       <c r="D218" s="43"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="41">
         <v>9</v>
       </c>
@@ -7661,7 +7651,7 @@
       </c>
       <c r="D219" s="43"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="41">
         <v>9</v>
       </c>
@@ -7673,7 +7663,7 @@
       </c>
       <c r="D220" s="43"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="41">
         <v>9</v>
       </c>
@@ -7685,7 +7675,7 @@
       </c>
       <c r="D221" s="43"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="41">
         <v>9</v>
       </c>
@@ -7697,7 +7687,7 @@
       </c>
       <c r="D222" s="43"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="41">
         <v>9</v>
       </c>
@@ -7709,7 +7699,7 @@
       </c>
       <c r="D223" s="43"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="41">
         <v>9</v>
       </c>
@@ -7721,7 +7711,7 @@
       </c>
       <c r="D224" s="43"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="41">
         <v>9</v>
       </c>
@@ -7733,7 +7723,7 @@
       </c>
       <c r="D225" s="43"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="41">
         <v>9</v>
       </c>
@@ -7745,7 +7735,7 @@
       </c>
       <c r="D226" s="43"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="41">
         <v>9</v>
       </c>
@@ -7757,7 +7747,7 @@
       </c>
       <c r="D227" s="43"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="41">
         <v>9</v>
       </c>
@@ -7769,7 +7759,7 @@
       </c>
       <c r="D228" s="43"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="41">
         <v>9</v>
       </c>
@@ -7781,7 +7771,7 @@
       </c>
       <c r="D229" s="43"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="41">
         <v>9</v>
       </c>
@@ -7793,7 +7783,7 @@
       </c>
       <c r="D230" s="43"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="41">
         <v>9</v>
       </c>
@@ -7805,7 +7795,7 @@
       </c>
       <c r="D231" s="43"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="41">
         <v>9</v>
       </c>
@@ -7817,7 +7807,7 @@
       </c>
       <c r="D232" s="43"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="41">
         <v>9</v>
       </c>
@@ -7829,7 +7819,7 @@
       </c>
       <c r="D233" s="43"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="41">
         <v>9</v>
       </c>
@@ -7841,7 +7831,7 @@
       </c>
       <c r="D234" s="43"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="41">
         <v>9</v>
       </c>
@@ -7853,7 +7843,7 @@
       </c>
       <c r="D235" s="43"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="41">
         <v>9</v>
       </c>
@@ -7865,7 +7855,7 @@
       </c>
       <c r="D236" s="43"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <v>9</v>
       </c>
@@ -7877,7 +7867,7 @@
       </c>
       <c r="D237" s="43"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="41">
         <v>10</v>
       </c>
@@ -7889,7 +7879,7 @@
       </c>
       <c r="D238" s="43"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="41">
         <v>10</v>
       </c>
@@ -7901,7 +7891,7 @@
       </c>
       <c r="D239" s="43"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="41">
         <v>10</v>
       </c>
@@ -7913,7 +7903,7 @@
       </c>
       <c r="D240" s="43"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="41">
         <v>10</v>
       </c>
@@ -7925,7 +7915,7 @@
       </c>
       <c r="D241" s="43"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <v>10</v>
       </c>
@@ -7937,7 +7927,7 @@
       </c>
       <c r="D242" s="43"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="41">
         <v>10</v>
       </c>
@@ -7949,7 +7939,7 @@
       </c>
       <c r="D243" s="43"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>10</v>
       </c>
@@ -7961,7 +7951,7 @@
       </c>
       <c r="D244" s="43"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="41">
         <v>10</v>
       </c>
@@ -7973,7 +7963,7 @@
       </c>
       <c r="D245" s="43"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="41">
         <v>10</v>
       </c>
@@ -7985,7 +7975,7 @@
       </c>
       <c r="D246" s="43"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="41">
         <v>10</v>
       </c>
@@ -7997,7 +7987,7 @@
       </c>
       <c r="D247" s="43"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="41">
         <v>10</v>
       </c>
@@ -8009,7 +7999,7 @@
       </c>
       <c r="D248" s="43"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="41">
         <v>10</v>
       </c>
@@ -8021,7 +8011,7 @@
       </c>
       <c r="D249" s="43"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <v>10</v>
       </c>
@@ -8033,7 +8023,7 @@
       </c>
       <c r="D250" s="43"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="41">
         <v>10</v>
       </c>
@@ -8045,7 +8035,7 @@
       </c>
       <c r="D251" s="43"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <v>10</v>
       </c>
@@ -8057,7 +8047,7 @@
       </c>
       <c r="D252" s="43"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="41">
         <v>10</v>
       </c>
@@ -8069,7 +8059,7 @@
       </c>
       <c r="D253" s="43"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="41">
         <v>10</v>
       </c>
@@ -8081,7 +8071,7 @@
       </c>
       <c r="D254" s="43"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="41">
         <v>10</v>
       </c>
@@ -8093,7 +8083,7 @@
       </c>
       <c r="D255" s="43"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="41">
         <v>10</v>
       </c>
@@ -8105,7 +8095,7 @@
       </c>
       <c r="D256" s="43"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="41">
         <v>10</v>
       </c>
@@ -8117,7 +8107,7 @@
       </c>
       <c r="D257" s="43"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="41">
         <v>10</v>
       </c>
@@ -8129,7 +8119,7 @@
       </c>
       <c r="D258" s="43"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="41">
         <v>10</v>
       </c>
@@ -8141,7 +8131,7 @@
       </c>
       <c r="D259" s="43"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="41">
         <v>10</v>
       </c>
@@ -8153,7 +8143,7 @@
       </c>
       <c r="D260" s="43"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="41">
         <v>10</v>
       </c>
@@ -8165,7 +8155,7 @@
       </c>
       <c r="D261" s="43"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="41">
         <v>11</v>
       </c>
@@ -8177,7 +8167,7 @@
       </c>
       <c r="D262" s="43"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="41">
         <v>11</v>
       </c>
@@ -8189,7 +8179,7 @@
       </c>
       <c r="D263" s="43"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="41">
         <v>11</v>
       </c>
@@ -8201,7 +8191,7 @@
       </c>
       <c r="D264" s="43"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="41">
         <v>11</v>
       </c>
@@ -8213,7 +8203,7 @@
       </c>
       <c r="D265" s="43"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="41">
         <v>11</v>
       </c>
@@ -8225,7 +8215,7 @@
       </c>
       <c r="D266" s="43"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="41">
         <v>11</v>
       </c>
@@ -8237,7 +8227,7 @@
       </c>
       <c r="D267" s="43"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="41">
         <v>11</v>
       </c>
@@ -8249,7 +8239,7 @@
       </c>
       <c r="D268" s="43"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="41">
         <v>11</v>
       </c>
@@ -8261,7 +8251,7 @@
       </c>
       <c r="D269" s="43"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="41">
         <v>11</v>
       </c>
@@ -8273,7 +8263,7 @@
       </c>
       <c r="D270" s="43"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>11</v>
       </c>
@@ -8285,7 +8275,7 @@
       </c>
       <c r="D271" s="43"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="41">
         <v>11</v>
       </c>
@@ -8297,7 +8287,7 @@
       </c>
       <c r="D272" s="43"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="41">
         <v>11</v>
       </c>
@@ -8309,7 +8299,7 @@
       </c>
       <c r="D273" s="43"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="41">
         <v>11</v>
       </c>
@@ -8321,7 +8311,7 @@
       </c>
       <c r="D274" s="43"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="41">
         <v>11</v>
       </c>
@@ -8333,7 +8323,7 @@
       </c>
       <c r="D275" s="43"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="41">
         <v>11</v>
       </c>
@@ -8345,7 +8335,7 @@
       </c>
       <c r="D276" s="43"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="41">
         <v>11</v>
       </c>
@@ -8357,7 +8347,7 @@
       </c>
       <c r="D277" s="43"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="41">
         <v>11</v>
       </c>
@@ -8369,7 +8359,7 @@
       </c>
       <c r="D278" s="43"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="41">
         <v>11</v>
       </c>
@@ -8381,7 +8371,7 @@
       </c>
       <c r="D279" s="43"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="41">
         <v>11</v>
       </c>
@@ -8393,7 +8383,7 @@
       </c>
       <c r="D280" s="43"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="41">
         <v>11</v>
       </c>
@@ -8405,7 +8395,7 @@
       </c>
       <c r="D281" s="43"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="41">
         <v>11</v>
       </c>
@@ -8417,7 +8407,7 @@
       </c>
       <c r="D282" s="43"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="41">
         <v>11</v>
       </c>
@@ -8429,7 +8419,7 @@
       </c>
       <c r="D283" s="43"/>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="41">
         <v>11</v>
       </c>
@@ -8441,7 +8431,7 @@
       </c>
       <c r="D284" s="43"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="41">
         <v>11</v>
       </c>
@@ -8453,7 +8443,7 @@
       </c>
       <c r="D285" s="43"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="41">
         <v>12</v>
       </c>
@@ -8465,7 +8455,7 @@
       </c>
       <c r="D286" s="43"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="41">
         <v>12</v>
       </c>
@@ -8477,7 +8467,7 @@
       </c>
       <c r="D287" s="43"/>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="41">
         <v>12</v>
       </c>
@@ -8489,7 +8479,7 @@
       </c>
       <c r="D288" s="43"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="41">
         <v>12</v>
       </c>
@@ -8501,7 +8491,7 @@
       </c>
       <c r="D289" s="43"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="41">
         <v>12</v>
       </c>
@@ -8513,7 +8503,7 @@
       </c>
       <c r="D290" s="43"/>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="41">
         <v>12</v>
       </c>
@@ -8525,7 +8515,7 @@
       </c>
       <c r="D291" s="43"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="41">
         <v>12</v>
       </c>
@@ -8537,7 +8527,7 @@
       </c>
       <c r="D292" s="43"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="41">
         <v>12</v>
       </c>
@@ -8549,7 +8539,7 @@
       </c>
       <c r="D293" s="43"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="41">
         <v>12</v>
       </c>
@@ -8561,7 +8551,7 @@
       </c>
       <c r="D294" s="43"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="41">
         <v>12</v>
       </c>
@@ -8573,7 +8563,7 @@
       </c>
       <c r="D295" s="43"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <v>12</v>
       </c>
@@ -8585,7 +8575,7 @@
       </c>
       <c r="D296" s="43"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="41">
         <v>12</v>
       </c>
@@ -8597,7 +8587,7 @@
       </c>
       <c r="D297" s="43"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="41">
         <v>12</v>
       </c>
@@ -8609,7 +8599,7 @@
       </c>
       <c r="D298" s="43"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <v>12</v>
       </c>
@@ -8621,7 +8611,7 @@
       </c>
       <c r="D299" s="43"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="41">
         <v>12</v>
       </c>
@@ -8633,7 +8623,7 @@
       </c>
       <c r="D300" s="43"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="41">
         <v>12</v>
       </c>
@@ -8645,7 +8635,7 @@
       </c>
       <c r="D301" s="43"/>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <v>12</v>
       </c>
@@ -8657,7 +8647,7 @@
       </c>
       <c r="D302" s="43"/>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <v>12</v>
       </c>
@@ -8669,7 +8659,7 @@
       </c>
       <c r="D303" s="43"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="41">
         <v>12</v>
       </c>
@@ -8681,7 +8671,7 @@
       </c>
       <c r="D304" s="43"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <v>12</v>
       </c>
@@ -8693,7 +8683,7 @@
       </c>
       <c r="D305" s="43"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="41">
         <v>12</v>
       </c>
@@ -8705,7 +8695,7 @@
       </c>
       <c r="D306" s="43"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="41">
         <v>12</v>
       </c>
@@ -8717,7 +8707,7 @@
       </c>
       <c r="D307" s="43"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="41">
         <v>12</v>
       </c>
@@ -8729,7 +8719,7 @@
       </c>
       <c r="D308" s="43"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="41">
         <v>12</v>
       </c>
@@ -8751,18 +8741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="12.85546875" style="10" customWidth="1"/>
     <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60" customHeight="1">
+    <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -8797,21 +8787,21 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>2000000</v>
       </c>
       <c r="B2" s="37">
         <v>5762000</v>
       </c>
-      <c r="C2" s="92">
+      <c r="C2" s="86">
         <v>460000</v>
       </c>
-      <c r="D2" s="92">
+      <c r="D2" s="86">
         <f>45.79*1000</f>
         <v>45790</v>
       </c>
-      <c r="E2" s="92">
+      <c r="E2" s="86">
         <f>51.59*1000</f>
         <v>51590</v>
       </c>
@@ -8828,48 +8818,48 @@
         <v>0.25</v>
       </c>
       <c r="J2" s="10">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="91" customFormat="1" ht="45" customHeight="1">
-      <c r="A3" s="89" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="85" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="K3" s="84"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -8883,7 +8873,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -8897,7 +8887,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8912,7 +8902,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -8926,7 +8916,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -8941,7 +8931,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -8956,7 +8946,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -8970,7 +8960,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1">
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
@@ -9000,7 +8990,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="15"/>
       <c r="C13" s="17"/>
@@ -9018,7 +9008,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
@@ -9036,7 +9026,7 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="17"/>
@@ -9054,7 +9044,7 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="15"/>
       <c r="C16" s="17"/>
@@ -9072,7 +9062,7 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="15"/>
       <c r="C17" s="17"/>
@@ -9090,7 +9080,7 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="17"/>
@@ -9108,7 +9098,7 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
@@ -9126,7 +9116,7 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
@@ -9144,7 +9134,7 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="15"/>
       <c r="C21" s="17"/>
@@ -9162,7 +9152,7 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
@@ -9180,7 +9170,7 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
@@ -9198,7 +9188,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="15"/>
       <c r="C24" s="17"/>
@@ -9216,7 +9206,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="15"/>
       <c r="C25" s="17"/>
@@ -9234,7 +9224,7 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="15"/>
       <c r="C26" s="17"/>
@@ -9252,7 +9242,7 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
@@ -9270,7 +9260,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="15"/>
       <c r="C28" s="17"/>
@@ -9288,7 +9278,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="15"/>
       <c r="C29" s="17"/>
@@ -9306,7 +9296,7 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="15"/>
       <c r="C30" s="17"/>
@@ -9324,7 +9314,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="15"/>
       <c r="C31" s="17"/>
@@ -9342,7 +9332,7 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="15"/>
       <c r="C32" s="17"/>
@@ -9360,7 +9350,7 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -9378,7 +9368,7 @@
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -9396,7 +9386,7 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -9414,7 +9404,7 @@
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -9442,22 +9432,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -9468,7 +9458,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -9479,7 +9469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -9490,7 +9480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -9501,7 +9491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>18</v>
       </c>
@@ -9512,7 +9502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -9523,7 +9513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
@@ -9531,7 +9521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
@@ -9545,7 +9535,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
@@ -9572,7 +9562,7 @@
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -9595,7 +9585,7 @@
     <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>73</v>
       </c>
@@ -9612,7 +9602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>78</v>
       </c>
@@ -9662,7 +9652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -9713,7 +9703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
@@ -9760,7 +9750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>86</v>
       </c>
@@ -9807,7 +9797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -9854,7 +9844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>88</v>
       </c>
@@ -9901,7 +9891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
@@ -9933,7 +9923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>50</v>
       </c>
@@ -9980,7 +9970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
@@ -10028,7 +10018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>93</v>
       </c>
@@ -10075,7 +10065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>94</v>
       </c>
@@ -10122,7 +10112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>95</v>
       </c>
@@ -10154,7 +10144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>96</v>
       </c>
@@ -10186,7 +10176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>56</v>
       </c>
@@ -10238,7 +10228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>98</v>
       </c>
@@ -10289,7 +10279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>100</v>
       </c>
@@ -10336,7 +10326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>101</v>
       </c>
@@ -10376,7 +10366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>103</v>
       </c>
@@ -10411,7 +10401,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>102</v>
       </c>
@@ -10431,7 +10421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
     </row>
   </sheetData>
@@ -10451,7 +10441,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
@@ -10460,12 +10450,12 @@
     <col min="9" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="45">
+    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="36"/>
       <c r="C3" s="35"/>
       <c r="D3" s="32"/>
@@ -10488,7 +10478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1">
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>115</v>
       </c>
@@ -10520,7 +10510,7 @@
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
     </row>
-    <row r="5" spans="2:19" ht="15" customHeight="1">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>117</v>
       </c>
@@ -10551,7 +10541,7 @@
       </c>
       <c r="S5" s="38"/>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>119</v>
       </c>
@@ -10584,7 +10574,7 @@
       </c>
       <c r="S6" s="38"/>
     </row>
-    <row r="7" spans="2:19" ht="15" customHeight="1">
+    <row r="7" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>121</v>
       </c>
@@ -10617,7 +10607,7 @@
       </c>
       <c r="S7" s="38"/>
     </row>
-    <row r="8" spans="2:19" ht="15" customHeight="1">
+    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>123</v>
       </c>
@@ -10650,7 +10640,7 @@
       </c>
       <c r="S8" s="38"/>
     </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1">
+    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>125</v>
       </c>
@@ -10683,7 +10673,7 @@
       </c>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="2:19" ht="15" customHeight="1">
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>127</v>
       </c>
@@ -10716,7 +10706,7 @@
       </c>
       <c r="S10" s="38"/>
     </row>
-    <row r="11" spans="2:19" ht="15" customHeight="1">
+    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>129</v>
       </c>
@@ -10748,7 +10738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1">
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>131</v>
       </c>
@@ -10780,7 +10770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1">
+    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>134</v>
       </c>
@@ -10812,7 +10802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" customHeight="1">
+    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>136</v>
       </c>
@@ -10841,7 +10831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15" customHeight="1">
+    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>139</v>
       </c>
@@ -10852,7 +10842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
         <v>140</v>
       </c>
@@ -10863,14 +10853,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" customHeight="1"/>
-    <row r="18" spans="2:15" ht="15" customHeight="1">
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="H18" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="60">
+    <row r="19" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="H19" s="38" t="s">
         <v>23</v>
       </c>
@@ -10896,7 +10886,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="s">
         <v>149</v>
       </c>
@@ -10925,7 +10915,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="36" t="s">
         <v>151</v>
       </c>
@@ -10960,7 +10950,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H22" s="38">
         <v>3</v>
       </c>
@@ -10986,7 +10976,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H23" s="38">
         <v>4</v>
       </c>
@@ -11012,7 +11002,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H24" s="38">
         <v>5</v>
       </c>
@@ -11038,7 +11028,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H25" s="38">
         <v>6</v>
       </c>
@@ -11064,7 +11054,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H26" s="38">
         <v>7</v>
       </c>
@@ -11090,7 +11080,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H27" s="38">
         <v>8</v>
       </c>
@@ -11116,7 +11106,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H28" s="38">
         <v>9</v>
       </c>
@@ -11142,7 +11132,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H29" s="38">
         <v>10</v>
       </c>
@@ -11168,7 +11158,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H30" s="38">
         <v>11</v>
       </c>
@@ -11194,7 +11184,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H31" s="38">
         <v>12</v>
       </c>
@@ -11234,353 +11224,352 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="67"/>
-    <col min="6" max="6" width="11.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="68"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="69">
         <v>37750</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="70">
         <v>0.1</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="70">
         <v>200</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="68"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="66"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="67"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="71">
         <v>47000</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="69"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="67"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="70">
         <v>0.1</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="70">
         <v>200</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="66"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="59" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="72">
         <v>64000</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="70">
         <v>0.05</v>
       </c>
-      <c r="C16" s="75"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="70">
         <v>220</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="59" t="s">
         <v>158</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="79">
+      <c r="B20" s="73">
         <f>B15</f>
         <v>64000</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B21" s="74">
         <v>0.05</v>
       </c>
-      <c r="C21" s="73"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="80">
-        <v>0</v>
-      </c>
-      <c r="C22" s="73" t="s">
+      <c r="B22" s="74">
+        <v>0</v>
+      </c>
+      <c r="C22" s="59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="68"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" s="66"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="82" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="76" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="78">
         <v>38280</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="70">
         <v>0.05</v>
       </c>
-      <c r="C26" s="70"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="70">
         <v>400</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="71" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="68"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="D28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="71" t="s">
+      <c r="B29" s="79"/>
+      <c r="C29" s="65" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="78">
         <v>76620</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="70">
         <v>0.05</v>
       </c>
-      <c r="C31" s="70"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="26">
         <v>500</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -11590,27 +11579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7049AB24443724EAB1CFD3B2AF1ADB5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c30c205005472c154e057e99ca4cd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xmlns:ns3="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7233ea2167b9792fbdd1e6ef7896b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
@@ -11865,14 +11833,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqsa.mehmood\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E6C4D-8953-40F1-B09B-4B565247F910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396D3B8-0D4B-4073-A989-05133CA7C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="site_load" sheetId="8" r:id="rId6"/>
     <sheet name="tariff" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1342,32 +1340,32 @@
   <dimension ref="A1:U308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1432,12 +1430,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
-        <v>360000000</v>
+        <v>279688900</v>
       </c>
       <c r="B2" s="37">
-        <v>700000</v>
+        <v>1165370.42</v>
       </c>
       <c r="C2" s="51">
         <v>20</v>
@@ -1495,7 +1493,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1517,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>1</v>
       </c>
@@ -1542,7 +1540,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>2</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>7.6666666666666675E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -1566,7 +1564,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>4</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>5</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>6</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="38">
         <v>7</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>9.8333333333333328E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <v>8</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>8.9166666666666672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <v>9</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <v>10</v>
       </c>
@@ -1650,7 +1648,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="38">
         <v>11</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <v>12</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>23</v>
       </c>
@@ -1685,7 +1683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="41">
         <v>1</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>7.0064119192243659</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="41">
         <v>1</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="41">
         <v>1</v>
       </c>
@@ -1718,7 +1716,7 @@
         <v>7.353263994433493</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="41">
         <v>1</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>7.214523164349842</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>6.4514485988897627</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="41">
         <v>1</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="41">
         <v>1</v>
       </c>
@@ -1762,7 +1760,7 @@
         <v>5.2027811281369045</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="41">
         <v>1</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>4.9946698830114284</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="41">
         <v>1</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>4.7865586378859524</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="41">
         <v>1</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>4.6478178078023022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="41">
         <v>1</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="41">
         <v>1</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>4.5090769777186512</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="41">
         <v>1</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>4.7171882228441282</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="41">
         <v>1</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>5.3415219582205555</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="41">
         <v>1</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="41">
         <v>1</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="41">
         <v>1</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>5.4802627883042074</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="41">
         <v>1</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>5.5496332033460325</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="41">
         <v>1</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>5.6190036183878576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="41">
         <v>1</v>
       </c>
@@ -1905,7 +1903,7 @@
         <v>5.8271148635133336</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="41">
         <v>1</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>6.1739669387224607</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="41">
         <v>1</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>6.5208190139315869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="41">
         <v>1</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>6.7289302590570639</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="41">
         <v>1</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>6.867671089140714</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="41">
         <v>2</v>
       </c>
@@ -1960,7 +1958,7 @@
         <v>7.0163219785160527</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="41">
         <v>2</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>7.1352426900163248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="41">
         <v>2</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>6.9568616227659161</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="41">
         <v>2</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>6.5406391325149658</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="41">
         <v>2</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>5.4703527290125162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="41">
         <v>2</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="41">
         <v>2</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>4.3406059697599311</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="41">
         <v>2</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="41">
         <v>2</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="41">
         <v>2</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="41">
         <v>2</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="41">
         <v>2</v>
       </c>
@@ -2081,7 +2079,7 @@
         <v>4.0433041910092511</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="41">
         <v>2</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>4.1622249025095224</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="41">
         <v>2</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>4.6973681042607476</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="41">
         <v>2</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>5.0541302387615632</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="41">
         <v>2</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>5.1730509502618363</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="41">
         <v>2</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>5.2325113060119719</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="41">
         <v>2</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>5.5298130847626519</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="41">
         <v>2</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>5.8271148635133327</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="41">
         <v>2</v>
       </c>
@@ -2169,7 +2167,7 @@
         <v>6.0649562865138771</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="41">
         <v>2</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>6.3622580652645571</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="41">
         <v>2</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>6.6000994882651014</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="41">
         <v>2</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="41">
         <v>2</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>6.7784805555155092</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="41">
         <v>3</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>6.7912677287951082</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="41">
         <v>3</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>6.671068299966878</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="41">
         <v>3</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>6.4907691567245287</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="41">
         <v>3</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>6.1301708702398336</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="41">
         <v>3</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="41">
         <v>3</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="41">
         <v>3</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="41">
         <v>3</v>
       </c>
@@ -2301,7 +2299,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="41">
         <v>3</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="41">
         <v>3</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>3.7862820080893083</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="41">
         <v>3</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>3.8463817225034247</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="41">
         <v>3</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>3.9665811513316567</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="41">
         <v>3</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>4.2069800089881202</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="41">
         <v>3</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>4.6276780098869326</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="41">
         <v>3</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>5.2887748684422089</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="41">
         <v>3</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>5.7695725837551368</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="41">
         <v>3</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>6.1902705846539483</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="41">
         <v>3</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>6.2503702990680647</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="41">
         <v>3</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>6.430669442310414</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="41">
         <v>3</v>
       </c>
@@ -2433,7 +2431,7 @@
         <v>6.6109685855527616</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="41">
         <v>3</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>6.8513674432092246</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="41">
         <v>3</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>7.151866015279805</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="41">
         <v>3</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="41">
         <v>3</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>7.392264872936269</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="41">
         <v>4</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="41">
         <v>4</v>
       </c>
@@ -2499,7 +2497,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="41">
         <v>4</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>11.011176990765936</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="41">
         <v>4</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>9.3374780881695134</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="41">
         <v>4</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>7.5756897696469636</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="41">
         <v>4</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="41">
         <v>4</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="41">
         <v>4</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>6.3424379466811773</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="41">
         <v>4</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>6.4305273626073056</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="41">
         <v>4</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>6.6067061944595613</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="41">
         <v>4</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>6.8709744422379435</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="41">
         <v>4</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>7.2233321059424531</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="41">
         <v>4</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>7.6637791855730901</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="41">
         <v>4</v>
       </c>
@@ -2631,7 +2629,7 @@
         <v>8.2804050970559828</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="41">
         <v>4</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>9.1612992563172586</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="41">
         <v>4</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>9.8660145837262778</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="41">
         <v>4</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>10.570729911135297</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="41">
         <v>4</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v>11.363534654470445</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="41">
         <v>4</v>
       </c>
@@ -2686,7 +2684,7 @@
         <v>11.89207115002721</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="41">
         <v>4</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>12.244428813731718</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="41">
         <v>4</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="41">
         <v>4</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>12.508697061510102</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="41">
         <v>4</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>12.420607645583972</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="41">
         <v>4</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>12.156339397805592</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="41">
         <v>5</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>11.873489788855293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="41">
         <v>5</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="41">
         <v>5</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>11.037328536119004</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="41">
         <v>5</v>
       </c>
@@ -2785,7 +2783,7 @@
         <v>9.9503189075618295</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="41">
         <v>5</v>
       </c>
@@ -2796,7 +2794,7 @@
         <v>9.2813899053727997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="41">
         <v>5</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>8.946925404278284</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="41">
         <v>5</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="41">
         <v>5</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>8.7796931537310261</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="41">
         <v>5</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>8.863309279004655</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="41">
         <v>5</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>9.1141576548255419</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="41">
         <v>5</v>
       </c>
@@ -2862,7 +2860,7 @@
         <v>9.4486221559200558</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="41">
         <v>5</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>9.6994705317409426</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="41">
         <v>5</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>9.7830866570145716</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="41">
         <v>5</v>
       </c>
@@ -2895,7 +2893,7 @@
         <v>10.033935032835458</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="41">
         <v>5</v>
       </c>
@@ -2906,7 +2904,7 @@
         <v>10.535631784477232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="41">
         <v>5</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>11.120944661392633</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="41">
         <v>5</v>
       </c>
@@ -2928,7 +2926,7 @@
         <v>11.706257538308035</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="41">
         <v>5</v>
       </c>
@@ -2939,7 +2937,7 @@
         <v>12.12433816467618</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="41">
         <v>5</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="41">
         <v>5</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>12.458802665770694</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="41">
         <v>5</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>12.542418791044323</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="41">
         <v>5</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="41">
         <v>5</v>
       </c>
@@ -2994,7 +2992,7 @@
         <v>12.291570415223436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="41">
         <v>5</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>12.375186540497065</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="41">
         <v>6</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="41">
         <v>6</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>14.508326803033196</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="41">
         <v>6</v>
       </c>
@@ -3038,7 +3036,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="41">
         <v>6</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>13.420202292805707</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="41">
         <v>6</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="41">
         <v>6</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="41">
         <v>6</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>12.452980505936829</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="41">
         <v>6</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>12.573883229295438</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="41">
         <v>6</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>12.936591399371267</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="41">
         <v>6</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>13.299299569447097</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="41">
         <v>6</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>13.662007739522924</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="41">
         <v>6</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>14.024715909598756</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="41">
         <v>6</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>14.145618632957365</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="41">
         <v>6</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>14.750132249750415</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="41">
         <v>6</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>15.112840419826245</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="41">
         <v>6</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>15.233743143184856</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="41">
         <v>6</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>15.475548589902077</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="41">
         <v>6</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>15.717354036619296</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="41">
         <v>6</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="41">
         <v>6</v>
       </c>
@@ -3225,7 +3223,7 @@
         <v>15.838256759977906</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="41">
         <v>6</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="41">
         <v>6</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="41">
         <v>6</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>16.080062206695125</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="41">
         <v>6</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>15.959159483336515</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="41">
         <v>7</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="41">
         <v>7</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>14.633294330372467</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="41">
         <v>7</v>
       </c>
@@ -3302,7 +3300,7 @@
         <v>14.391421696812589</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="41">
         <v>7</v>
       </c>
@@ -3313,7 +3311,7 @@
         <v>13.907676429692838</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="41">
         <v>7</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="41">
         <v>7</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>12.819249578673402</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="41">
         <v>7</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="41">
         <v>7</v>
       </c>
@@ -3357,7 +3355,7 @@
         <v>12.577376945113524</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="41">
         <v>7</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>12.94018589545334</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="41">
         <v>7</v>
       </c>
@@ -3379,7 +3377,7 @@
         <v>13.302994845793153</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="41">
         <v>7</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>13.7867401129129</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="41">
         <v>7</v>
       </c>
@@ -3401,7 +3399,7 @@
         <v>14.270485380032653</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="41">
         <v>7</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="41">
         <v>7</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>15.117039597492216</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="41">
         <v>7</v>
       </c>
@@ -3434,7 +3432,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="41">
         <v>7</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="41">
         <v>7</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="41">
         <v>7</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>14.754230647152404</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="41">
         <v>7</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>14.875166963932342</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="41">
         <v>7</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>14.996103280712278</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="41">
         <v>7</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="41">
         <v>7</v>
       </c>
@@ -3511,7 +3509,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="41">
         <v>7</v>
       </c>
@@ -3522,7 +3520,7 @@
         <v>15.358912231052093</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="41">
         <v>7</v>
       </c>
@@ -3533,7 +3531,7 @@
         <v>15.237975914272155</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="41">
         <v>8</v>
       </c>
@@ -3544,7 +3542,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="41">
         <v>8</v>
       </c>
@@ -3555,7 +3553,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="41">
         <v>8</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="41">
         <v>8</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="41">
         <v>8</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>13.670324779937822</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="41">
         <v>8</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="41">
         <v>8</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="41">
         <v>8</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>12.576698797542795</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="41">
         <v>8</v>
       </c>
@@ -3632,7 +3630,7 @@
         <v>12.986808540940929</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="41">
         <v>8</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>13.260215036539686</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="41">
         <v>8</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>13.533621532138444</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="41">
         <v>8</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>14.217137771135336</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="41">
         <v>8</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>14.627247514533469</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="41">
         <v>8</v>
       </c>
@@ -3687,7 +3685,7 @@
         <v>15.037357257931603</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="41">
         <v>8</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="41">
         <v>8</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="41">
         <v>8</v>
       </c>
@@ -3720,7 +3718,7 @@
         <v>15.174060505730983</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="41">
         <v>8</v>
       </c>
@@ -3731,7 +3729,7 @@
         <v>15.310763753530361</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="41">
         <v>8</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>15.447467001329738</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="41">
         <v>8</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="41">
         <v>8</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="41">
         <v>8</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>15.99427999252725</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="41">
         <v>8</v>
       </c>
@@ -3786,7 +3784,7 @@
         <v>15.857576744727872</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="41">
         <v>8</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>15.584170249129116</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="41">
         <v>9</v>
       </c>
@@ -3808,7 +3806,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="41">
         <v>9</v>
       </c>
@@ -3819,7 +3817,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="41">
         <v>9</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="41">
         <v>9</v>
       </c>
@@ -3841,7 +3839,7 @@
         <v>9.0671213072315311</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="41">
         <v>9</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="41">
         <v>9</v>
       </c>
@@ -3863,7 +3861,7 @@
         <v>7.6307456546007923</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="41">
         <v>9</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>7.3614252197325287</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="41">
         <v>9</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="41">
         <v>9</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>7.271651741443109</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="41">
         <v>9</v>
       </c>
@@ -3907,7 +3905,7 @@
         <v>7.5409721763113717</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="41">
         <v>9</v>
       </c>
@@ -3918,7 +3916,7 @@
         <v>7.8102926111796354</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="41">
         <v>9</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>8.1693865243373196</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="41">
         <v>9</v>
       </c>
@@ -3940,7 +3938,7 @@
         <v>8.6182539157844253</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="41">
         <v>9</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>8.9773478289421096</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="41">
         <v>9</v>
       </c>
@@ -3962,7 +3960,7 @@
         <v>9.2466682638103723</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="41">
         <v>9</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>9.3364417420997956</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="41">
         <v>9</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>9.6955356552574798</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="41">
         <v>9</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>9.9648560901257426</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="41">
         <v>9</v>
       </c>
@@ -4006,7 +4004,7 @@
         <v>10.054629568415162</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="41">
         <v>9</v>
       </c>
@@ -4017,7 +4015,7 @@
         <v>10.234176524994005</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="41">
         <v>9</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>10.413723481572847</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="41">
         <v>9</v>
       </c>
@@ -4039,7 +4037,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="41">
         <v>9</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="41">
         <v>9</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>10.503496959862268</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="41">
         <v>10</v>
       </c>
@@ -4072,7 +4070,7 @@
         <v>7.6863386701395395</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="41">
         <v>10</v>
       </c>
@@ -4083,7 +4081,7 @@
         <v>7.4688007832487973</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="41">
         <v>10</v>
       </c>
@@ -4094,7 +4092,7 @@
         <v>7.1062376384308941</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="41">
         <v>10</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>6.59864923568583</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="41">
         <v>10</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>5.5834724301957026</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="41">
         <v>10</v>
       </c>
@@ -4127,7 +4125,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="41">
         <v>10</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>4.0607072219605111</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="41">
         <v>10</v>
       </c>
@@ -4149,7 +4147,7 @@
         <v>3.9156819640333502</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="41">
         <v>10</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="41">
         <v>10</v>
       </c>
@@ -4171,7 +4169,7 @@
         <v>3.9881945929969311</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="41">
         <v>10</v>
       </c>
@@ -4182,7 +4180,7 @@
         <v>4.1332198509240916</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="41">
         <v>10</v>
       </c>
@@ -4193,7 +4191,7 @@
         <v>4.2782451088512525</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="41">
         <v>10</v>
       </c>
@@ -4204,7 +4202,7 @@
         <v>4.5682956247055753</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="41">
         <v>10</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>5.3659345433049612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="41">
         <v>10</v>
       </c>
@@ -4226,7 +4224,7 @@
         <v>5.8010103170864449</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="41">
         <v>10</v>
       </c>
@@ -4237,7 +4235,7 @@
         <v>6.0910608329407667</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="41">
         <v>10</v>
       </c>
@@ -4248,7 +4246,7 @@
         <v>6.1635734619043472</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="41">
         <v>10</v>
       </c>
@@ -4259,7 +4257,7 @@
         <v>6.4536239777586699</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="41">
         <v>10</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>6.8161871225765713</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="41">
         <v>10</v>
       </c>
@@ -4281,7 +4279,7 @@
         <v>7.251262896358055</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="41">
         <v>10</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>7.6138260411759591</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="41">
         <v>10</v>
       </c>
@@ -4303,7 +4301,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="41">
         <v>10</v>
       </c>
@@ -4314,7 +4312,7 @@
         <v>7.9038765570302809</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="41">
         <v>10</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>7.8313639280667005</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="41">
         <v>11</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>6.9330774804658635</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="41">
         <v>11</v>
       </c>
@@ -4347,7 +4345,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="41">
         <v>11</v>
       </c>
@@ -4358,7 +4356,7 @@
         <v>6.9984838717910138</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="41">
         <v>11</v>
       </c>
@@ -4369,7 +4367,7 @@
         <v>6.8022646978155654</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="41">
         <v>11</v>
       </c>
@@ -4380,7 +4378,7 @@
         <v>6.2136071758892166</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="41">
         <v>11</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>5.101698523361673</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="41">
         <v>11</v>
       </c>
@@ -4402,7 +4400,7 @@
         <v>4.4476346101101765</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="41">
         <v>11</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>4.0551962621592788</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="41">
         <v>11</v>
       </c>
@@ -4424,7 +4422,7 @@
         <v>3.8589770881838299</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="41">
         <v>11</v>
       </c>
@@ -4435,7 +4433,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="41">
         <v>11</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="41">
         <v>11</v>
       </c>
@@ -4457,7 +4455,7 @@
         <v>3.79357069685868</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="41">
         <v>11</v>
       </c>
@@ -4468,7 +4466,7 @@
         <v>3.9897898708341288</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="41">
         <v>11</v>
       </c>
@@ -4479,7 +4477,7 @@
         <v>4.5784473927604754</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="41">
         <v>11</v>
       </c>
@@ -4490,7 +4488,7 @@
         <v>4.7746665667359247</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="41">
         <v>11</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="41">
         <v>11</v>
       </c>
@@ -4512,7 +4510,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="41">
         <v>11</v>
       </c>
@@ -4523,7 +4521,7 @@
         <v>4.8400729580610751</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="41">
         <v>11</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>4.9708857407113731</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="41">
         <v>11</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>5.2979176973371223</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="41">
         <v>11</v>
       </c>
@@ -4556,7 +4554,7 @@
         <v>5.69035604528802</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="41">
         <v>11</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>6.0827943932389186</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="41">
         <v>11</v>
       </c>
@@ -4578,7 +4576,7 @@
         <v>6.4752327411898163</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="41">
         <v>11</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>6.7368583064904151</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="41">
         <v>12</v>
       </c>
@@ -4600,7 +4598,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="41">
         <v>12</v>
       </c>
@@ -4611,7 +4609,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="41">
         <v>12</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>7.6952762732443523</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="41">
         <v>12</v>
       </c>
@@ -4633,7 +4631,7 @@
         <v>7.5486995823254119</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="41">
         <v>12</v>
       </c>
@@ -4644,7 +4642,7 @@
         <v>7.0356811641091213</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="41">
         <v>12</v>
       </c>
@@ -4655,7 +4653,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="41">
         <v>12</v>
       </c>
@@ -4666,7 +4664,7 @@
         <v>5.4233375640007813</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="41">
         <v>12</v>
       </c>
@@ -4677,7 +4675,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="41">
         <v>12</v>
       </c>
@@ -4688,7 +4686,7 @@
         <v>4.8370308003250218</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="41">
         <v>12</v>
       </c>
@@ -4699,7 +4697,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="41">
         <v>12</v>
       </c>
@@ -4710,7 +4708,7 @@
         <v>4.6904541094060814</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="41">
         <v>12</v>
       </c>
@@ -4721,7 +4719,7 @@
         <v>4.763742454865552</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="41">
         <v>12</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>5.0568958367034309</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="41">
         <v>12</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>5.6432026003791913</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="41">
         <v>12</v>
       </c>
@@ -4754,7 +4752,7 @@
         <v>5.9363559822170719</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="41">
         <v>12</v>
       </c>
@@ -4765,7 +4763,7 @@
         <v>6.0096443276765408</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="41">
         <v>12</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>6.0829326731360105</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="41">
         <v>12</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>6.156221018595482</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="41">
         <v>12</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>6.3760860549738911</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="41">
         <v>12</v>
       </c>
@@ -4809,7 +4807,7 @@
         <v>6.6692394368117718</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="41">
         <v>12</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>6.9623928186496506</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="41">
         <v>12</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>7.2555462004875313</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="41">
         <v>12</v>
       </c>
@@ -4842,7 +4840,7 @@
         <v>7.4754112368659413</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="41">
         <v>12</v>
       </c>
@@ -4863,24 +4861,24 @@
   <dimension ref="A1:K309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4915,7 +4913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
         <v>150000000</v>
       </c>
@@ -4951,7 +4949,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4971,7 +4969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4991,7 +4989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5011,7 +5009,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5039,7 +5037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5069,7 +5067,7 @@
       </c>
       <c r="K8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5122,7 +5120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5167,7 +5165,7 @@
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5187,7 +5185,7 @@
       </c>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -5206,7 +5204,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11</v>
       </c>
@@ -5244,7 +5242,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5263,7 +5261,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>23</v>
       </c>
@@ -5275,7 +5273,7 @@
       </c>
       <c r="D21" s="40"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="41">
         <v>1</v>
       </c>
@@ -5287,7 +5285,7 @@
       </c>
       <c r="D22" s="43"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="41">
         <v>1</v>
       </c>
@@ -5299,7 +5297,7 @@
       </c>
       <c r="D23" s="43"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="41">
         <v>1</v>
       </c>
@@ -5311,7 +5309,7 @@
       </c>
       <c r="D24" s="43"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -5323,7 +5321,7 @@
       </c>
       <c r="D25" s="43"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="41">
         <v>1</v>
       </c>
@@ -5335,7 +5333,7 @@
       </c>
       <c r="D26" s="43"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="41">
         <v>1</v>
       </c>
@@ -5347,7 +5345,7 @@
       </c>
       <c r="D27" s="43"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="41">
         <v>1</v>
       </c>
@@ -5359,7 +5357,7 @@
       </c>
       <c r="D28" s="43"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="41">
         <v>1</v>
       </c>
@@ -5371,7 +5369,7 @@
       </c>
       <c r="D29" s="43"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="41">
         <v>1</v>
       </c>
@@ -5383,7 +5381,7 @@
       </c>
       <c r="D30" s="43"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="41">
         <v>1</v>
       </c>
@@ -5395,7 +5393,7 @@
       </c>
       <c r="D31" s="43"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="41">
         <v>1</v>
       </c>
@@ -5407,7 +5405,7 @@
       </c>
       <c r="D32" s="43"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="41">
         <v>1</v>
       </c>
@@ -5419,7 +5417,7 @@
       </c>
       <c r="D33" s="43"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="41">
         <v>1</v>
       </c>
@@ -5431,7 +5429,7 @@
       </c>
       <c r="D34" s="43"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="41">
         <v>1</v>
       </c>
@@ -5443,7 +5441,7 @@
       </c>
       <c r="D35" s="43"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="41">
         <v>1</v>
       </c>
@@ -5455,7 +5453,7 @@
       </c>
       <c r="D36" s="43"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="41">
         <v>1</v>
       </c>
@@ -5467,7 +5465,7 @@
       </c>
       <c r="D37" s="43"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="41">
         <v>1</v>
       </c>
@@ -5479,7 +5477,7 @@
       </c>
       <c r="D38" s="43"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="41">
         <v>1</v>
       </c>
@@ -5491,7 +5489,7 @@
       </c>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="41">
         <v>1</v>
       </c>
@@ -5503,7 +5501,7 @@
       </c>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="41">
         <v>1</v>
       </c>
@@ -5515,7 +5513,7 @@
       </c>
       <c r="D41" s="43"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="41">
         <v>1</v>
       </c>
@@ -5527,7 +5525,7 @@
       </c>
       <c r="D42" s="43"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="41">
         <v>1</v>
       </c>
@@ -5539,7 +5537,7 @@
       </c>
       <c r="D43" s="43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="41">
         <v>1</v>
       </c>
@@ -5551,7 +5549,7 @@
       </c>
       <c r="D44" s="43"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="41">
         <v>1</v>
       </c>
@@ -5563,7 +5561,7 @@
       </c>
       <c r="D45" s="43"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="41">
         <v>2</v>
       </c>
@@ -5575,7 +5573,7 @@
       </c>
       <c r="D46" s="43"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="41">
         <v>2</v>
       </c>
@@ -5587,7 +5585,7 @@
       </c>
       <c r="D47" s="43"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="41">
         <v>2</v>
       </c>
@@ -5599,7 +5597,7 @@
       </c>
       <c r="D48" s="43"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="41">
         <v>2</v>
       </c>
@@ -5611,7 +5609,7 @@
       </c>
       <c r="D49" s="43"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="41">
         <v>2</v>
       </c>
@@ -5623,7 +5621,7 @@
       </c>
       <c r="D50" s="43"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="41">
         <v>2</v>
       </c>
@@ -5635,7 +5633,7 @@
       </c>
       <c r="D51" s="43"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="41">
         <v>2</v>
       </c>
@@ -5647,7 +5645,7 @@
       </c>
       <c r="D52" s="43"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="41">
         <v>2</v>
       </c>
@@ -5659,7 +5657,7 @@
       </c>
       <c r="D53" s="43"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="41">
         <v>2</v>
       </c>
@@ -5671,7 +5669,7 @@
       </c>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="41">
         <v>2</v>
       </c>
@@ -5683,7 +5681,7 @@
       </c>
       <c r="D55" s="43"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="41">
         <v>2</v>
       </c>
@@ -5695,7 +5693,7 @@
       </c>
       <c r="D56" s="43"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="41">
         <v>2</v>
       </c>
@@ -5707,7 +5705,7 @@
       </c>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="41">
         <v>2</v>
       </c>
@@ -5719,7 +5717,7 @@
       </c>
       <c r="D58" s="43"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="41">
         <v>2</v>
       </c>
@@ -5731,7 +5729,7 @@
       </c>
       <c r="D59" s="43"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="41">
         <v>2</v>
       </c>
@@ -5743,7 +5741,7 @@
       </c>
       <c r="D60" s="43"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="41">
         <v>2</v>
       </c>
@@ -5755,7 +5753,7 @@
       </c>
       <c r="D61" s="43"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="41">
         <v>2</v>
       </c>
@@ -5767,7 +5765,7 @@
       </c>
       <c r="D62" s="43"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="41">
         <v>2</v>
       </c>
@@ -5779,7 +5777,7 @@
       </c>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="41">
         <v>2</v>
       </c>
@@ -5791,7 +5789,7 @@
       </c>
       <c r="D64" s="43"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="41">
         <v>2</v>
       </c>
@@ -5803,7 +5801,7 @@
       </c>
       <c r="D65" s="43"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="41">
         <v>2</v>
       </c>
@@ -5815,7 +5813,7 @@
       </c>
       <c r="D66" s="43"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="41">
         <v>2</v>
       </c>
@@ -5827,7 +5825,7 @@
       </c>
       <c r="D67" s="43"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="41">
         <v>2</v>
       </c>
@@ -5839,7 +5837,7 @@
       </c>
       <c r="D68" s="43"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="41">
         <v>2</v>
       </c>
@@ -5851,7 +5849,7 @@
       </c>
       <c r="D69" s="43"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="41">
         <v>3</v>
       </c>
@@ -5863,7 +5861,7 @@
       </c>
       <c r="D70" s="43"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="41">
         <v>3</v>
       </c>
@@ -5875,7 +5873,7 @@
       </c>
       <c r="D71" s="43"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="41">
         <v>3</v>
       </c>
@@ -5887,7 +5885,7 @@
       </c>
       <c r="D72" s="43"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="41">
         <v>3</v>
       </c>
@@ -5899,7 +5897,7 @@
       </c>
       <c r="D73" s="43"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="41">
         <v>3</v>
       </c>
@@ -5911,7 +5909,7 @@
       </c>
       <c r="D74" s="43"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="41">
         <v>3</v>
       </c>
@@ -5923,7 +5921,7 @@
       </c>
       <c r="D75" s="43"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="41">
         <v>3</v>
       </c>
@@ -5935,7 +5933,7 @@
       </c>
       <c r="D76" s="43"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="41">
         <v>3</v>
       </c>
@@ -5947,7 +5945,7 @@
       </c>
       <c r="D77" s="43"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="41">
         <v>3</v>
       </c>
@@ -5959,7 +5957,7 @@
       </c>
       <c r="D78" s="43"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="41">
         <v>3</v>
       </c>
@@ -5971,7 +5969,7 @@
       </c>
       <c r="D79" s="43"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="41">
         <v>3</v>
       </c>
@@ -5983,7 +5981,7 @@
       </c>
       <c r="D80" s="43"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="41">
         <v>3</v>
       </c>
@@ -5995,7 +5993,7 @@
       </c>
       <c r="D81" s="43"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="41">
         <v>3</v>
       </c>
@@ -6007,7 +6005,7 @@
       </c>
       <c r="D82" s="43"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="41">
         <v>3</v>
       </c>
@@ -6019,7 +6017,7 @@
       </c>
       <c r="D83" s="43"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="41">
         <v>3</v>
       </c>
@@ -6031,7 +6029,7 @@
       </c>
       <c r="D84" s="43"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="41">
         <v>3</v>
       </c>
@@ -6043,7 +6041,7 @@
       </c>
       <c r="D85" s="43"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="41">
         <v>3</v>
       </c>
@@ -6055,7 +6053,7 @@
       </c>
       <c r="D86" s="43"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="41">
         <v>3</v>
       </c>
@@ -6067,7 +6065,7 @@
       </c>
       <c r="D87" s="43"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="41">
         <v>3</v>
       </c>
@@ -6079,7 +6077,7 @@
       </c>
       <c r="D88" s="43"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="41">
         <v>3</v>
       </c>
@@ -6091,7 +6089,7 @@
       </c>
       <c r="D89" s="43"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="41">
         <v>3</v>
       </c>
@@ -6103,7 +6101,7 @@
       </c>
       <c r="D90" s="43"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="41">
         <v>3</v>
       </c>
@@ -6115,7 +6113,7 @@
       </c>
       <c r="D91" s="43"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="41">
         <v>3</v>
       </c>
@@ -6127,7 +6125,7 @@
       </c>
       <c r="D92" s="43"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="41">
         <v>3</v>
       </c>
@@ -6139,7 +6137,7 @@
       </c>
       <c r="D93" s="43"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="41">
         <v>4</v>
       </c>
@@ -6151,7 +6149,7 @@
       </c>
       <c r="D94" s="43"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="41">
         <v>4</v>
       </c>
@@ -6163,7 +6161,7 @@
       </c>
       <c r="D95" s="43"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="41">
         <v>4</v>
       </c>
@@ -6175,7 +6173,7 @@
       </c>
       <c r="D96" s="43"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="41">
         <v>4</v>
       </c>
@@ -6187,7 +6185,7 @@
       </c>
       <c r="D97" s="43"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="41">
         <v>4</v>
       </c>
@@ -6199,7 +6197,7 @@
       </c>
       <c r="D98" s="43"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="41">
         <v>4</v>
       </c>
@@ -6211,7 +6209,7 @@
       </c>
       <c r="D99" s="43"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="41">
         <v>4</v>
       </c>
@@ -6223,7 +6221,7 @@
       </c>
       <c r="D100" s="43"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="41">
         <v>4</v>
       </c>
@@ -6235,7 +6233,7 @@
       </c>
       <c r="D101" s="43"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="41">
         <v>4</v>
       </c>
@@ -6247,7 +6245,7 @@
       </c>
       <c r="D102" s="43"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="41">
         <v>4</v>
       </c>
@@ -6259,7 +6257,7 @@
       </c>
       <c r="D103" s="43"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="41">
         <v>4</v>
       </c>
@@ -6271,7 +6269,7 @@
       </c>
       <c r="D104" s="43"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="41">
         <v>4</v>
       </c>
@@ -6283,7 +6281,7 @@
       </c>
       <c r="D105" s="43"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="41">
         <v>4</v>
       </c>
@@ -6295,7 +6293,7 @@
       </c>
       <c r="D106" s="43"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="41">
         <v>4</v>
       </c>
@@ -6307,7 +6305,7 @@
       </c>
       <c r="D107" s="43"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="41">
         <v>4</v>
       </c>
@@ -6319,7 +6317,7 @@
       </c>
       <c r="D108" s="43"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="41">
         <v>4</v>
       </c>
@@ -6331,7 +6329,7 @@
       </c>
       <c r="D109" s="43"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="41">
         <v>4</v>
       </c>
@@ -6343,7 +6341,7 @@
       </c>
       <c r="D110" s="43"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="41">
         <v>4</v>
       </c>
@@ -6355,7 +6353,7 @@
       </c>
       <c r="D111" s="43"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="41">
         <v>4</v>
       </c>
@@ -6367,7 +6365,7 @@
       </c>
       <c r="D112" s="43"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="41">
         <v>4</v>
       </c>
@@ -6379,7 +6377,7 @@
       </c>
       <c r="D113" s="43"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="41">
         <v>4</v>
       </c>
@@ -6391,7 +6389,7 @@
       </c>
       <c r="D114" s="43"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="41">
         <v>4</v>
       </c>
@@ -6403,7 +6401,7 @@
       </c>
       <c r="D115" s="43"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="41">
         <v>4</v>
       </c>
@@ -6415,7 +6413,7 @@
       </c>
       <c r="D116" s="43"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="41">
         <v>4</v>
       </c>
@@ -6427,7 +6425,7 @@
       </c>
       <c r="D117" s="43"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="41">
         <v>5</v>
       </c>
@@ -6439,7 +6437,7 @@
       </c>
       <c r="D118" s="43"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="41">
         <v>5</v>
       </c>
@@ -6451,7 +6449,7 @@
       </c>
       <c r="D119" s="43"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="41">
         <v>5</v>
       </c>
@@ -6463,7 +6461,7 @@
       </c>
       <c r="D120" s="43"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="41">
         <v>5</v>
       </c>
@@ -6475,7 +6473,7 @@
       </c>
       <c r="D121" s="43"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="41">
         <v>5</v>
       </c>
@@ -6487,7 +6485,7 @@
       </c>
       <c r="D122" s="43"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="41">
         <v>5</v>
       </c>
@@ -6499,7 +6497,7 @@
       </c>
       <c r="D123" s="43"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="41">
         <v>5</v>
       </c>
@@ -6511,7 +6509,7 @@
       </c>
       <c r="D124" s="43"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="41">
         <v>5</v>
       </c>
@@ -6523,7 +6521,7 @@
       </c>
       <c r="D125" s="43"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="41">
         <v>5</v>
       </c>
@@ -6535,7 +6533,7 @@
       </c>
       <c r="D126" s="43"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="41">
         <v>5</v>
       </c>
@@ -6547,7 +6545,7 @@
       </c>
       <c r="D127" s="43"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="41">
         <v>5</v>
       </c>
@@ -6559,7 +6557,7 @@
       </c>
       <c r="D128" s="43"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="41">
         <v>5</v>
       </c>
@@ -6571,7 +6569,7 @@
       </c>
       <c r="D129" s="43"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="41">
         <v>5</v>
       </c>
@@ -6583,7 +6581,7 @@
       </c>
       <c r="D130" s="43"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="41">
         <v>5</v>
       </c>
@@ -6595,7 +6593,7 @@
       </c>
       <c r="D131" s="43"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="41">
         <v>5</v>
       </c>
@@ -6607,7 +6605,7 @@
       </c>
       <c r="D132" s="43"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="41">
         <v>5</v>
       </c>
@@ -6619,7 +6617,7 @@
       </c>
       <c r="D133" s="43"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="41">
         <v>5</v>
       </c>
@@ -6631,7 +6629,7 @@
       </c>
       <c r="D134" s="43"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="41">
         <v>5</v>
       </c>
@@ -6643,7 +6641,7 @@
       </c>
       <c r="D135" s="43"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="41">
         <v>5</v>
       </c>
@@ -6655,7 +6653,7 @@
       </c>
       <c r="D136" s="43"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="41">
         <v>5</v>
       </c>
@@ -6667,7 +6665,7 @@
       </c>
       <c r="D137" s="43"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="41">
         <v>5</v>
       </c>
@@ -6679,7 +6677,7 @@
       </c>
       <c r="D138" s="43"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="41">
         <v>5</v>
       </c>
@@ -6691,7 +6689,7 @@
       </c>
       <c r="D139" s="43"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="41">
         <v>5</v>
       </c>
@@ -6703,7 +6701,7 @@
       </c>
       <c r="D140" s="43"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="41">
         <v>5</v>
       </c>
@@ -6715,7 +6713,7 @@
       </c>
       <c r="D141" s="43"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="41">
         <v>6</v>
       </c>
@@ -6727,7 +6725,7 @@
       </c>
       <c r="D142" s="43"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="41">
         <v>6</v>
       </c>
@@ -6739,7 +6737,7 @@
       </c>
       <c r="D143" s="43"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="41">
         <v>6</v>
       </c>
@@ -6751,7 +6749,7 @@
       </c>
       <c r="D144" s="43"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="41">
         <v>6</v>
       </c>
@@ -6763,7 +6761,7 @@
       </c>
       <c r="D145" s="43"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="41">
         <v>6</v>
       </c>
@@ -6775,7 +6773,7 @@
       </c>
       <c r="D146" s="43"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="41">
         <v>6</v>
       </c>
@@ -6787,7 +6785,7 @@
       </c>
       <c r="D147" s="43"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="41">
         <v>6</v>
       </c>
@@ -6799,7 +6797,7 @@
       </c>
       <c r="D148" s="43"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="41">
         <v>6</v>
       </c>
@@ -6811,7 +6809,7 @@
       </c>
       <c r="D149" s="43"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="41">
         <v>6</v>
       </c>
@@ -6823,7 +6821,7 @@
       </c>
       <c r="D150" s="43"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="41">
         <v>6</v>
       </c>
@@ -6835,7 +6833,7 @@
       </c>
       <c r="D151" s="43"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="41">
         <v>6</v>
       </c>
@@ -6847,7 +6845,7 @@
       </c>
       <c r="D152" s="43"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="41">
         <v>6</v>
       </c>
@@ -6859,7 +6857,7 @@
       </c>
       <c r="D153" s="43"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="41">
         <v>6</v>
       </c>
@@ -6871,7 +6869,7 @@
       </c>
       <c r="D154" s="43"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="41">
         <v>6</v>
       </c>
@@ -6883,7 +6881,7 @@
       </c>
       <c r="D155" s="43"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="41">
         <v>6</v>
       </c>
@@ -6895,7 +6893,7 @@
       </c>
       <c r="D156" s="43"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="41">
         <v>6</v>
       </c>
@@ -6907,7 +6905,7 @@
       </c>
       <c r="D157" s="43"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="41">
         <v>6</v>
       </c>
@@ -6919,7 +6917,7 @@
       </c>
       <c r="D158" s="43"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="41">
         <v>6</v>
       </c>
@@ -6931,7 +6929,7 @@
       </c>
       <c r="D159" s="43"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="41">
         <v>6</v>
       </c>
@@ -6943,7 +6941,7 @@
       </c>
       <c r="D160" s="43"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="41">
         <v>6</v>
       </c>
@@ -6955,7 +6953,7 @@
       </c>
       <c r="D161" s="43"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="41">
         <v>6</v>
       </c>
@@ -6967,7 +6965,7 @@
       </c>
       <c r="D162" s="43"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="41">
         <v>6</v>
       </c>
@@ -6979,7 +6977,7 @@
       </c>
       <c r="D163" s="43"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="41">
         <v>6</v>
       </c>
@@ -6991,7 +6989,7 @@
       </c>
       <c r="D164" s="43"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="41">
         <v>6</v>
       </c>
@@ -7003,7 +7001,7 @@
       </c>
       <c r="D165" s="43"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="41">
         <v>7</v>
       </c>
@@ -7015,7 +7013,7 @@
       </c>
       <c r="D166" s="43"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="41">
         <v>7</v>
       </c>
@@ -7027,7 +7025,7 @@
       </c>
       <c r="D167" s="43"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="41">
         <v>7</v>
       </c>
@@ -7039,7 +7037,7 @@
       </c>
       <c r="D168" s="43"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="41">
         <v>7</v>
       </c>
@@ -7051,7 +7049,7 @@
       </c>
       <c r="D169" s="43"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="41">
         <v>7</v>
       </c>
@@ -7063,7 +7061,7 @@
       </c>
       <c r="D170" s="43"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="41">
         <v>7</v>
       </c>
@@ -7075,7 +7073,7 @@
       </c>
       <c r="D171" s="43"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="41">
         <v>7</v>
       </c>
@@ -7087,7 +7085,7 @@
       </c>
       <c r="D172" s="43"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="41">
         <v>7</v>
       </c>
@@ -7099,7 +7097,7 @@
       </c>
       <c r="D173" s="43"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="41">
         <v>7</v>
       </c>
@@ -7111,7 +7109,7 @@
       </c>
       <c r="D174" s="43"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="41">
         <v>7</v>
       </c>
@@ -7123,7 +7121,7 @@
       </c>
       <c r="D175" s="43"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="41">
         <v>7</v>
       </c>
@@ -7135,7 +7133,7 @@
       </c>
       <c r="D176" s="43"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="41">
         <v>7</v>
       </c>
@@ -7147,7 +7145,7 @@
       </c>
       <c r="D177" s="43"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="41">
         <v>7</v>
       </c>
@@ -7159,7 +7157,7 @@
       </c>
       <c r="D178" s="43"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="41">
         <v>7</v>
       </c>
@@ -7171,7 +7169,7 @@
       </c>
       <c r="D179" s="43"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="41">
         <v>7</v>
       </c>
@@ -7183,7 +7181,7 @@
       </c>
       <c r="D180" s="43"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="41">
         <v>7</v>
       </c>
@@ -7195,7 +7193,7 @@
       </c>
       <c r="D181" s="43"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="41">
         <v>7</v>
       </c>
@@ -7207,7 +7205,7 @@
       </c>
       <c r="D182" s="43"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="41">
         <v>7</v>
       </c>
@@ -7219,7 +7217,7 @@
       </c>
       <c r="D183" s="43"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="41">
         <v>7</v>
       </c>
@@ -7231,7 +7229,7 @@
       </c>
       <c r="D184" s="43"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="41">
         <v>7</v>
       </c>
@@ -7243,7 +7241,7 @@
       </c>
       <c r="D185" s="43"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="41">
         <v>7</v>
       </c>
@@ -7255,7 +7253,7 @@
       </c>
       <c r="D186" s="43"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="41">
         <v>7</v>
       </c>
@@ -7267,7 +7265,7 @@
       </c>
       <c r="D187" s="43"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="41">
         <v>7</v>
       </c>
@@ -7279,7 +7277,7 @@
       </c>
       <c r="D188" s="43"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="41">
         <v>7</v>
       </c>
@@ -7291,7 +7289,7 @@
       </c>
       <c r="D189" s="43"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="41">
         <v>8</v>
       </c>
@@ -7303,7 +7301,7 @@
       </c>
       <c r="D190" s="43"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="41">
         <v>8</v>
       </c>
@@ -7315,7 +7313,7 @@
       </c>
       <c r="D191" s="43"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="41">
         <v>8</v>
       </c>
@@ -7327,7 +7325,7 @@
       </c>
       <c r="D192" s="43"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="41">
         <v>8</v>
       </c>
@@ -7339,7 +7337,7 @@
       </c>
       <c r="D193" s="43"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="41">
         <v>8</v>
       </c>
@@ -7351,7 +7349,7 @@
       </c>
       <c r="D194" s="43"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="41">
         <v>8</v>
       </c>
@@ -7363,7 +7361,7 @@
       </c>
       <c r="D195" s="43"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="41">
         <v>8</v>
       </c>
@@ -7375,7 +7373,7 @@
       </c>
       <c r="D196" s="43"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="41">
         <v>8</v>
       </c>
@@ -7387,7 +7385,7 @@
       </c>
       <c r="D197" s="43"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="41">
         <v>8</v>
       </c>
@@ -7399,7 +7397,7 @@
       </c>
       <c r="D198" s="43"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="41">
         <v>8</v>
       </c>
@@ -7411,7 +7409,7 @@
       </c>
       <c r="D199" s="43"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="41">
         <v>8</v>
       </c>
@@ -7423,7 +7421,7 @@
       </c>
       <c r="D200" s="43"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="41">
         <v>8</v>
       </c>
@@ -7435,7 +7433,7 @@
       </c>
       <c r="D201" s="43"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="41">
         <v>8</v>
       </c>
@@ -7447,7 +7445,7 @@
       </c>
       <c r="D202" s="43"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="41">
         <v>8</v>
       </c>
@@ -7459,7 +7457,7 @@
       </c>
       <c r="D203" s="43"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="41">
         <v>8</v>
       </c>
@@ -7471,7 +7469,7 @@
       </c>
       <c r="D204" s="43"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="41">
         <v>8</v>
       </c>
@@ -7483,7 +7481,7 @@
       </c>
       <c r="D205" s="43"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="41">
         <v>8</v>
       </c>
@@ -7495,7 +7493,7 @@
       </c>
       <c r="D206" s="43"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="41">
         <v>8</v>
       </c>
@@ -7507,7 +7505,7 @@
       </c>
       <c r="D207" s="43"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="41">
         <v>8</v>
       </c>
@@ -7519,7 +7517,7 @@
       </c>
       <c r="D208" s="43"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="41">
         <v>8</v>
       </c>
@@ -7531,7 +7529,7 @@
       </c>
       <c r="D209" s="43"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="41">
         <v>8</v>
       </c>
@@ -7543,7 +7541,7 @@
       </c>
       <c r="D210" s="43"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="41">
         <v>8</v>
       </c>
@@ -7555,7 +7553,7 @@
       </c>
       <c r="D211" s="43"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="41">
         <v>8</v>
       </c>
@@ -7567,7 +7565,7 @@
       </c>
       <c r="D212" s="43"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="41">
         <v>8</v>
       </c>
@@ -7579,7 +7577,7 @@
       </c>
       <c r="D213" s="43"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="41">
         <v>9</v>
       </c>
@@ -7591,7 +7589,7 @@
       </c>
       <c r="D214" s="43"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="41">
         <v>9</v>
       </c>
@@ -7603,7 +7601,7 @@
       </c>
       <c r="D215" s="43"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="41">
         <v>9</v>
       </c>
@@ -7615,7 +7613,7 @@
       </c>
       <c r="D216" s="43"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="41">
         <v>9</v>
       </c>
@@ -7627,7 +7625,7 @@
       </c>
       <c r="D217" s="43"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="41">
         <v>9</v>
       </c>
@@ -7639,7 +7637,7 @@
       </c>
       <c r="D218" s="43"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="41">
         <v>9</v>
       </c>
@@ -7651,7 +7649,7 @@
       </c>
       <c r="D219" s="43"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="41">
         <v>9</v>
       </c>
@@ -7663,7 +7661,7 @@
       </c>
       <c r="D220" s="43"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="41">
         <v>9</v>
       </c>
@@ -7675,7 +7673,7 @@
       </c>
       <c r="D221" s="43"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="41">
         <v>9</v>
       </c>
@@ -7687,7 +7685,7 @@
       </c>
       <c r="D222" s="43"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="41">
         <v>9</v>
       </c>
@@ -7699,7 +7697,7 @@
       </c>
       <c r="D223" s="43"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="41">
         <v>9</v>
       </c>
@@ -7711,7 +7709,7 @@
       </c>
       <c r="D224" s="43"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="41">
         <v>9</v>
       </c>
@@ -7723,7 +7721,7 @@
       </c>
       <c r="D225" s="43"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="41">
         <v>9</v>
       </c>
@@ -7735,7 +7733,7 @@
       </c>
       <c r="D226" s="43"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="41">
         <v>9</v>
       </c>
@@ -7747,7 +7745,7 @@
       </c>
       <c r="D227" s="43"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="41">
         <v>9</v>
       </c>
@@ -7759,7 +7757,7 @@
       </c>
       <c r="D228" s="43"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="41">
         <v>9</v>
       </c>
@@ -7771,7 +7769,7 @@
       </c>
       <c r="D229" s="43"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="41">
         <v>9</v>
       </c>
@@ -7783,7 +7781,7 @@
       </c>
       <c r="D230" s="43"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="41">
         <v>9</v>
       </c>
@@ -7795,7 +7793,7 @@
       </c>
       <c r="D231" s="43"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="41">
         <v>9</v>
       </c>
@@ -7807,7 +7805,7 @@
       </c>
       <c r="D232" s="43"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="41">
         <v>9</v>
       </c>
@@ -7819,7 +7817,7 @@
       </c>
       <c r="D233" s="43"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="41">
         <v>9</v>
       </c>
@@ -7831,7 +7829,7 @@
       </c>
       <c r="D234" s="43"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="41">
         <v>9</v>
       </c>
@@ -7843,7 +7841,7 @@
       </c>
       <c r="D235" s="43"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="41">
         <v>9</v>
       </c>
@@ -7855,7 +7853,7 @@
       </c>
       <c r="D236" s="43"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="41">
         <v>9</v>
       </c>
@@ -7867,7 +7865,7 @@
       </c>
       <c r="D237" s="43"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="41">
         <v>10</v>
       </c>
@@ -7879,7 +7877,7 @@
       </c>
       <c r="D238" s="43"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="41">
         <v>10</v>
       </c>
@@ -7891,7 +7889,7 @@
       </c>
       <c r="D239" s="43"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="41">
         <v>10</v>
       </c>
@@ -7903,7 +7901,7 @@
       </c>
       <c r="D240" s="43"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="41">
         <v>10</v>
       </c>
@@ -7915,7 +7913,7 @@
       </c>
       <c r="D241" s="43"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="41">
         <v>10</v>
       </c>
@@ -7927,7 +7925,7 @@
       </c>
       <c r="D242" s="43"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="41">
         <v>10</v>
       </c>
@@ -7939,7 +7937,7 @@
       </c>
       <c r="D243" s="43"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="41">
         <v>10</v>
       </c>
@@ -7951,7 +7949,7 @@
       </c>
       <c r="D244" s="43"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="41">
         <v>10</v>
       </c>
@@ -7963,7 +7961,7 @@
       </c>
       <c r="D245" s="43"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="41">
         <v>10</v>
       </c>
@@ -7975,7 +7973,7 @@
       </c>
       <c r="D246" s="43"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="41">
         <v>10</v>
       </c>
@@ -7987,7 +7985,7 @@
       </c>
       <c r="D247" s="43"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="41">
         <v>10</v>
       </c>
@@ -7999,7 +7997,7 @@
       </c>
       <c r="D248" s="43"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="41">
         <v>10</v>
       </c>
@@ -8011,7 +8009,7 @@
       </c>
       <c r="D249" s="43"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="41">
         <v>10</v>
       </c>
@@ -8023,7 +8021,7 @@
       </c>
       <c r="D250" s="43"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="41">
         <v>10</v>
       </c>
@@ -8035,7 +8033,7 @@
       </c>
       <c r="D251" s="43"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="41">
         <v>10</v>
       </c>
@@ -8047,7 +8045,7 @@
       </c>
       <c r="D252" s="43"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="41">
         <v>10</v>
       </c>
@@ -8059,7 +8057,7 @@
       </c>
       <c r="D253" s="43"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="41">
         <v>10</v>
       </c>
@@ -8071,7 +8069,7 @@
       </c>
       <c r="D254" s="43"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="41">
         <v>10</v>
       </c>
@@ -8083,7 +8081,7 @@
       </c>
       <c r="D255" s="43"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="41">
         <v>10</v>
       </c>
@@ -8095,7 +8093,7 @@
       </c>
       <c r="D256" s="43"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="41">
         <v>10</v>
       </c>
@@ -8107,7 +8105,7 @@
       </c>
       <c r="D257" s="43"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="41">
         <v>10</v>
       </c>
@@ -8119,7 +8117,7 @@
       </c>
       <c r="D258" s="43"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="41">
         <v>10</v>
       </c>
@@ -8131,7 +8129,7 @@
       </c>
       <c r="D259" s="43"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="41">
         <v>10</v>
       </c>
@@ -8143,7 +8141,7 @@
       </c>
       <c r="D260" s="43"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="41">
         <v>10</v>
       </c>
@@ -8155,7 +8153,7 @@
       </c>
       <c r="D261" s="43"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="41">
         <v>11</v>
       </c>
@@ -8167,7 +8165,7 @@
       </c>
       <c r="D262" s="43"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="41">
         <v>11</v>
       </c>
@@ -8179,7 +8177,7 @@
       </c>
       <c r="D263" s="43"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="41">
         <v>11</v>
       </c>
@@ -8191,7 +8189,7 @@
       </c>
       <c r="D264" s="43"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="41">
         <v>11</v>
       </c>
@@ -8203,7 +8201,7 @@
       </c>
       <c r="D265" s="43"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="41">
         <v>11</v>
       </c>
@@ -8215,7 +8213,7 @@
       </c>
       <c r="D266" s="43"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="41">
         <v>11</v>
       </c>
@@ -8227,7 +8225,7 @@
       </c>
       <c r="D267" s="43"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="41">
         <v>11</v>
       </c>
@@ -8239,7 +8237,7 @@
       </c>
       <c r="D268" s="43"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="41">
         <v>11</v>
       </c>
@@ -8251,7 +8249,7 @@
       </c>
       <c r="D269" s="43"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="41">
         <v>11</v>
       </c>
@@ -8263,7 +8261,7 @@
       </c>
       <c r="D270" s="43"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="41">
         <v>11</v>
       </c>
@@ -8275,7 +8273,7 @@
       </c>
       <c r="D271" s="43"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="41">
         <v>11</v>
       </c>
@@ -8287,7 +8285,7 @@
       </c>
       <c r="D272" s="43"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="41">
         <v>11</v>
       </c>
@@ -8299,7 +8297,7 @@
       </c>
       <c r="D273" s="43"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="41">
         <v>11</v>
       </c>
@@ -8311,7 +8309,7 @@
       </c>
       <c r="D274" s="43"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="41">
         <v>11</v>
       </c>
@@ -8323,7 +8321,7 @@
       </c>
       <c r="D275" s="43"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="41">
         <v>11</v>
       </c>
@@ -8335,7 +8333,7 @@
       </c>
       <c r="D276" s="43"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="41">
         <v>11</v>
       </c>
@@ -8347,7 +8345,7 @@
       </c>
       <c r="D277" s="43"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="41">
         <v>11</v>
       </c>
@@ -8359,7 +8357,7 @@
       </c>
       <c r="D278" s="43"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="41">
         <v>11</v>
       </c>
@@ -8371,7 +8369,7 @@
       </c>
       <c r="D279" s="43"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="41">
         <v>11</v>
       </c>
@@ -8383,7 +8381,7 @@
       </c>
       <c r="D280" s="43"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="41">
         <v>11</v>
       </c>
@@ -8395,7 +8393,7 @@
       </c>
       <c r="D281" s="43"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="41">
         <v>11</v>
       </c>
@@ -8407,7 +8405,7 @@
       </c>
       <c r="D282" s="43"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="41">
         <v>11</v>
       </c>
@@ -8419,7 +8417,7 @@
       </c>
       <c r="D283" s="43"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="41">
         <v>11</v>
       </c>
@@ -8431,7 +8429,7 @@
       </c>
       <c r="D284" s="43"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="41">
         <v>11</v>
       </c>
@@ -8443,7 +8441,7 @@
       </c>
       <c r="D285" s="43"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="41">
         <v>12</v>
       </c>
@@ -8455,7 +8453,7 @@
       </c>
       <c r="D286" s="43"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="41">
         <v>12</v>
       </c>
@@ -8467,7 +8465,7 @@
       </c>
       <c r="D287" s="43"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="41">
         <v>12</v>
       </c>
@@ -8479,7 +8477,7 @@
       </c>
       <c r="D288" s="43"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="41">
         <v>12</v>
       </c>
@@ -8491,7 +8489,7 @@
       </c>
       <c r="D289" s="43"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="41">
         <v>12</v>
       </c>
@@ -8503,7 +8501,7 @@
       </c>
       <c r="D290" s="43"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="41">
         <v>12</v>
       </c>
@@ -8515,7 +8513,7 @@
       </c>
       <c r="D291" s="43"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="41">
         <v>12</v>
       </c>
@@ -8527,7 +8525,7 @@
       </c>
       <c r="D292" s="43"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="41">
         <v>12</v>
       </c>
@@ -8539,7 +8537,7 @@
       </c>
       <c r="D293" s="43"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="41">
         <v>12</v>
       </c>
@@ -8551,7 +8549,7 @@
       </c>
       <c r="D294" s="43"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="41">
         <v>12</v>
       </c>
@@ -8563,7 +8561,7 @@
       </c>
       <c r="D295" s="43"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="41">
         <v>12</v>
       </c>
@@ -8575,7 +8573,7 @@
       </c>
       <c r="D296" s="43"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="41">
         <v>12</v>
       </c>
@@ -8587,7 +8585,7 @@
       </c>
       <c r="D297" s="43"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="41">
         <v>12</v>
       </c>
@@ -8599,7 +8597,7 @@
       </c>
       <c r="D298" s="43"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="41">
         <v>12</v>
       </c>
@@ -8611,7 +8609,7 @@
       </c>
       <c r="D299" s="43"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="41">
         <v>12</v>
       </c>
@@ -8623,7 +8621,7 @@
       </c>
       <c r="D300" s="43"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="41">
         <v>12</v>
       </c>
@@ -8635,7 +8633,7 @@
       </c>
       <c r="D301" s="43"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="41">
         <v>12</v>
       </c>
@@ -8647,7 +8645,7 @@
       </c>
       <c r="D302" s="43"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="41">
         <v>12</v>
       </c>
@@ -8659,7 +8657,7 @@
       </c>
       <c r="D303" s="43"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="41">
         <v>12</v>
       </c>
@@ -8671,7 +8669,7 @@
       </c>
       <c r="D304" s="43"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="41">
         <v>12</v>
       </c>
@@ -8683,7 +8681,7 @@
       </c>
       <c r="D305" s="43"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="41">
         <v>12</v>
       </c>
@@ -8695,7 +8693,7 @@
       </c>
       <c r="D306" s="43"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="41">
         <v>12</v>
       </c>
@@ -8707,7 +8705,7 @@
       </c>
       <c r="D307" s="43"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="41">
         <v>12</v>
       </c>
@@ -8719,7 +8717,7 @@
       </c>
       <c r="D308" s="43"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="41">
         <v>12</v>
       </c>
@@ -8741,18 +8739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="12.85546875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="12.81640625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -8787,7 +8785,7 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
         <v>2000000</v>
       </c>
@@ -8795,15 +8793,13 @@
         <v>5762000</v>
       </c>
       <c r="C2" s="86">
-        <v>460000</v>
+        <v>4077788.66</v>
       </c>
       <c r="D2" s="86">
-        <f>45.79*1000</f>
-        <v>45790</v>
+        <v>29390</v>
       </c>
       <c r="E2" s="86">
-        <f>51.59*1000</f>
-        <v>51590</v>
+        <v>37830</v>
       </c>
       <c r="F2" s="10">
         <v>40</v>
@@ -8821,7 +8817,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="85" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="85" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="83" t="s">
         <v>58</v>
       </c>
@@ -8859,7 +8855,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -8873,7 +8869,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -8887,7 +8883,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8902,7 +8898,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -8916,7 +8912,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -8931,7 +8927,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -8946,7 +8942,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -8960,7 +8956,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
@@ -8990,7 +8986,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="15"/>
       <c r="C13" s="17"/>
@@ -9008,7 +9004,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
@@ -9026,7 +9022,7 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="17"/>
@@ -9044,7 +9040,7 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="15"/>
       <c r="C16" s="17"/>
@@ -9062,7 +9058,7 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="15"/>
       <c r="C17" s="17"/>
@@ -9080,7 +9076,7 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="17"/>
@@ -9098,7 +9094,7 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="15"/>
       <c r="C19" s="17"/>
@@ -9116,7 +9112,7 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
@@ -9134,7 +9130,7 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="15"/>
       <c r="C21" s="17"/>
@@ -9152,7 +9148,7 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
@@ -9170,7 +9166,7 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
@@ -9188,7 +9184,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="15"/>
       <c r="C24" s="17"/>
@@ -9206,7 +9202,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="15"/>
       <c r="C25" s="17"/>
@@ -9224,7 +9220,7 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="15"/>
       <c r="C26" s="17"/>
@@ -9242,7 +9238,7 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
@@ -9260,7 +9256,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="15"/>
       <c r="C28" s="17"/>
@@ -9278,7 +9274,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="15"/>
       <c r="C29" s="17"/>
@@ -9296,7 +9292,7 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="15"/>
       <c r="C30" s="17"/>
@@ -9314,7 +9310,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="15"/>
       <c r="C31" s="17"/>
@@ -9332,7 +9328,7 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="15"/>
       <c r="C32" s="17"/>
@@ -9350,7 +9346,7 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -9368,7 +9364,7 @@
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -9386,7 +9382,7 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -9404,7 +9400,7 @@
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -9432,22 +9428,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -9469,29 +9465,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="57">
-        <v>200000</v>
+        <v>7227000</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="57">
-        <v>30000</v>
+        <v>25410</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
         <v>18</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -9513,7 +9509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
@@ -9521,7 +9517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
@@ -9535,7 +9531,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
@@ -9562,30 +9558,30 @@
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
-    <col min="13" max="13" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1796875" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" customWidth="1"/>
+    <col min="9" max="9" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.453125" customWidth="1"/>
+    <col min="13" max="13" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.453125" customWidth="1"/>
+    <col min="17" max="17" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>73</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>78</v>
       </c>
@@ -9652,7 +9648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -9703,7 +9699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
@@ -9750,7 +9746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>86</v>
       </c>
@@ -9797,7 +9793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="64" t="s">
         <v>88</v>
       </c>
@@ -9891,7 +9887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
@@ -9923,7 +9919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>50</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>93</v>
       </c>
@@ -10065,7 +10061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>94</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
         <v>95</v>
       </c>
@@ -10144,7 +10140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>96</v>
       </c>
@@ -10176,7 +10172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>56</v>
       </c>
@@ -10228,7 +10224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>98</v>
       </c>
@@ -10279,7 +10275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>100</v>
       </c>
@@ -10326,7 +10322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>101</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>103</v>
       </c>
@@ -10401,7 +10397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>102</v>
       </c>
@@ -10421,7 +10417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
     </row>
   </sheetData>
@@ -10441,21 +10437,21 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="14" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="27.7265625" customWidth="1"/>
+    <col min="9" max="14" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H2" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="36"/>
       <c r="C3" s="35"/>
       <c r="D3" s="32"/>
@@ -10478,7 +10474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>115</v>
       </c>
@@ -10510,7 +10506,7 @@
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
     </row>
-    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="33" t="s">
         <v>117</v>
       </c>
@@ -10541,7 +10537,7 @@
       </c>
       <c r="S5" s="38"/>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="33" t="s">
         <v>119</v>
       </c>
@@ -10574,7 +10570,7 @@
       </c>
       <c r="S6" s="38"/>
     </row>
-    <row r="7" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
         <v>121</v>
       </c>
@@ -10607,7 +10603,7 @@
       </c>
       <c r="S7" s="38"/>
     </row>
-    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="36" t="s">
         <v>123</v>
       </c>
@@ -10640,7 +10636,7 @@
       </c>
       <c r="S8" s="38"/>
     </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="36" t="s">
         <v>125</v>
       </c>
@@ -10673,7 +10669,7 @@
       </c>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="36" t="s">
         <v>127</v>
       </c>
@@ -10706,7 +10702,7 @@
       </c>
       <c r="S10" s="38"/>
     </row>
-    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="36" t="s">
         <v>129</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="36" t="s">
         <v>131</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="36" t="s">
         <v>134</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="36" t="s">
         <v>136</v>
       </c>
@@ -10831,7 +10827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="36" t="s">
         <v>139</v>
       </c>
@@ -10842,7 +10838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="36" t="s">
         <v>140</v>
       </c>
@@ -10853,14 +10849,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="36"/>
       <c r="H18" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="58" x14ac:dyDescent="0.35">
       <c r="H19" s="38" t="s">
         <v>23</v>
       </c>
@@ -10886,7 +10882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="52" t="s">
         <v>149</v>
       </c>
@@ -10915,7 +10911,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="36" t="s">
         <v>151</v>
       </c>
@@ -10950,7 +10946,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H22" s="38">
         <v>3</v>
       </c>
@@ -10976,7 +10972,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H23" s="38">
         <v>4</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H24" s="38">
         <v>5</v>
       </c>
@@ -11028,7 +11024,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H25" s="38">
         <v>6</v>
       </c>
@@ -11054,7 +11050,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H26" s="38">
         <v>7</v>
       </c>
@@ -11080,7 +11076,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H27" s="38">
         <v>8</v>
       </c>
@@ -11106,7 +11102,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H28" s="38">
         <v>9</v>
       </c>
@@ -11132,7 +11128,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H29" s="38">
         <v>10</v>
       </c>
@@ -11158,7 +11154,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H30" s="38">
         <v>11</v>
       </c>
@@ -11184,7 +11180,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="H31" s="38">
         <v>12</v>
       </c>
@@ -11221,19 +11217,19 @@
   <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>153</v>
       </c>
@@ -11247,7 +11243,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>157</v>
       </c>
@@ -11257,7 +11253,7 @@
       </c>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>159</v>
       </c>
@@ -11266,12 +11262,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="69">
-        <v>37750</v>
+        <v>3438.89</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>87</v>
@@ -11280,7 +11276,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>162</v>
       </c>
@@ -11292,7 +11288,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>163</v>
       </c>
@@ -11303,7 +11299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="64" t="s">
         <v>164</v>
       </c>
@@ -11313,7 +11309,7 @@
       </c>
       <c r="D8" s="66"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="64" t="s">
         <v>165</v>
       </c>
@@ -11323,12 +11319,12 @@
       </c>
       <c r="D9" s="67"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B10" s="71">
-        <v>47000</v>
+        <v>54720.2</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>87</v>
@@ -11338,7 +11334,7 @@
       </c>
       <c r="F10" s="67"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>167</v>
       </c>
@@ -11350,7 +11346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>168</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
         <v>169</v>
       </c>
@@ -11371,7 +11367,7 @@
       </c>
       <c r="D13" s="66"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
         <v>171</v>
       </c>
@@ -11380,7 +11376,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>172</v>
       </c>
@@ -11394,7 +11390,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>173</v>
       </c>
@@ -11403,7 +11399,7 @@
       </c>
       <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>174</v>
       </c>
@@ -11414,7 +11410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="64" t="s">
         <v>175</v>
       </c>
@@ -11426,7 +11422,7 @@
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>176</v>
       </c>
@@ -11435,7 +11431,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>177</v>
       </c>
@@ -11447,7 +11443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>178</v>
       </c>
@@ -11456,7 +11452,7 @@
       </c>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>179</v>
       </c>
@@ -11467,7 +11463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>180</v>
       </c>
@@ -11477,7 +11473,7 @@
       </c>
       <c r="D23" s="66"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>181</v>
       </c>
@@ -11486,7 +11482,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>183</v>
       </c>
@@ -11500,7 +11496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>184</v>
       </c>
@@ -11509,7 +11505,7 @@
       </c>
       <c r="C26" s="26"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>185</v>
       </c>
@@ -11520,7 +11516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>186</v>
       </c>
@@ -11530,7 +11526,7 @@
       </c>
       <c r="D28" s="66"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="59" t="s">
         <v>188</v>
       </c>
@@ -11539,12 +11535,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B30" s="78">
-        <v>76620</v>
+        <v>25180349</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>190</v>
@@ -11553,7 +11549,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>191</v>
       </c>
@@ -11562,7 +11558,7 @@
       </c>
       <c r="C31" s="26"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>192</v>
       </c>
@@ -11579,6 +11575,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7049AB24443724EAB1CFD3B2AF1ADB5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c30c205005472c154e057e99ca4cd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xmlns:ns3="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7233ea2167b9792fbdd1e6ef7896b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
@@ -11833,28 +11850,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11871,23 +11886,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
-    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqsa.mehmood\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396D3B8-0D4B-4073-A989-05133CA7C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E2169-F94C-4C4F-A5D1-3C9E99177C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="tariff" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1340,7 +1341,7 @@
   <dimension ref="A1:U308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,13 +1433,13 @@
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
-        <v>279688900</v>
+        <v>280000000</v>
       </c>
       <c r="B2" s="37">
-        <v>1165370.42</v>
+        <v>388888</v>
       </c>
       <c r="C2" s="51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5">
         <v>0.1</v>
@@ -4861,7 +4862,7 @@
   <dimension ref="A1:K309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="37">
-        <v>150000000</v>
+        <v>269000000</v>
       </c>
       <c r="B2" s="81">
         <v>175000</v>
@@ -8739,8 +8740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9428,8 +9429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560C09F-AE50-47AF-9672-D0EBBBFD54D2}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9481,7 +9482,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="57">
-        <v>25410</v>
+        <v>30000</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -11575,27 +11576,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7049AB24443724EAB1CFD3B2AF1ADB5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c30c205005472c154e057e99ca4cd82">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xmlns:ns3="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7233ea2167b9792fbdd1e6ef7896b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
@@ -11850,26 +11830,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
-    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78d2dcdf-d17c-4586-ad68-d792bc06c6b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ad74739f-b6c5-48e8-a4a2-e396fec78e6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABB7A950-A73B-49B6-A697-FA122F26FFD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11886,4 +11868,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A7ADAC-11AC-4699-B4EA-2CE8EDD8A75B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CC7F60-97FA-47D2-813C-DE1DF9F0EBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ad74739f-b6c5-48e8-a4a2-e396fec78e6b"/>
+    <ds:schemaRef ds:uri="78d2dcdf-d17c-4586-ad68-d792bc06c6b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>